--- a/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>114</v>
       </c>
       <c r="E2">
-        <v>0.03518150761238785</v>
+        <v>0.03472607290402394</v>
       </c>
       <c r="F2">
         <v>0.501432871800642</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.01544623407934336</v>
+        <v>0.01458152946316227</v>
       </c>
       <c r="F3">
         <v>0.5018459544300797</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>125</v>
       </c>
       <c r="E5">
-        <v>0.03899087145507371</v>
+        <v>0.03816506112867032</v>
       </c>
       <c r="F5">
         <v>0.503839162414237</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.02507080653611299</v>
+        <v>0.02364508842298046</v>
       </c>
       <c r="F6">
         <v>0.5019151269313173</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>143</v>
       </c>
       <c r="E2">
-        <v>0.03518150761238785</v>
+        <v>0.03472607290402394</v>
       </c>
       <c r="F2">
         <v>0.7077617644279814</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01544623407934336</v>
+        <v>0.01458152946316227</v>
       </c>
       <c r="F3">
         <v>0.7003922368948649</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.03899087145507371</v>
+        <v>0.03816506112867032</v>
       </c>
       <c r="F5">
         <v>0.7058949751409908</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.02507080653611299</v>
+        <v>0.02364508842298046</v>
       </c>
       <c r="F6">
         <v>0.7210501628067301</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>159</v>
       </c>
       <c r="E2">
-        <v>0.03518150761238785</v>
+        <v>0.03472607290402394</v>
       </c>
       <c r="F2">
         <v>0.8178016918276082</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.01544623407934336</v>
+        <v>0.01458152946316227</v>
       </c>
       <c r="F3">
         <v>0.813024745023268</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.03899087145507371</v>
+        <v>0.03816506112867032</v>
       </c>
       <c r="F5">
         <v>0.8018764210104372</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.02507080653611299</v>
+        <v>0.02364508842298046</v>
       </c>
       <c r="F6">
         <v>0.8163639730495216</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>184</v>
       </c>
       <c r="E2">
-        <v>0.03518150761238785</v>
+        <v>0.03472607290402394</v>
       </c>
       <c r="F2">
         <v>0.9089102564282022</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>184</v>
       </c>
       <c r="E3">
-        <v>0.01544623407934336</v>
+        <v>0.01458152946316227</v>
       </c>
       <c r="F3">
         <v>0.9130318593623546</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>186</v>
       </c>
       <c r="E5">
-        <v>0.03899087145507371</v>
+        <v>0.03816506112867032</v>
       </c>
       <c r="F5">
         <v>0.9074254038821709</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>183</v>
       </c>
       <c r="E6">
-        <v>0.02507080653611299</v>
+        <v>0.02364508842298046</v>
       </c>
       <c r="F6">
         <v>0.9032758184211785</v>
       </c>
       <c r="G6">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <v>12</v>

--- a/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0008397393443586246</v>
+        <v>0.0008012368417176665</v>
       </c>
       <c r="C2">
-        <v>0.0006248251332431232</v>
+        <v>0.0005845521433753504</v>
       </c>
       <c r="D2">
-        <v>0.0005196603626972708</v>
+        <v>0.0004785210137274364</v>
       </c>
       <c r="E2">
-        <v>0.0004460346523151203</v>
+        <v>0.0004042887665363883</v>
       </c>
       <c r="F2">
-        <v>0.0002378368012344799</v>
+        <v>0.0001943757583515467</v>
       </c>
       <c r="G2">
-        <v>0.0001240763106440118</v>
+        <v>7.96780961591581E-05</v>
       </c>
       <c r="H2">
-        <v>4.504924823382584E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.128166155855689E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.0350650313247E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.741755050564088E-05</v>
+        <v>5.279971818321974E-05</v>
       </c>
       <c r="L2">
-        <v>0.0003614693718761885</v>
+        <v>0.00031902682789104</v>
       </c>
       <c r="M2">
-        <v>0.0005245207027224981</v>
+        <v>0.0004834213937755546</v>
       </c>
       <c r="N2">
-        <v>0.0005592750029028887</v>
+        <v>0.0005184620037547568</v>
       </c>
       <c r="O2">
-        <v>0.0006756628035069936</v>
+        <v>0.0006358086200335306</v>
       </c>
       <c r="P2">
-        <v>0.0006594195034226836</v>
+        <v>0.000619431505832549</v>
       </c>
       <c r="Q2">
-        <v>0.0007533586039102696</v>
+        <v>0.0007141444871009752</v>
       </c>
       <c r="R2">
-        <v>0.0005245207027224981</v>
+        <v>0.0004834213937755546</v>
       </c>
       <c r="S2">
-        <v>0.0004544389723587425</v>
+        <v>0.0004127623223053264</v>
       </c>
       <c r="T2">
-        <v>0.0003750416019466345</v>
+        <v>0.0003327108675056496</v>
       </c>
       <c r="U2">
-        <v>0.0003599768018684414</v>
+        <v>0.0003175219619251982</v>
       </c>
       <c r="V2">
-        <v>0.000130315500676396</v>
+        <v>8.596868533448716E-05</v>
       </c>
       <c r="W2">
-        <v>6.864437535629515E-05</v>
+        <v>2.378950640976059E-05</v>
       </c>
       <c r="X2">
-        <v>1.863247209671091E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.417411507357003E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001936467710051138</v>
+        <v>0.0001498216857274615</v>
       </c>
       <c r="AA2">
-        <v>0.0001839294709546766</v>
+        <v>0.0001400243334760595</v>
       </c>
       <c r="AB2">
-        <v>0.0002501109012981879</v>
+        <v>0.0002067509738197254</v>
       </c>
       <c r="AC2">
-        <v>0.0005880588030522894</v>
+        <v>0.0005474829280582058</v>
       </c>
       <c r="AD2">
-        <v>0.0009373082448650511</v>
+        <v>0.000899609525702088</v>
       </c>
       <c r="AE2">
-        <v>0.00108895390565216</v>
+        <v>0.001052504460346109</v>
       </c>
       <c r="AF2">
-        <v>0.0009317026748359556</v>
+        <v>0.0008939577763622619</v>
       </c>
       <c r="AG2">
-        <v>0.0007475315038800245</v>
+        <v>0.0007082693827711569</v>
       </c>
       <c r="AH2">
-        <v>0.0007940721741215914</v>
+        <v>0.0007551934602418801</v>
       </c>
       <c r="AI2">
-        <v>0.0008246258442801787</v>
+        <v>0.0007859988349409317</v>
       </c>
       <c r="AJ2">
-        <v>0.0006769434535136408</v>
+        <v>0.0006370998201776815</v>
       </c>
       <c r="AK2">
-        <v>0.0004588499723816376</v>
+        <v>0.000417209660638087</v>
       </c>
       <c r="AL2">
-        <v>0.0001839294709546766</v>
+        <v>0.0001400243334760595</v>
       </c>
       <c r="AM2">
-        <v>9.790424050816701E-05</v>
+        <v>5.329041759223611E-05</v>
       </c>
       <c r="AN2">
-        <v>2.742650614235589E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>6.695754634753975E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>9.156158047524575E-05</v>
+        <v>4.689550601897218E-05</v>
       </c>
       <c r="AQ2">
-        <v>0.0002208291811462027</v>
+        <v>0.0001772280275932095</v>
       </c>
       <c r="AR2">
-        <v>0.0003699857019203921</v>
+        <v>0.0003276133164114296</v>
       </c>
       <c r="AS2">
-        <v>0.000591315853069195</v>
+        <v>0.0005507668100162012</v>
       </c>
       <c r="AT2">
-        <v>0.0005824314430230809</v>
+        <v>0.0005418092092098169</v>
       </c>
       <c r="AU2">
-        <v>0.0004984552025872065</v>
+        <v>0.0004571411631447293</v>
       </c>
       <c r="AV2">
-        <v>0.0004522079823471626</v>
+        <v>0.0004105129531493515</v>
       </c>
       <c r="AW2">
-        <v>0.000485094402517858</v>
+        <v>0.0004436702953151334</v>
       </c>
       <c r="AX2">
-        <v>0.0004172590021657618</v>
+        <v>0.0003752760593735903</v>
       </c>
       <c r="AY2">
-        <v>0.0003888639320183786</v>
+        <v>0.0003466470674732457</v>
       </c>
       <c r="AZ2">
-        <v>0.0003452208017918511</v>
+        <v>0.0003026444002751834</v>
       </c>
       <c r="BA2">
-        <v>0.0002104437610922977</v>
+        <v>0.0001667570512912783</v>
       </c>
       <c r="BB2">
-        <v>6.084887431583301E-05</v>
+        <v>1.592978516279316E-05</v>
       </c>
       <c r="BC2">
-        <v>3.961838220563721E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>2.154710811183918E-07</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>3.105118616116961E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0001755018709109336</v>
+        <v>0.0001315273059237645</v>
       </c>
       <c r="BG2">
-        <v>0.0002878962814943111</v>
+        <v>0.0002448476341896925</v>
       </c>
       <c r="BH2">
-        <v>0.0006654064034537583</v>
+        <v>0.0006254677266134159</v>
       </c>
       <c r="BI2">
-        <v>0.000622862253232935</v>
+        <v>0.0005825730929408438</v>
       </c>
       <c r="BJ2">
-        <v>0.0007044805036565704</v>
+        <v>0.0006648637236091356</v>
       </c>
       <c r="BK2">
-        <v>0.0008812313345739867</v>
+        <v>0.0008430706475733723</v>
       </c>
       <c r="BL2">
-        <v>0.001036861405381777</v>
+        <v>0.0009999828162519512</v>
       </c>
       <c r="BM2">
-        <v>0.0008496367444099966</v>
+        <v>0.0008112157776538861</v>
       </c>
       <c r="BN2">
-        <v>0.0006406392033252053</v>
+        <v>0.0006004964915295012</v>
       </c>
       <c r="BO2">
-        <v>0.0006182943032092253</v>
+        <v>0.0005779675116356673</v>
       </c>
       <c r="BP2">
-        <v>0.0005629235029218259</v>
+        <v>0.0005221405605235341</v>
       </c>
       <c r="BQ2">
-        <v>0.0004937174425626154</v>
+        <v>0.0004523643729249561</v>
       </c>
       <c r="BR2">
-        <v>0.0002215616011500043</v>
+        <v>0.0001779664813546423</v>
       </c>
       <c r="BS2">
-        <v>7.573786639311357E-05</v>
+        <v>3.094143441642397E-05</v>
       </c>
       <c r="BT2">
-        <v>1.190597406179736E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.458335307569416E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>5.942689030845226E-05</v>
+        <v>1.449608669265663E-05</v>
       </c>
       <c r="BW2">
-        <v>0.0003147734016338154</v>
+        <v>0.0002719461710407934</v>
       </c>
       <c r="BX2">
-        <v>0.0004673735824258789</v>
+        <v>0.0004258034891319663</v>
       </c>
       <c r="BY2">
-        <v>0.000534769302775693</v>
+        <v>0.0004937544229383589</v>
       </c>
       <c r="BZ2">
-        <v>0.0006688707534717399</v>
+        <v>0.0006289606163330032</v>
       </c>
       <c r="CA2">
-        <v>0.0004827893325058936</v>
+        <v>0.0004413462358794734</v>
       </c>
       <c r="CB2">
-        <v>0.0006594195034226836</v>
+        <v>0.000619431505832549</v>
       </c>
       <c r="CC2">
-        <v>0.0007010916636389808</v>
+        <v>0.0006614469659497405</v>
       </c>
       <c r="CD2">
-        <v>0.000608639973159115</v>
+        <v>0.0005682336481384738</v>
       </c>
       <c r="CE2">
-        <v>0.0005512504028612373</v>
+        <v>0.0005103712961634916</v>
       </c>
       <c r="CF2">
-        <v>0.0003634643018865431</v>
+        <v>0.0003210381923571869</v>
       </c>
       <c r="CG2">
-        <v>0.0002055325910668065</v>
+        <v>0.0001618054224996883</v>
       </c>
       <c r="CH2">
-        <v>3.482625518076391E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>2.168839011257249E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>5.101261026477837E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>9.103094647249153E-05</v>
+        <v>4.636050059415558E-05</v>
       </c>
       <c r="CL2">
-        <v>0.0003644037618914193</v>
+        <v>0.0003219853917383012</v>
       </c>
       <c r="CM2">
-        <v>0.002194484711390362</v>
+        <v>0.002167142752091169</v>
       </c>
       <c r="CN2">
-        <v>0.1081201805611923</v>
+        <v>0.1089654662914261</v>
       </c>
       <c r="CO2">
-        <v>0.1295534006724404</v>
+        <v>0.1305752556590278</v>
       </c>
       <c r="CP2">
-        <v>0.04913362025502557</v>
+        <v>0.04949296812645639</v>
       </c>
       <c r="CQ2">
-        <v>0.004471650323209875</v>
+        <v>0.004463067908047582</v>
       </c>
       <c r="CR2">
-        <v>0.01800085809343254</v>
+        <v>0.01810373079992914</v>
       </c>
       <c r="CS2">
-        <v>0.001373417207128652</v>
+        <v>0.001339311202208174</v>
       </c>
       <c r="CT2">
-        <v>0.002367098112286303</v>
+        <v>0.002341178161424231</v>
       </c>
       <c r="CU2">
-        <v>0.002442735212678894</v>
+        <v>0.002417438368680827</v>
       </c>
       <c r="CV2">
-        <v>0.005653404029343707</v>
+        <v>0.005654557032938</v>
       </c>
       <c r="CW2">
-        <v>6.552822534012094E-06</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.005475587728420762</v>
+        <v>0.005475275861507565</v>
       </c>
       <c r="CY2">
-        <v>0.06476974533618408</v>
+        <v>0.0652579053489311</v>
       </c>
       <c r="CZ2">
-        <v>8.440779543811439E-05</v>
+        <v>3.968278730330054E-05</v>
       </c>
       <c r="DA2">
-        <v>0.0244018751266567</v>
+        <v>0.02455748012496928</v>
       </c>
       <c r="DB2">
-        <v>0.003411815517708856</v>
+        <v>0.003394502065283211</v>
       </c>
       <c r="DC2">
-        <v>0.006629821034411751</v>
+        <v>0.006639017870131173</v>
       </c>
       <c r="DD2">
-        <v>0.01174569706096545</v>
+        <v>0.01179703905363827</v>
       </c>
       <c r="DE2">
-        <v>4.04536472099726E-06</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.002778678714422591</v>
+        <v>0.002756149410438195</v>
       </c>
       <c r="DG2">
-        <v>0.00672589343491041</v>
+        <v>0.006735881725773954</v>
       </c>
       <c r="DH2">
-        <v>3.105118616116961E-05</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0129091125670041</v>
+        <v>0.01297003890629704</v>
       </c>
       <c r="DJ2">
-        <v>0.00128472890666832</v>
+        <v>0.001249892277642913</v>
       </c>
       <c r="DK2">
-        <v>0.002681502413918202</v>
+        <v>0.00265817256073839</v>
       </c>
       <c r="DL2">
-        <v>0.0007962882541330939</v>
+        <v>0.0007574277965675351</v>
       </c>
       <c r="DM2">
-        <v>0.006376085333094748</v>
+        <v>0.006383191865823795</v>
       </c>
       <c r="DN2">
-        <v>0.004221257821910226</v>
+        <v>0.004210612645411955</v>
       </c>
       <c r="DO2">
-        <v>0.0002808813314579003</v>
+        <v>0.0002377748942129528</v>
       </c>
       <c r="DP2">
-        <v>8.68316504506953E-05</v>
+        <v>4.21266103036527E-05</v>
       </c>
       <c r="DQ2">
-        <v>0.001869856709705397</v>
+        <v>0.001839840428743312</v>
       </c>
       <c r="DR2">
-        <v>0.002795107214507862</v>
+        <v>0.002772713250338389</v>
       </c>
       <c r="DS2">
-        <v>9.845450051102311E-05</v>
+        <v>5.384521069833106E-05</v>
       </c>
       <c r="DT2">
-        <v>0.007480967338829583</v>
+        <v>0.007497176012678743</v>
       </c>
       <c r="DU2">
-        <v>0.01330195406904312</v>
+        <v>0.01336611668041836</v>
       </c>
       <c r="DV2">
-        <v>0.004931333525595837</v>
+        <v>0.004926538031893885</v>
       </c>
       <c r="DW2">
-        <v>0.004436685023028389</v>
+        <v>0.004427814559825756</v>
       </c>
       <c r="DX2">
-        <v>0.0004145237321515644</v>
+        <v>0.0003725182559001262</v>
       </c>
       <c r="DY2">
-        <v>0.005966622030969451</v>
+        <v>0.005970355359374319</v>
       </c>
       <c r="DZ2">
-        <v>0.01451543007534161</v>
+        <v>0.01458958943731815</v>
       </c>
       <c r="EA2">
-        <v>0.0006313903032771995</v>
+        <v>0.0005911713980119612</v>
       </c>
       <c r="EB2">
-        <v>0.004780050024810608</v>
+        <v>0.004774008240766208</v>
       </c>
       <c r="EC2">
-        <v>0.009206259047784621</v>
+        <v>0.00923668086704366</v>
       </c>
       <c r="ED2">
-        <v>6.82379643541857E-06</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0024079033124981</v>
+        <v>0.002382319519423769</v>
       </c>
       <c r="EF2">
-        <v>0.001193346806194006</v>
+        <v>0.001157757361238886</v>
       </c>
       <c r="EG2">
-        <v>0.001773841209207033</v>
+        <v>0.001743033941849372</v>
       </c>
       <c r="EH2">
-        <v>0.01418318707361711</v>
+        <v>0.01425460938071163</v>
       </c>
       <c r="EI2">
-        <v>0.02436554612646813</v>
+        <v>0.02452085184242771</v>
       </c>
       <c r="EJ2">
-        <v>0.02610473113549528</v>
+        <v>0.02627436445141937</v>
       </c>
       <c r="EK2">
-        <v>0.004841826425131254</v>
+        <v>0.004836293561958669</v>
       </c>
       <c r="EL2">
-        <v>0.003746923519448217</v>
+        <v>0.003732370724094077</v>
       </c>
       <c r="EM2">
-        <v>0.02322960512057209</v>
+        <v>0.0233755528279062</v>
       </c>
       <c r="EN2">
-        <v>0.0222851801156701</v>
+        <v>0.02242334754454247</v>
       </c>
       <c r="EO2">
-        <v>0.01667654308655875</v>
+        <v>0.01676850593841251</v>
       </c>
       <c r="EP2">
-        <v>0.002593894513463478</v>
+        <v>0.00256984293663441</v>
       </c>
       <c r="EQ2">
-        <v>0.001563027408112815</v>
+        <v>0.001530483433163151</v>
       </c>
       <c r="ER2">
-        <v>0.005758038329886806</v>
+        <v>0.005760053322512149</v>
       </c>
       <c r="ES2">
-        <v>3.877867520127875E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.003089315016034933</v>
+        <v>0.003069344768528632</v>
       </c>
       <c r="EU2">
-        <v>0.002084234710818115</v>
+        <v>0.002055984499725073</v>
       </c>
       <c r="EV2">
-        <v>1.953415610139105E-05</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.002418352512552336</v>
+        <v>0.002392854801152783</v>
       </c>
       <c r="EX2">
-        <v>0.00586210703042697</v>
+        <v>0.005864979352607493</v>
       </c>
       <c r="EY2">
-        <v>0.01371295107117638</v>
+        <v>0.01378049952166742</v>
       </c>
       <c r="EZ2">
-        <v>0.0146708675761484</v>
+        <v>0.0147463074495826</v>
       </c>
       <c r="FA2">
-        <v>3.560974718483059E-07</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.008285164043003725</v>
+        <v>0.008307997778942528</v>
       </c>
       <c r="FC2">
-        <v>0.014145403073421</v>
+        <v>0.01421651411171027</v>
       </c>
       <c r="FD2">
-        <v>0.01912136009924845</v>
+        <v>0.01923346362616692</v>
       </c>
       <c r="FE2">
-        <v>0.008934032046371641</v>
+        <v>0.008962211229248963</v>
       </c>
       <c r="FF2">
-        <v>0.0003624062818810514</v>
+        <v>0.0003199714562649567</v>
       </c>
       <c r="FG2">
-        <v>0.00341469261772379</v>
+        <v>0.003397402867168767</v>
       </c>
       <c r="FH2">
-        <v>0.003025583015704136</v>
+        <v>0.003005087736875152</v>
       </c>
       <c r="FI2">
-        <v>0.01469308607626372</v>
+        <v>0.01476870898817848</v>
       </c>
       <c r="FJ2">
-        <v>0.009360217548583736</v>
+        <v>0.009391907695133509</v>
       </c>
       <c r="FK2">
-        <v>0.002658491513798765</v>
+        <v>0.002634972094258834</v>
       </c>
       <c r="FL2">
-        <v>0.0001556632808079624</v>
+        <v>0.0001115252833041951</v>
       </c>
       <c r="FM2">
-        <v>0.0002231240211581139</v>
+        <v>0.0001795417727529357</v>
       </c>
       <c r="FN2">
-        <v>0.002108221910942619</v>
+        <v>0.002080169309077962</v>
       </c>
       <c r="FO2">
-        <v>0.0002765082014352018</v>
+        <v>0.0002333657378576716</v>
       </c>
       <c r="FP2">
-        <v>2.070909610748951E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>2.61913151359447E-06</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.004459397023146275</v>
+        <v>0.004450713663932231</v>
       </c>
       <c r="FS2">
-        <v>0.009484509049228864</v>
+        <v>0.009517223123015239</v>
       </c>
       <c r="FT2">
-        <v>2.723500014136189E-05</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>1.285393206671768E-06</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>1.601749108313798E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0006216339032265593</v>
+        <v>0.0005813346236501962</v>
       </c>
       <c r="FX2">
-        <v>0.001240977806441232</v>
+        <v>0.00120578075097539</v>
       </c>
       <c r="FY2">
-        <v>1.378236607153667E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>7.530987039089207E-05</v>
+        <v>3.050991253542914E-05</v>
       </c>
       <c r="GA2">
-        <v>0.001951146810127329</v>
+        <v>0.00192180020607361</v>
       </c>
       <c r="GB2">
-        <v>0.01547768808033616</v>
+        <v>0.01555977463101698</v>
       </c>
       <c r="GC2">
-        <v>0.01250422706490256</v>
+        <v>0.01256181791229819</v>
       </c>
       <c r="GD2">
-        <v>0.002946681615294602</v>
+        <v>0.002925536337934215</v>
       </c>
       <c r="GE2">
-        <v>0.002322549212055075</v>
+        <v>0.002296262262387206</v>
       </c>
       <c r="GF2">
-        <v>0.001193346806194006</v>
+        <v>0.001157757361238886</v>
       </c>
       <c r="GG2">
-        <v>0.00239506621243147</v>
+        <v>0.002369376665895889</v>
       </c>
       <c r="GH2">
-        <v>7.665250539786096E-05</v>
+        <v>3.18636083192437E-05</v>
       </c>
       <c r="GI2">
-        <v>0.008395499043576414</v>
+        <v>0.008419241731548545</v>
       </c>
       <c r="GJ2">
-        <v>0.02138762211101137</v>
+        <v>0.02151839535699409</v>
       </c>
       <c r="GK2">
-        <v>0.01697938308813063</v>
+        <v>0.01707384076967372</v>
       </c>
       <c r="GL2">
-        <v>0.01991592910337262</v>
+        <v>0.02003457837831456</v>
       </c>
       <c r="GM2">
-        <v>0.009617941049921436</v>
+        <v>0.009651754351402659</v>
       </c>
       <c r="GN2">
-        <v>0.000591315853069195</v>
+        <v>0.0005507668100162012</v>
       </c>
       <c r="GO2">
-        <v>0.0007584000039364369</v>
+        <v>0.0007192274187425031</v>
       </c>
       <c r="GP2">
-        <v>0.0003129171016241804</v>
+        <v>0.0002700745786247645</v>
       </c>
       <c r="GQ2">
-        <v>1.498624407778534E-05</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0006756628035069936</v>
+        <v>0.0006358086200335306</v>
       </c>
       <c r="GS2">
-        <v>0.00350579081819663</v>
+        <v>0.003489251544771462</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.760055292053269E-05</v>
+        <v>5.758193157529145E-06</v>
       </c>
       <c r="C3">
-        <v>1.859229527284881E-08</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8.291327175723284E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.586306220627954E-05</v>
+        <v>2.409645872876836E-05</v>
       </c>
       <c r="F3">
-        <v>8.902171651832942E-05</v>
+        <v>6.743414316676493E-05</v>
       </c>
       <c r="G3">
-        <v>2.257186911720628E-05</v>
+        <v>7.086494384105006E-07</v>
       </c>
       <c r="H3">
-        <v>2.186614714480731E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.464997403593086E-05</v>
+        <v>2.795374722882353E-06</v>
       </c>
       <c r="J3">
-        <v>8.046803685286684E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.801814116647609E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.97180720999912E-05</v>
+        <v>7.817486922098847E-05</v>
       </c>
       <c r="M3">
-        <v>9.675028221606251E-05</v>
+        <v>7.519476839258822E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001926170424666799</v>
+        <v>0.0001714592017967213</v>
       </c>
       <c r="O3">
-        <v>0.0004356733829606611</v>
+        <v>0.0004155237852015254</v>
       </c>
       <c r="P3">
-        <v>0.0003875272648436727</v>
+        <v>0.0003671779480310186</v>
       </c>
       <c r="Q3">
-        <v>0.0002761054092014205</v>
+        <v>0.0002552938938061921</v>
       </c>
       <c r="R3">
-        <v>0.0002413761705596933</v>
+        <v>0.0002204205918226584</v>
       </c>
       <c r="S3">
-        <v>0.0001224569652106651</v>
+        <v>0.0001010080874899043</v>
       </c>
       <c r="T3">
-        <v>4.888054808826461E-05</v>
+        <v>2.712646170346879E-05</v>
       </c>
       <c r="U3">
-        <v>2.633722596994185E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3.362883068476463E-05</v>
+        <v>1.181147733923576E-05</v>
       </c>
       <c r="W3">
-        <v>0.0001683500334157711</v>
+        <v>0.0001470915286784086</v>
       </c>
       <c r="X3">
-        <v>0.000230372390990055</v>
+        <v>0.0002093711665285729</v>
       </c>
       <c r="Y3">
-        <v>0.000293245208531077</v>
+        <v>0.0002725047922116099</v>
       </c>
       <c r="Z3">
-        <v>0.0001984490622385875</v>
+        <v>0.0001773154138714459</v>
       </c>
       <c r="AA3">
-        <v>0.0002412100505661903</v>
+        <v>0.0002202537827325227</v>
       </c>
       <c r="AB3">
-        <v>0.0002845206088722991</v>
+        <v>0.000263744001290601</v>
       </c>
       <c r="AC3">
-        <v>0.0001518469440612127</v>
+        <v>0.0001305199814394988</v>
       </c>
       <c r="AD3">
-        <v>3.577046860100441E-05</v>
+        <v>1.396199916791415E-05</v>
       </c>
       <c r="AE3">
-        <v>4.940533306774009E-05</v>
+        <v>2.76534235886534E-05</v>
       </c>
       <c r="AF3">
-        <v>4.20354933559771E-05</v>
+        <v>2.025301241091597E-05</v>
       </c>
       <c r="AG3">
-        <v>0.0002057463319531887</v>
+        <v>0.0001846429540181747</v>
       </c>
       <c r="AH3">
-        <v>0.0001759264331194554</v>
+        <v>0.0001546993566973357</v>
       </c>
       <c r="AI3">
-        <v>0.0002584491298919638</v>
+        <v>0.0002375643729659484</v>
       </c>
       <c r="AJ3">
-        <v>0.0002425406305141508</v>
+        <v>0.0002215898821736061</v>
       </c>
       <c r="AK3">
-        <v>3.155329876593941E-05</v>
+        <v>9.727335727945454E-06</v>
       </c>
       <c r="AL3">
-        <v>3.615526858595476E-05</v>
+        <v>1.434839537477799E-05</v>
       </c>
       <c r="AM3">
-        <v>1.427174244182714E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.995217282856001E-05</v>
+        <v>8.119568022355373E-06</v>
       </c>
       <c r="AO3">
-        <v>8.791524656160386E-05</v>
+        <v>6.632308336684646E-05</v>
       </c>
       <c r="AP3">
-        <v>0.0003093943678994777</v>
+        <v>0.0002887209412969456</v>
       </c>
       <c r="AQ3">
-        <v>0.0006261113155125668</v>
+        <v>0.0006067516897206588</v>
       </c>
       <c r="AR3">
-        <v>0.0004223830034804525</v>
+        <v>0.0004021782747551143</v>
       </c>
       <c r="AS3">
-        <v>0.0002111503217418368</v>
+        <v>0.0001900693605616521</v>
       </c>
       <c r="AT3">
-        <v>0.0002775288491457493</v>
+        <v>0.0002567232384441814</v>
       </c>
       <c r="AU3">
-        <v>0.0002068215319111373</v>
+        <v>0.0001857226141055448</v>
       </c>
       <c r="AV3">
-        <v>0.000110009265697499</v>
+        <v>8.850875260378435E-05</v>
       </c>
       <c r="AW3">
-        <v>2.334043608714735E-05</v>
+        <v>1.480404567102591E-06</v>
       </c>
       <c r="AX3">
-        <v>6.519276445028811E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.046558209068741E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.071787879861298E-05</v>
+        <v>8.888450283199651E-06</v>
       </c>
       <c r="BA3">
-        <v>1.239835951509581E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.186614714480731E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.195059953260786E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.185963614506196E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>7.545570704890081E-05</v>
+        <v>5.381185936666916E-05</v>
       </c>
       <c r="BF3">
-        <v>0.0001924686424724839</v>
+        <v>0.0001713101862117458</v>
       </c>
       <c r="BG3">
-        <v>0.0002870516487733092</v>
+        <v>0.0002662855404159145</v>
       </c>
       <c r="BH3">
-        <v>0.000181646082895758</v>
+        <v>0.0001604427326448116</v>
       </c>
       <c r="BI3">
-        <v>0.000475612861398614</v>
+        <v>0.0004556289400251064</v>
       </c>
       <c r="BJ3">
-        <v>0.0007115290221718503</v>
+        <v>0.0006925237249155524</v>
       </c>
       <c r="BK3">
-        <v>0.0009501144628406899</v>
+        <v>0.0009320988623711165</v>
       </c>
       <c r="BL3">
-        <v>0.0006457983147426013</v>
+        <v>0.0006265203542854412</v>
       </c>
       <c r="BM3">
-        <v>0.0003392384267322661</v>
+        <v>0.0003186887988370097</v>
       </c>
       <c r="BN3">
-        <v>0.0001975461722738999</v>
+        <v>0.0001764087785512399</v>
       </c>
       <c r="BO3">
-        <v>0.000161755463673687</v>
+        <v>0.0001404696034343908</v>
       </c>
       <c r="BP3">
-        <v>0.0001002527560790795</v>
+        <v>7.871177116867762E-05</v>
       </c>
       <c r="BQ3">
-        <v>8.118064082499665E-07</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>5.957804166988188E-05</v>
+        <v>3.786833047828331E-05</v>
       </c>
       <c r="BS3">
-        <v>0.0001040355459311333</v>
+        <v>8.251025273666734E-05</v>
       </c>
       <c r="BT3">
-        <v>0.000110009265697499</v>
+        <v>8.850875260378435E-05</v>
       </c>
       <c r="BU3">
-        <v>0.0002847010188652432</v>
+        <v>0.0002639251596577536</v>
       </c>
       <c r="BV3">
-        <v>0.0005109987800146584</v>
+        <v>0.0004911616460136384</v>
       </c>
       <c r="BW3">
-        <v>0.0003366825868322259</v>
+        <v>0.0003161223568376572</v>
       </c>
       <c r="BX3">
-        <v>0.0002089803218267063</v>
+        <v>0.000187890359083236</v>
       </c>
       <c r="BY3">
-        <v>0.0001154592354843488</v>
+        <v>9.398132987904862E-05</v>
       </c>
       <c r="BZ3">
-        <v>8.180816680045389E-05</v>
+        <v>6.01906703028808E-05</v>
       </c>
       <c r="CA3">
-        <v>0.0003173454475885082</v>
+        <v>0.0002967050035434916</v>
       </c>
       <c r="CB3">
-        <v>0.0002413761705596933</v>
+        <v>0.0002204205918226584</v>
       </c>
       <c r="CC3">
-        <v>0.0001935086124318102</v>
+        <v>0.0001723544701599063</v>
       </c>
       <c r="CD3">
-        <v>0.0002437079004684985</v>
+        <v>0.0002227619941808461</v>
       </c>
       <c r="CE3">
-        <v>8.180816680045389E-05</v>
+        <v>6.01906703028808E-05</v>
       </c>
       <c r="CF3">
-        <v>3.456552264813028E-05</v>
+        <v>1.275205487509776E-05</v>
       </c>
       <c r="CG3">
-        <v>2.092631218156458E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.406937405863833E-05</v>
+        <v>2.212366308887698E-06</v>
       </c>
       <c r="CI3">
-        <v>6.725678736956344E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>4.732299814918094E-05</v>
+        <v>2.556245075752085E-05</v>
       </c>
       <c r="CK3">
-        <v>0.0002313473409519243</v>
+        <v>0.0002103501607642327</v>
       </c>
       <c r="CL3">
-        <v>0.0006333572752291746</v>
+        <v>0.0006140277070259785</v>
       </c>
       <c r="CM3">
-        <v>0.007614937702177114</v>
+        <v>0.007624569028215573</v>
       </c>
       <c r="CN3">
-        <v>0.06921645729292006</v>
+        <v>0.06948162318060398</v>
       </c>
       <c r="CO3">
-        <v>0.1239854751508846</v>
+        <v>0.1244778331121256</v>
       </c>
       <c r="CP3">
-        <v>0.03582393659891327</v>
+        <v>0.03595058409947834</v>
       </c>
       <c r="CQ3">
-        <v>0.006389220450115346</v>
+        <v>0.006393767272998886</v>
       </c>
       <c r="CR3">
-        <v>0.01085726257536865</v>
+        <v>0.01088034366807987</v>
       </c>
       <c r="CS3">
-        <v>0.001570173738589954</v>
+        <v>0.001554730259332251</v>
       </c>
       <c r="CT3">
-        <v>0.0115304155490414</v>
+        <v>0.01155628900549934</v>
       </c>
       <c r="CU3">
-        <v>0.00493264380708257</v>
+        <v>0.004931148479115722</v>
       </c>
       <c r="CV3">
-        <v>0.01121564556135217</v>
+        <v>0.01124021329335139</v>
       </c>
       <c r="CW3">
-        <v>0.0005143888798820704</v>
+        <v>0.0004945658086458866</v>
       </c>
       <c r="CX3">
-        <v>0.01152352554931087</v>
+        <v>0.01154937042476833</v>
       </c>
       <c r="CY3">
-        <v>0.06680684738716075</v>
+        <v>0.06706201776474857</v>
       </c>
       <c r="CZ3">
-        <v>0.00331560717032544</v>
+        <v>0.003307404073607373</v>
       </c>
       <c r="DA3">
-        <v>0.03064574780143405</v>
+        <v>0.030750915211682</v>
       </c>
       <c r="DB3">
-        <v>0.009317066635606254</v>
+        <v>0.009333758709070385</v>
       </c>
       <c r="DC3">
-        <v>0.002975642283621586</v>
+        <v>0.002966028949317241</v>
       </c>
       <c r="DD3">
-        <v>0.02222880213062375</v>
+        <v>0.0222990544846089</v>
       </c>
       <c r="DE3">
-        <v>0.000128203374985921</v>
+        <v>0.0001067783344417868</v>
       </c>
       <c r="DF3">
-        <v>0.002771585091602334</v>
+        <v>0.002761125290109198</v>
       </c>
       <c r="DG3">
-        <v>0.008347547673524481</v>
+        <v>0.008360218001995495</v>
       </c>
       <c r="DH3">
-        <v>2.648830296403318E-05</v>
+        <v>4.641329381322546E-06</v>
       </c>
       <c r="DI3">
-        <v>0.01227707951983911</v>
+        <v>0.01230605027733348</v>
       </c>
       <c r="DJ3">
-        <v>0.002278832410874065</v>
+        <v>0.002266328579605266</v>
       </c>
       <c r="DK3">
-        <v>0.0003315999170310109</v>
+        <v>0.0003110186031766889</v>
       </c>
       <c r="DL3">
-        <v>0.0009633459623232014</v>
+        <v>0.0009453852485746478</v>
       </c>
       <c r="DM3">
-        <v>0.007545105704908268</v>
+        <v>0.007554447354832737</v>
       </c>
       <c r="DN3">
-        <v>0.005102324100446314</v>
+        <v>0.005101532637898251</v>
       </c>
       <c r="DO3">
-        <v>3.621959858343879E-05</v>
+        <v>1.441299222505749E-05</v>
       </c>
       <c r="DP3">
-        <v>0.0007001640326163389</v>
+        <v>0.0006811115912693843</v>
       </c>
       <c r="DQ3">
-        <v>0.002050527719803141</v>
+        <v>0.002037076838209253</v>
       </c>
       <c r="DR3">
-        <v>0.001305257548950919</v>
+        <v>0.00128871514806203</v>
       </c>
       <c r="DS3">
-        <v>0.001022993559990363</v>
+        <v>0.00100528027557187</v>
       </c>
       <c r="DT3">
-        <v>0.01104864956788344</v>
+        <v>0.01107252456943915</v>
       </c>
       <c r="DU3">
-        <v>0.01473020242389661</v>
+        <v>0.0147693491914978</v>
       </c>
       <c r="DV3">
-        <v>0.001893831825931573</v>
+        <v>0.001879730940623196</v>
       </c>
       <c r="DW3">
-        <v>0.003949236845543961</v>
+        <v>0.003943662162578967</v>
       </c>
       <c r="DX3">
-        <v>0.0003092062879068336</v>
+        <v>0.0002885320811135076</v>
       </c>
       <c r="DY3">
-        <v>0.004429422826763719</v>
+        <v>0.004425840044567318</v>
       </c>
       <c r="DZ3">
-        <v>0.0156460933880758</v>
+        <v>0.01568903944175956</v>
       </c>
       <c r="EA3">
-        <v>7.287699714975507E-05</v>
+        <v>5.122245249920077E-05</v>
       </c>
       <c r="EB3">
-        <v>0.003556927260887326</v>
+        <v>0.003549725204792407</v>
       </c>
       <c r="EC3">
-        <v>0.005490632785259425</v>
+        <v>0.005491452099364537</v>
       </c>
       <c r="ED3">
-        <v>0.000250262520212145</v>
+        <v>0.0002293438037064018</v>
       </c>
       <c r="EE3">
-        <v>0.0007846329693127292</v>
+        <v>0.0007659309208270996</v>
       </c>
       <c r="EF3">
-        <v>0.0007584927703350816</v>
+        <v>0.0007396822874418034</v>
       </c>
       <c r="EG3">
-        <v>0.001625315836433327</v>
+        <v>0.001610101096854357</v>
       </c>
       <c r="EH3">
-        <v>0.01422834744352434</v>
+        <v>0.01426541242331784</v>
       </c>
       <c r="EI3">
-        <v>0.02994400882887931</v>
+        <v>0.03004626529533995</v>
       </c>
       <c r="EJ3">
-        <v>0.03037115881217332</v>
+        <v>0.03047518717621803</v>
       </c>
       <c r="EK3">
-        <v>0.002044236920049177</v>
+        <v>0.002030759943047769</v>
       </c>
       <c r="EL3">
-        <v>0.006751536135945052</v>
+        <v>0.006757585911687075</v>
       </c>
       <c r="EM3">
-        <v>0.02210142913560535</v>
+        <v>0.02217115312271476</v>
       </c>
       <c r="EN3">
-        <v>0.02302019909967194</v>
+        <v>0.02309373431549097</v>
       </c>
       <c r="EO3">
-        <v>0.01658823135122845</v>
+        <v>0.01663508556842869</v>
       </c>
       <c r="EP3">
-        <v>0.002635362496930047</v>
+        <v>0.002624337618775701</v>
       </c>
       <c r="EQ3">
-        <v>0.00373056815409617</v>
+        <v>0.003724086392724898</v>
       </c>
       <c r="ER3">
-        <v>0.006516362245142786</v>
+        <v>0.006521436475841506</v>
       </c>
       <c r="ES3">
-        <v>1.371172896372947E-05</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.004425864826902873</v>
+        <v>0.004422267285461232</v>
       </c>
       <c r="EU3">
-        <v>0.003111330678314765</v>
+        <v>0.003102280204710751</v>
       </c>
       <c r="EV3">
-        <v>2.287775310524305E-05</v>
+        <v>1.015802290126554E-06</v>
       </c>
       <c r="EW3">
-        <v>0.00388698174797878</v>
+        <v>0.003881148819289132</v>
       </c>
       <c r="EX3">
-        <v>0.009337724634798312</v>
+        <v>0.009354502401485647</v>
       </c>
       <c r="EY3">
-        <v>0.01885496726257561</v>
+        <v>0.01891122432196742</v>
       </c>
       <c r="EZ3">
-        <v>0.0139288854552364</v>
+        <v>0.01396470821100012</v>
       </c>
       <c r="FA3">
-        <v>0.0001169579454257337</v>
+        <v>9.548625674804264E-05</v>
       </c>
       <c r="FB3">
-        <v>0.01067970058231316</v>
+        <v>0.01070204511484922</v>
       </c>
       <c r="FC3">
-        <v>0.01511821840872117</v>
+        <v>0.01515897473880154</v>
       </c>
       <c r="FD3">
-        <v>0.02025299420789829</v>
+        <v>0.02031505054310366</v>
       </c>
       <c r="FE3">
-        <v>0.01196741153195034</v>
+        <v>0.01199509772903018</v>
       </c>
       <c r="FF3">
-        <v>0.0005868740770471489</v>
+        <v>0.0005673516878916412</v>
       </c>
       <c r="FG3">
-        <v>0.003995069843751416</v>
+        <v>0.003989685284588297</v>
       </c>
       <c r="FH3">
-        <v>0.003311297870493978</v>
+        <v>0.003303076897998645</v>
       </c>
       <c r="FI3">
-        <v>0.01152352554931087</v>
+        <v>0.01154937042476833</v>
       </c>
       <c r="FJ3">
-        <v>0.008822134654963218</v>
+        <v>0.008836773658510273</v>
       </c>
       <c r="FK3">
-        <v>0.002507925401914157</v>
+        <v>0.00249637189098535</v>
       </c>
       <c r="FL3">
-        <v>0.0006947977728262153</v>
+        <v>0.0006757230712354834</v>
       </c>
       <c r="FM3">
-        <v>0.0006151878759397862</v>
+        <v>0.0005957829376886819</v>
       </c>
       <c r="FN3">
-        <v>0.001659990435077192</v>
+        <v>0.001644919532183153</v>
       </c>
       <c r="FO3">
-        <v>0.0006390218750076302</v>
+        <v>0.0006197158046179767</v>
       </c>
       <c r="FP3">
-        <v>3.492585263403764E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>3.161340176358876E-05</v>
+        <v>9.787688044008703E-06</v>
       </c>
       <c r="FR3">
-        <v>0.004663032317627169</v>
+        <v>0.004660418591052133</v>
       </c>
       <c r="FS3">
-        <v>0.006020290064544342</v>
+        <v>0.006023306495564485</v>
       </c>
       <c r="FT3">
-        <v>6.3435687519008E-05</v>
+        <v>4.174197855994508E-05</v>
       </c>
       <c r="FU3">
-        <v>1.431217144024595E-05</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0003816549250733419</v>
+        <v>0.0003612812487030176</v>
       </c>
       <c r="FW3">
-        <v>0.001596130037574794</v>
+        <v>0.001580794229873362</v>
       </c>
       <c r="FX3">
-        <v>0.003479539763913979</v>
+        <v>0.003472016690086911</v>
       </c>
       <c r="FY3">
-        <v>0.0005409178388445134</v>
+        <v>0.0005212048146647076</v>
       </c>
       <c r="FZ3">
-        <v>0.0003749985853336738</v>
+        <v>0.0003545972972279761</v>
       </c>
       <c r="GA3">
-        <v>0.002110034417475813</v>
+        <v>0.0020968303807326</v>
       </c>
       <c r="GB3">
-        <v>0.01892110625998889</v>
+        <v>0.01897763767624435</v>
       </c>
       <c r="GC3">
-        <v>0.01548331939444194</v>
+        <v>0.01552559023132283</v>
       </c>
       <c r="GD3">
-        <v>0.005159009798229317</v>
+        <v>0.005158453478499659</v>
       </c>
       <c r="GE3">
-        <v>0.004320490831024087</v>
+        <v>0.004316456178647122</v>
       </c>
       <c r="GF3">
-        <v>0.002882460287265967</v>
+        <v>0.00287246041670813</v>
       </c>
       <c r="GG3">
-        <v>0.003760675952918644</v>
+        <v>0.003754319084297183</v>
       </c>
       <c r="GH3">
-        <v>0.0003133573177444853</v>
+        <v>0.0002927003301950511</v>
       </c>
       <c r="GI3">
-        <v>0.006600370741857184</v>
+        <v>0.006605793455426539</v>
       </c>
       <c r="GJ3">
-        <v>0.01819705328830686</v>
+        <v>0.01825058119815605</v>
       </c>
       <c r="GK3">
-        <v>0.01484464341942079</v>
+        <v>0.01488426490955837</v>
       </c>
       <c r="GL3">
-        <v>0.0172264753262665</v>
+        <v>0.01727597709819377</v>
       </c>
       <c r="GM3">
-        <v>0.008527311666493849</v>
+        <v>0.008540727689445263</v>
       </c>
       <c r="GN3">
-        <v>0.0003327693869852725</v>
+        <v>0.0003121929243098517</v>
       </c>
       <c r="GO3">
-        <v>0.000398979084395788</v>
+        <v>0.0003786772718607676</v>
       </c>
       <c r="GP3">
-        <v>2.406937405863833E-05</v>
+        <v>2.212366308887698E-06</v>
       </c>
       <c r="GQ3">
-        <v>4.06601924097656E-05</v>
+        <v>1.887200646056244E-05</v>
       </c>
       <c r="GR3">
-        <v>0.0003034041281337581</v>
+        <v>0.0002827058529024445</v>
       </c>
       <c r="GS3">
-        <v>0.004036409842134594</v>
+        <v>0.004031196768974344</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.002018182484427983</v>
+        <v>0.002017975779818257</v>
       </c>
       <c r="C4">
-        <v>0.001130334903293626</v>
+        <v>0.001130069141130352</v>
       </c>
       <c r="D4">
-        <v>0.0006511623595053032</v>
+        <v>0.0006508647239002751</v>
       </c>
       <c r="E4">
-        <v>0.0007130072651568889</v>
+        <v>0.0007127137433309654</v>
       </c>
       <c r="F4">
-        <v>0.0002828212758451145</v>
+        <v>0.0002824991390489649</v>
       </c>
       <c r="G4">
-        <v>7.052845644511638E-05</v>
+        <v>7.019219842499084E-05</v>
       </c>
       <c r="H4">
-        <v>9.817001897109093E-06</v>
+        <v>9.476705492407026E-06</v>
       </c>
       <c r="I4">
-        <v>2.121394993859873E-05</v>
+        <v>2.087441163234008E-05</v>
       </c>
       <c r="J4">
-        <v>1.47878453513607E-07</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4.171282381185152E-05</v>
+        <v>4.137464904294676E-05</v>
       </c>
       <c r="L4">
-        <v>0.0001544306141123644</v>
+        <v>0.0001540999370683822</v>
       </c>
       <c r="M4">
-        <v>3.409267311549772E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.430274013469432E-08</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.0741196981565E-09</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>7.477654183332003E-06</v>
+        <v>7.137202170667701E-06</v>
       </c>
       <c r="Q4">
-        <v>1.110588401489127E-05</v>
+        <v>1.076567334362623E-05</v>
       </c>
       <c r="R4">
-        <v>6.599318603066883E-05</v>
+        <v>6.565662633491669E-05</v>
       </c>
       <c r="S4">
-        <v>0.0001654019451149598</v>
+        <v>0.0001650719978583667</v>
       </c>
       <c r="T4">
-        <v>0.0005861968535685471</v>
+        <v>0.0005858948966093507</v>
       </c>
       <c r="U4">
-        <v>0.0007865702718793121</v>
+        <v>0.0007862816432932881</v>
       </c>
       <c r="V4">
-        <v>0.0007650150699095287</v>
+        <v>0.0007647250075216656</v>
       </c>
       <c r="W4">
-        <v>0.0005861968535685471</v>
+        <v>0.0005858948966093507</v>
       </c>
       <c r="X4">
-        <v>0.0008455147272658454</v>
+        <v>0.0008452300195277285</v>
       </c>
       <c r="Y4">
-        <v>0.0001515300138472983</v>
+        <v>0.0001511991438621412</v>
       </c>
       <c r="Z4">
-        <v>6.1500075620074E-05</v>
+        <v>6.116321705308054E-05</v>
       </c>
       <c r="AA4">
-        <v>4.702154929697987E-05</v>
+        <v>4.668372765213185E-05</v>
       </c>
       <c r="AB4">
-        <v>2.774420053535396E-08</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.409277768466751E-07</v>
+        <v>5.000343045968946E-07</v>
       </c>
       <c r="AD4">
-        <v>2.737527850164068E-05</v>
+        <v>2.703615003261003E-05</v>
       </c>
       <c r="AE4">
-        <v>0.0004996073456557203</v>
+        <v>0.0004992996289641002</v>
       </c>
       <c r="AF4">
-        <v>0.000489178544702703</v>
+        <v>0.0004888701343115294</v>
       </c>
       <c r="AG4">
-        <v>0.0001116700802047698</v>
+        <v>0.0001113365588296494</v>
       </c>
       <c r="AH4">
-        <v>2.25755980630305E-05</v>
+        <v>2.223615033043419E-05</v>
       </c>
       <c r="AI4">
-        <v>3.485002118470662E-06</v>
+        <v>3.144284523888776E-06</v>
       </c>
       <c r="AJ4">
-        <v>8.296644258173941E-05</v>
+        <v>8.263101190748708E-05</v>
       </c>
       <c r="AK4">
-        <v>6.109564558311588E-06</v>
+        <v>5.769021543511328E-06</v>
       </c>
       <c r="AL4">
-        <v>1.392206527224294E-05</v>
+        <v>1.358204192679704E-05</v>
       </c>
       <c r="AM4">
-        <v>9.317634351475286E-05</v>
+        <v>9.28415919793346E-05</v>
       </c>
       <c r="AN4">
-        <v>0.00016643200520909</v>
+        <v>0.0001661021264696957</v>
       </c>
       <c r="AO4">
-        <v>0.0001655256051262602</v>
+        <v>0.0001651956660952432</v>
       </c>
       <c r="AP4">
-        <v>4.486148409958619E-05</v>
+        <v>4.452351877223142E-05</v>
       </c>
       <c r="AQ4">
-        <v>8.071971737642646E-05</v>
+        <v>8.038413725524548E-05</v>
       </c>
       <c r="AR4">
-        <v>0.0001574793243909653</v>
+        <v>0.0001571488501400913</v>
       </c>
       <c r="AS4">
-        <v>1.214512210986018E-05</v>
+        <v>1.180498056629312E-05</v>
       </c>
       <c r="AT4">
-        <v>1.277336416727095E-05</v>
+        <v>1.243326441290255E-05</v>
       </c>
       <c r="AU4">
-        <v>0.0001654019451149598</v>
+        <v>0.0001650719978583667</v>
       </c>
       <c r="AV4">
-        <v>0.0004498506411087932</v>
+        <v>0.0004495396147170562</v>
       </c>
       <c r="AW4">
-        <v>0.0002120261693756308</v>
+        <v>0.0002116993234538608</v>
       </c>
       <c r="AX4">
-        <v>0.0002227442903550871</v>
+        <v>0.0002224181573777651</v>
       </c>
       <c r="AY4">
-        <v>0.0005232544478166683</v>
+        <v>0.0005229483040752166</v>
       </c>
       <c r="AZ4">
-        <v>0.0004858594443993931</v>
+        <v>0.0004855508132293965</v>
       </c>
       <c r="BA4">
-        <v>0.0003991391664746161</v>
+        <v>0.0003988247668736793</v>
       </c>
       <c r="BB4">
-        <v>0.0001635972449500405</v>
+        <v>0.0001632671776489952</v>
       </c>
       <c r="BC4">
-        <v>0.0001345433522950027</v>
+        <v>0.0001342113523966763</v>
       </c>
       <c r="BD4">
-        <v>6.837863624865892E-05</v>
+        <v>6.804223522750024E-05</v>
       </c>
       <c r="BE4">
-        <v>2.078408589931638E-05</v>
+        <v>2.044451899950286E-05</v>
       </c>
       <c r="BF4">
-        <v>1.397373827696498E-05</v>
+        <v>1.363371836868703E-05</v>
       </c>
       <c r="BG4">
-        <v>1.701644955501769E-05</v>
+        <v>1.667663204080833E-05</v>
       </c>
       <c r="BH4">
-        <v>6.466633090941655E-05</v>
+        <v>6.432968295435163E-05</v>
       </c>
       <c r="BI4">
-        <v>0.0001758155960665926</v>
+        <v>0.0001754863415018104</v>
       </c>
       <c r="BJ4">
-        <v>0.0002431414822190478</v>
+        <v>0.0002428167060154293</v>
       </c>
       <c r="BK4">
-        <v>0.0001811416565533051</v>
+        <v>0.0001808127562656635</v>
       </c>
       <c r="BL4">
-        <v>0.00014780035350647</v>
+        <v>0.0001474692354329923</v>
       </c>
       <c r="BM4">
-        <v>9.860399901074942E-06</v>
+        <v>9.520106383107036E-06</v>
       </c>
       <c r="BN4">
-        <v>8.804246404560252E-05</v>
+        <v>8.770737101647734E-05</v>
       </c>
       <c r="BO4">
-        <v>0.0003295691301170833</v>
+        <v>0.0003292501028793371</v>
       </c>
       <c r="BP4">
-        <v>0.0002976020871958324</v>
+        <v>0.0002972809335848334</v>
       </c>
       <c r="BQ4">
-        <v>0.0004595570019957915</v>
+        <v>0.0004592466212485773</v>
       </c>
       <c r="BR4">
-        <v>0.0006771494018800824</v>
+        <v>0.0006768534948725966</v>
       </c>
       <c r="BS4">
-        <v>0.0007024013641876876</v>
+        <v>0.0007021071368819297</v>
       </c>
       <c r="BT4">
-        <v>0.0002959860270481517</v>
+        <v>0.000295664765940595</v>
       </c>
       <c r="BU4">
-        <v>9.4767698660176E-05</v>
+        <v>9.443305297799618E-05</v>
       </c>
       <c r="BV4">
-        <v>0.0001109278501369424</v>
+        <v>0.0001105942793904064</v>
       </c>
       <c r="BW4">
-        <v>3.19502189197134E-07</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>1.910863774620856E-05</v>
+        <v>1.876895939948555E-05</v>
       </c>
       <c r="BY4">
-        <v>1.486414735833342E-05</v>
+        <v>1.452418667799404E-05</v>
       </c>
       <c r="BZ4">
-        <v>4.021193367469537E-05</v>
+        <v>3.987365907007385E-05</v>
       </c>
       <c r="CA4">
-        <v>0.0001168310606763967</v>
+        <v>0.0001164978825976788</v>
       </c>
       <c r="CB4">
-        <v>7.123727050989006E-05</v>
+        <v>7.090105963842548E-05</v>
       </c>
       <c r="CC4">
-        <v>4.415601703511834E-06</v>
+        <v>4.074946010247238E-06</v>
       </c>
       <c r="CD4">
-        <v>1.953793178543882E-06</v>
+        <v>1.61297373150907E-06</v>
       </c>
       <c r="CE4">
-        <v>1.246261513887371E-06</v>
+        <v>9.053950034938696E-07</v>
       </c>
       <c r="CF4">
-        <v>1.115203951910911E-05</v>
+        <v>1.081183191800073E-05</v>
       </c>
       <c r="CG4">
-        <v>2.781754954205682E-05</v>
+        <v>2.747845049186585E-05</v>
       </c>
       <c r="CH4">
-        <v>0.0001135589803773835</v>
+        <v>0.0001132255846475039</v>
       </c>
       <c r="CI4">
-        <v>0.0001705690355871451</v>
+        <v>0.0001702394320333776</v>
       </c>
       <c r="CJ4">
-        <v>0.000528632708308151</v>
+        <v>0.0005283269223160627</v>
       </c>
       <c r="CK4">
-        <v>0.0009741790890236071</v>
+        <v>0.000973902939739211</v>
       </c>
       <c r="CL4">
-        <v>0.001264665615569197</v>
+        <v>0.001264408788772085</v>
       </c>
       <c r="CM4">
-        <v>0.001170574806970877</v>
+        <v>0.001170311721472288</v>
       </c>
       <c r="CN4">
-        <v>0.0008272030755924679</v>
+        <v>0.0008269171498059244</v>
       </c>
       <c r="CO4">
-        <v>0.05248249779601884</v>
+        <v>0.05248564786014636</v>
       </c>
       <c r="CP4">
-        <v>0.001662456351920589</v>
+        <v>0.001662225985236915</v>
       </c>
       <c r="CQ4">
-        <v>0.1101252460635979</v>
+        <v>0.1101322303891063</v>
       </c>
       <c r="CR4">
-        <v>0.004669798426741145</v>
+        <v>0.00466976810144903</v>
       </c>
       <c r="CS4">
-        <v>0.004498322011071081</v>
+        <v>0.004498280279567115</v>
       </c>
       <c r="CT4">
-        <v>0.01238235613153938</v>
+        <v>0.0123828388276254</v>
       </c>
       <c r="CU4">
-        <v>0.003077748981254565</v>
+        <v>0.003077612756540774</v>
       </c>
       <c r="CV4">
-        <v>0.007221555059928844</v>
+        <v>0.00722169447154564</v>
       </c>
       <c r="CW4">
-        <v>2.45781542460305E-05</v>
+        <v>2.423883971880809E-05</v>
       </c>
       <c r="CX4">
-        <v>0.01870681870948904</v>
+        <v>0.01870772209409784</v>
       </c>
       <c r="CY4">
-        <v>2.695845546355006E-05</v>
+        <v>2.661929926842157E-05</v>
       </c>
       <c r="CZ4">
-        <v>0.04542011815063595</v>
+        <v>0.04542279844171577</v>
       </c>
       <c r="DA4">
-        <v>0.05147199470367583</v>
+        <v>0.05147507755149083</v>
       </c>
       <c r="DB4">
-        <v>0.01658801651586611</v>
+        <v>0.01658877896268708</v>
       </c>
       <c r="DC4">
-        <v>0.009954643909687262</v>
+        <v>0.009954965120009745</v>
       </c>
       <c r="DD4">
-        <v>0.02792105855151581</v>
+        <v>0.02792257484590151</v>
       </c>
       <c r="DE4">
-        <v>8.084406738778996E-05</v>
+        <v>8.050849553808215E-05</v>
       </c>
       <c r="DF4">
-        <v>0.0152798383963206</v>
+        <v>0.01528051382617944</v>
       </c>
       <c r="DG4">
-        <v>0.002900823265086526</v>
+        <v>0.002900675271686106</v>
       </c>
       <c r="DH4">
-        <v>7.729913706384287E-05</v>
+        <v>7.696332941362507E-05</v>
       </c>
       <c r="DI4">
-        <v>0.01343188822744899</v>
+        <v>0.01343244073596596</v>
       </c>
       <c r="DJ4">
-        <v>0.0009224820842993691</v>
+        <v>0.0009222024962506066</v>
       </c>
       <c r="DK4">
-        <v>0.003651274433665159</v>
+        <v>0.003651176358528881</v>
       </c>
       <c r="DL4">
-        <v>0.0002214895102404212</v>
+        <v>0.0002211632937980481</v>
       </c>
       <c r="DM4">
-        <v>0.001777785862459769</v>
+        <v>0.001777563167226567</v>
       </c>
       <c r="DN4">
-        <v>0.00948532186679911</v>
+        <v>0.009485611858912219</v>
       </c>
       <c r="DO4">
-        <v>0.01547468241412607</v>
+        <v>0.01547537080455524</v>
       </c>
       <c r="DP4">
-        <v>0.002684709645337371</v>
+        <v>0.002684547276562233</v>
       </c>
       <c r="DQ4">
-        <v>0.0005067565463090372</v>
+        <v>0.0005064493051655962</v>
       </c>
       <c r="DR4">
-        <v>0.002982980172594288</v>
+        <v>0.002982837644080035</v>
       </c>
       <c r="DS4">
-        <v>0.002611098138610515</v>
+        <v>0.002610930873369371</v>
       </c>
       <c r="DT4">
-        <v>0.0002287341709024616</v>
+        <v>0.0002284084363580448</v>
       </c>
       <c r="DU4">
-        <v>0.002229960403780928</v>
+        <v>0.002229767786145226</v>
       </c>
       <c r="DV4">
-        <v>0.01778819062554186</v>
+        <v>0.01778903290514974</v>
       </c>
       <c r="DW4">
-        <v>0.006279894573876892</v>
+        <v>0.00627997134843102</v>
       </c>
       <c r="DX4">
-        <v>0.002842499259756691</v>
+        <v>0.002842347386779257</v>
       </c>
       <c r="DY4">
-        <v>0.00257527103533652</v>
+        <v>0.002575101386959897</v>
       </c>
       <c r="DZ4">
-        <v>1.220608511543117E-07</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.002851258260557117</v>
+        <v>0.002851106970208019</v>
       </c>
       <c r="EB4">
-        <v>0.008526447779174122</v>
+        <v>0.008526673989215873</v>
       </c>
       <c r="EC4">
-        <v>0.002416432620821357</v>
+        <v>0.002416252406883291</v>
       </c>
       <c r="ED4">
-        <v>0.00943835186250684</v>
+        <v>0.009438638730284643</v>
       </c>
       <c r="EE4">
-        <v>0.005088087164965711</v>
+        <v>0.005088084663266385</v>
       </c>
       <c r="EF4">
-        <v>5.196970674915835E-05</v>
+        <v>5.163221424422117E-05</v>
       </c>
       <c r="EG4">
-        <v>0.0003863170353028887</v>
+        <v>0.0003860017828036455</v>
       </c>
       <c r="EH4">
-        <v>0.0002271090407539519</v>
+        <v>0.0002267831981096622</v>
       </c>
       <c r="EI4">
-        <v>0.007074832146520834</v>
+        <v>0.007074961798471107</v>
       </c>
       <c r="EJ4">
-        <v>0.02027478585277491</v>
+        <v>0.02027579353490672</v>
       </c>
       <c r="EK4">
-        <v>0.03213680093676386</v>
+        <v>0.03213859765251575</v>
       </c>
       <c r="EL4">
-        <v>0.01449701882478404</v>
+        <v>0.01449764218330795</v>
       </c>
       <c r="EM4">
-        <v>0.001382375126325869</v>
+        <v>0.0013821261292913</v>
       </c>
       <c r="EN4">
-        <v>0.02280198408371838</v>
+        <v>0.02280315986919137</v>
       </c>
       <c r="EO4">
-        <v>0.02785678854564261</v>
+        <v>0.02785830056493719</v>
       </c>
       <c r="EP4">
-        <v>0.02647695241954876</v>
+        <v>0.02647837265535748</v>
       </c>
       <c r="EQ4">
-        <v>0.01545718341252695</v>
+        <v>0.01545787063896329</v>
       </c>
       <c r="ER4">
-        <v>0.004221178985744863</v>
+        <v>0.004221118819332242</v>
       </c>
       <c r="ES4">
-        <v>0.0126130671526225</v>
+        <v>0.01261356519506837</v>
       </c>
       <c r="ET4">
-        <v>0.008287771757363142</v>
+        <v>0.008287982091231732</v>
       </c>
       <c r="EU4">
-        <v>0.0001928161376201565</v>
+        <v>0.0001924880138918089</v>
       </c>
       <c r="EV4">
-        <v>0.00412333887680392</v>
+        <v>0.004123272202295095</v>
       </c>
       <c r="EW4">
-        <v>0.0003771531944654675</v>
+        <v>0.0003768373324088718</v>
       </c>
       <c r="EX4">
-        <v>2.550796233099934E-06</v>
+        <v>2.210016497318058E-06</v>
       </c>
       <c r="EY4">
-        <v>0.004397302401839585</v>
+        <v>0.00439725395074646</v>
       </c>
       <c r="EZ4">
-        <v>0.01304980919253338</v>
+        <v>0.01305033628604271</v>
       </c>
       <c r="FA4">
-        <v>0.01797635264273672</v>
+        <v>0.0179772074384438</v>
       </c>
       <c r="FB4">
-        <v>0.0057400635245454</v>
+        <v>0.005740104390795243</v>
       </c>
       <c r="FC4">
-        <v>0.001698594155222977</v>
+        <v>0.001698366192341825</v>
       </c>
       <c r="FD4">
-        <v>0.009978055911826725</v>
+        <v>0.00997837867946107</v>
       </c>
       <c r="FE4">
-        <v>0.01249744614205668</v>
+        <v>0.01249793649366218</v>
       </c>
       <c r="FF4">
-        <v>0.01248696114109853</v>
+        <v>0.01248745079526618</v>
       </c>
       <c r="FG4">
-        <v>0.001244729013747326</v>
+        <v>0.001244470860813888</v>
       </c>
       <c r="FH4">
-        <v>6.182530564979456E-08</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>2.197679400830987E-05</v>
+        <v>2.163730644466228E-05</v>
       </c>
       <c r="FJ4">
-        <v>0.01426080030319763</v>
+        <v>0.01426140794901558</v>
       </c>
       <c r="FK4">
-        <v>0.01520863738981402</v>
+        <v>0.01520930808354772</v>
       </c>
       <c r="FL4">
-        <v>0.009308931850680024</v>
+        <v>0.009309210109740024</v>
       </c>
       <c r="FM4">
-        <v>0.002354581215169177</v>
+        <v>0.002354396887019642</v>
       </c>
       <c r="FN4">
-        <v>0.0001983918681296847</v>
+        <v>0.0001980641152859463</v>
       </c>
       <c r="FO4">
-        <v>4.080898772925608E-05</v>
+        <v>4.047075283927989E-05</v>
       </c>
       <c r="FP4">
-        <v>0.001539553340689318</v>
+        <v>0.001539314798783544</v>
       </c>
       <c r="FQ4">
-        <v>6.04015455196868E-05</v>
+        <v>6.006461388102924E-05</v>
       </c>
       <c r="FR4">
-        <v>6.279420573833575E-05</v>
+        <v>6.24574332538641E-05</v>
       </c>
       <c r="FS4">
-        <v>0.0007865702718793121</v>
+        <v>0.0007862816432932881</v>
       </c>
       <c r="FT4">
-        <v>0.009501316868260784</v>
+        <v>0.009501607924324142</v>
       </c>
       <c r="FU4">
-        <v>0.003757740043394327</v>
+        <v>0.003757649050102481</v>
       </c>
       <c r="FV4">
-        <v>4.740991133246963E-05</v>
+        <v>4.707211552055983E-05</v>
       </c>
       <c r="FW4">
-        <v>0.0001666105852254092</v>
+        <v>0.0001662807183647417</v>
       </c>
       <c r="FX4">
-        <v>2.899364964953262E-05</v>
+        <v>2.8654628830782E-05</v>
       </c>
       <c r="FY4">
-        <v>0.0008963157819082085</v>
+        <v>0.000896034453337945</v>
       </c>
       <c r="FZ4">
-        <v>0.0002645884741789427</v>
+        <v>0.0002642651245792853</v>
       </c>
       <c r="GA4">
-        <v>3.060951079719519E-06</v>
+        <v>2.720205278250032E-06</v>
       </c>
       <c r="GB4">
-        <v>0.0001727197657836857</v>
+        <v>0.0001723903052914824</v>
       </c>
       <c r="GC4">
-        <v>0.009226728843168051</v>
+        <v>0.009227001634275419</v>
       </c>
       <c r="GD4">
-        <v>0.02380432417531543</v>
+        <v>0.02380556663411714</v>
       </c>
       <c r="GE4">
-        <v>0.01145820304708732</v>
+        <v>0.01145862427066225</v>
       </c>
       <c r="GF4">
-        <v>0.004288487091895694</v>
+        <v>0.004288431402661552</v>
       </c>
       <c r="GG4">
-        <v>0.003070713980611684</v>
+        <v>0.003070577287946033</v>
       </c>
       <c r="GH4">
-        <v>0.001111952301613765</v>
+        <v>0.001111685316682635</v>
       </c>
       <c r="GI4">
-        <v>0.0003774220044900323</v>
+        <v>0.0003771061603140534</v>
       </c>
       <c r="GJ4">
-        <v>0.002373966416940659</v>
+        <v>0.002373783378249603</v>
       </c>
       <c r="GK4">
-        <v>0.01956975778834718</v>
+        <v>0.01957071857365396</v>
       </c>
       <c r="GL4">
-        <v>0.02401250419433959</v>
+        <v>0.02401376050079138</v>
       </c>
       <c r="GM4">
-        <v>0.01733754758436066</v>
+        <v>0.01733835988824286</v>
       </c>
       <c r="GN4">
-        <v>0.02073822589512554</v>
+        <v>0.02073926440420975</v>
       </c>
       <c r="GO4">
-        <v>0.004241636387614326</v>
+        <v>0.004241577581980438</v>
       </c>
       <c r="GP4">
-        <v>6.531102596833085E-05</v>
+        <v>6.497442089687994E-05</v>
       </c>
       <c r="GQ4">
-        <v>0.0002480699526694272</v>
+        <v>0.000247745504296186</v>
       </c>
       <c r="GR4">
-        <v>3.825213649560282E-06</v>
+        <v>3.484518685057187E-06</v>
       </c>
       <c r="GS4">
-        <v>1.138822604069259E-05</v>
+        <v>1.104803415016161E-05</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.404654318645843E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.504290034926553E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.94602422284366E-07</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.821270745138505E-05</v>
+        <v>1.67513928646983E-05</v>
       </c>
       <c r="F5">
-        <v>0.0005813921545081518</v>
+        <v>0.0005439470042858926</v>
       </c>
       <c r="G5">
-        <v>0.0008350097064747185</v>
+        <v>0.000799511440404984</v>
       </c>
       <c r="H5">
-        <v>0.0006304058048882068</v>
+        <v>0.0005933369058301213</v>
       </c>
       <c r="I5">
-        <v>0.0004501278534903201</v>
+        <v>0.0004116750585468567</v>
       </c>
       <c r="J5">
-        <v>0.0001098261648515991</v>
+        <v>6.876105873506876E-05</v>
       </c>
       <c r="K5">
-        <v>1.304764710117229E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.936088115012551E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001078772558364871</v>
+        <v>6.679718900431699E-05</v>
       </c>
       <c r="N5">
-        <v>0.0003681958828550144</v>
+        <v>0.0003291141406877561</v>
       </c>
       <c r="O5">
-        <v>0.0003726016128891767</v>
+        <v>0.0003335536911176967</v>
       </c>
       <c r="P5">
-        <v>0.0002767550221459761</v>
+        <v>0.0002369713381721385</v>
       </c>
       <c r="Q5">
-        <v>4.158892632248319E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.438449318907892E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>8.796833068211206E-05</v>
+        <v>4.673543384832609E-05</v>
       </c>
       <c r="T5">
-        <v>6.682714051818192E-07</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.340349033655344E-05</v>
+        <v>1.828493436128543E-06</v>
       </c>
       <c r="V5">
-        <v>4.19084243249606E-05</v>
+        <v>3.219506150547426E-07</v>
       </c>
       <c r="W5">
-        <v>7.646016059287696E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4.960319538462634E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.42248761103006E-08</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001515198211748944</v>
+        <v>0.000110774774605218</v>
       </c>
       <c r="AA5">
-        <v>9.609190674510277E-05</v>
+        <v>5.492137019110119E-05</v>
       </c>
       <c r="AB5">
-        <v>0.0001506756511683486</v>
+        <v>0.0001099241243641813</v>
       </c>
       <c r="AC5">
-        <v>5.323099341275652E-05</v>
+        <v>1.173143691402934E-05</v>
       </c>
       <c r="AD5">
-        <v>1.491608311566026E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>3.428786026587026E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0002158534916737418</v>
+        <v>0.0001756022997391124</v>
       </c>
       <c r="AG5">
-        <v>0.0005682202044060157</v>
+        <v>0.0005306739402793249</v>
       </c>
       <c r="AH5">
-        <v>0.0009883203076634988</v>
+        <v>0.0009539989237833213</v>
       </c>
       <c r="AI5">
-        <v>0.001281533909937096</v>
+        <v>0.001249463367574569</v>
       </c>
       <c r="AJ5">
-        <v>0.001320340110238001</v>
+        <v>0.001288567461991239</v>
       </c>
       <c r="AK5">
-        <v>0.0008826369368440232</v>
+        <v>0.0008475042791453011</v>
       </c>
       <c r="AL5">
-        <v>0.0005428621042093874</v>
+        <v>0.0005051211797248936</v>
       </c>
       <c r="AM5">
-        <v>0.0003285437425475492</v>
+        <v>0.0002891576124427066</v>
       </c>
       <c r="AN5">
-        <v>4.446562034478926E-05</v>
+        <v>2.898776839367673E-06</v>
       </c>
       <c r="AO5">
-        <v>3.359966026053391E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001031743208000203</v>
+        <v>6.20581520907448E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.0001313849810187675</v>
+        <v>9.048537022074964E-05</v>
       </c>
       <c r="AR5">
-        <v>0.0001095480408494425</v>
+        <v>6.848079972605623E-05</v>
       </c>
       <c r="AS5">
-        <v>8.435613665410287E-05</v>
+        <v>4.309551096931884E-05</v>
       </c>
       <c r="AT5">
-        <v>0.0002767550221459761</v>
+        <v>0.0002369713381721385</v>
       </c>
       <c r="AU5">
-        <v>7.085722054943142E-05</v>
+        <v>2.949297101985958E-05</v>
       </c>
       <c r="AV5">
-        <v>0.0001897351014712181</v>
+        <v>0.0001492834128454864</v>
       </c>
       <c r="AW5">
-        <v>0.0004456899834559086</v>
+        <v>0.0004072031213953471</v>
       </c>
       <c r="AX5">
-        <v>0.0004657249036112607</v>
+        <v>0.0004273918387474827</v>
       </c>
       <c r="AY5">
-        <v>0.0005363957641592469</v>
+        <v>0.0004986052010954402</v>
       </c>
       <c r="AZ5">
-        <v>0.0006488393450311417</v>
+        <v>0.0006119119502455363</v>
       </c>
       <c r="BA5">
-        <v>0.0005379875041715894</v>
+        <v>0.000500209160031043</v>
       </c>
       <c r="BB5">
-        <v>0.001004100407785859</v>
+        <v>0.0009699001591607741</v>
       </c>
       <c r="BC5">
-        <v>0.0008716804467590658</v>
+        <v>0.0008364636820387741</v>
       </c>
       <c r="BD5">
-        <v>0.0002371532218389012</v>
+        <v>0.0001970655363603119</v>
       </c>
       <c r="BE5">
-        <v>5.273111340888042E-05</v>
+        <v>1.12277196029552E-05</v>
       </c>
       <c r="BF5">
-        <v>1.477320411455237E-07</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0001656891012847639</v>
+        <v>0.0001250528245801252</v>
       </c>
       <c r="BH5">
-        <v>0.0002537053019672471</v>
+        <v>0.0002137446778148291</v>
       </c>
       <c r="BI5">
-        <v>0.0006778220452558753</v>
+        <v>0.0006411171349131934</v>
       </c>
       <c r="BJ5">
-        <v>0.001342894710412891</v>
+        <v>0.001311295201577445</v>
       </c>
       <c r="BK5">
-        <v>0.001704136513213983</v>
+        <v>0.001675310061430975</v>
       </c>
       <c r="BL5">
-        <v>0.001558094812081567</v>
+        <v>0.00152814727750544</v>
       </c>
       <c r="BM5">
-        <v>0.001420319111013245</v>
+        <v>0.001389313947235461</v>
       </c>
       <c r="BN5">
-        <v>0.001426364611060122</v>
+        <v>0.001395405855301594</v>
       </c>
       <c r="BO5">
-        <v>0.0006600600051181474</v>
+        <v>0.0006232187452436901</v>
       </c>
       <c r="BP5">
-        <v>0.0002573647019956223</v>
+        <v>0.0002174321690690195</v>
       </c>
       <c r="BQ5">
-        <v>0.0002425277018805753</v>
+        <v>0.0002024812733652365</v>
       </c>
       <c r="BR5">
-        <v>0.0003368949026123046</v>
+        <v>0.0002975728798259784</v>
       </c>
       <c r="BS5">
-        <v>9.279061571950436E-05</v>
+        <v>5.159473694793632E-05</v>
       </c>
       <c r="BT5">
-        <v>2.233914517321916E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>5.409631241946626E-05</v>
+        <v>1.260339850461381E-05</v>
       </c>
       <c r="BV5">
-        <v>4.492475634834943E-05</v>
+        <v>3.361437380572236E-06</v>
       </c>
       <c r="BW5">
-        <v>1.449123911236599E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>5.323099341275652E-05</v>
+        <v>1.173143691402934E-05</v>
       </c>
       <c r="BY5">
-        <v>0.0002174844316863882</v>
+        <v>0.0001772457595921236</v>
       </c>
       <c r="BZ5">
-        <v>0.0006664507051677013</v>
+        <v>0.0006296585032253689</v>
       </c>
       <c r="CA5">
-        <v>0.0009968595077297123</v>
+        <v>0.0009626036746489777</v>
       </c>
       <c r="CB5">
-        <v>0.001206325709353927</v>
+        <v>0.001173677834497177</v>
       </c>
       <c r="CC5">
-        <v>0.001689840013103127</v>
+        <v>0.001660903814856254</v>
       </c>
       <c r="CD5">
-        <v>0.001721037213345032</v>
+        <v>0.001692340499054546</v>
       </c>
       <c r="CE5">
-        <v>0.001451407811254309</v>
+        <v>0.001420641298537355</v>
       </c>
       <c r="CF5">
-        <v>0.001311073210166145</v>
+        <v>0.001279229424962366</v>
       </c>
       <c r="CG5">
-        <v>0.001180230309151581</v>
+        <v>0.00114738211408547</v>
       </c>
       <c r="CH5">
-        <v>0.0004856956037661147</v>
+        <v>0.000447515843117068</v>
       </c>
       <c r="CI5">
-        <v>4.158892632248319E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.428786026587026E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0002775782021523591</v>
+        <v>0.0002378008372841854</v>
       </c>
       <c r="CL5">
-        <v>0.0003673880028487501</v>
+        <v>0.0003283000590256161</v>
       </c>
       <c r="CM5">
-        <v>0.000458422323554636</v>
+        <v>0.000420033200751356</v>
       </c>
       <c r="CN5">
-        <v>0.0007061233054753252</v>
+        <v>0.000669635648530882</v>
       </c>
       <c r="CO5">
-        <v>0.07595724058897729</v>
+        <v>0.07649841487444582</v>
       </c>
       <c r="CP5">
-        <v>0.001527523211844513</v>
+        <v>0.00149734099570334</v>
       </c>
       <c r="CQ5">
-        <v>0.1126772108737063</v>
+        <v>0.1135002644205831</v>
       </c>
       <c r="CR5">
-        <v>0.008132220063057754</v>
+        <v>0.008152738516220228</v>
       </c>
       <c r="CS5">
-        <v>0.0177556701376786</v>
+        <v>0.01785006258851046</v>
       </c>
       <c r="CT5">
-        <v>0.01488932111545275</v>
+        <v>0.01496171016216803</v>
       </c>
       <c r="CU5">
-        <v>1.626445512611562E-06</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.004880448337843308</v>
+        <v>0.004876004706203848</v>
       </c>
       <c r="CW5">
-        <v>0.006343872849190794</v>
+        <v>0.006350663132426178</v>
       </c>
       <c r="CX5">
-        <v>0.008127761063023179</v>
+        <v>0.008148245286865023</v>
       </c>
       <c r="CY5">
-        <v>0.0002274401817635857</v>
+        <v>0.0001872779345535671</v>
       </c>
       <c r="CZ5">
-        <v>0.03420245326520801</v>
+        <v>0.03442309873434523</v>
       </c>
       <c r="DA5">
-        <v>0.03297324025567661</v>
+        <v>0.03318444972438808</v>
       </c>
       <c r="DB5">
-        <v>0.02006848215561229</v>
+        <v>0.02018062880772307</v>
       </c>
       <c r="DC5">
-        <v>0.006529365050629113</v>
+        <v>0.006537579256714461</v>
       </c>
       <c r="DD5">
-        <v>0.03899991030240779</v>
+        <v>0.03925738324269486</v>
       </c>
       <c r="DE5">
-        <v>0.0008257743364031069</v>
+        <v>0.0007902051754150369</v>
       </c>
       <c r="DF5">
-        <v>0.007740687060021781</v>
+        <v>0.00775819992704524</v>
       </c>
       <c r="DG5">
-        <v>0.01064369508253189</v>
+        <v>0.01068349276489976</v>
       </c>
       <c r="DH5">
-        <v>0.0002084647716164491</v>
+        <v>0.0001681568604923337</v>
       </c>
       <c r="DI5">
-        <v>0.008726934067669204</v>
+        <v>0.008752017817128737</v>
       </c>
       <c r="DJ5">
-        <v>0.006493970850354665</v>
+        <v>0.006501913354394664</v>
       </c>
       <c r="DK5">
-        <v>0.008615744066807028</v>
+        <v>0.008639974271041009</v>
       </c>
       <c r="DL5">
-        <v>0.001737219713470512</v>
+        <v>0.001708647223441313</v>
       </c>
       <c r="DM5">
-        <v>0.0002775782021523591</v>
+        <v>0.0002378008372841854</v>
       </c>
       <c r="DN5">
-        <v>0.002888628722398612</v>
+        <v>0.00286889497375452</v>
       </c>
       <c r="DO5">
-        <v>0.01294082310034397</v>
+        <v>0.01299825458644317</v>
       </c>
       <c r="DP5">
-        <v>0.00202716541571877</v>
+        <v>0.002000818681314222</v>
       </c>
       <c r="DQ5">
-        <v>1.516269211757248E-06</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001560806812102596</v>
+        <v>0.001530880096077163</v>
       </c>
       <c r="DS5">
-        <v>0.003416437726491276</v>
+        <v>0.003400755680805674</v>
       </c>
       <c r="DT5">
-        <v>0.00030133102233654</v>
+        <v>0.0002617359949636846</v>
       </c>
       <c r="DU5">
-        <v>0.0008716804467590658</v>
+        <v>0.0008364636820387741</v>
       </c>
       <c r="DV5">
-        <v>0.01156992408971393</v>
+        <v>0.01161683192893691</v>
       </c>
       <c r="DW5">
-        <v>0.001271587909859974</v>
+        <v>0.001239441017458654</v>
       </c>
       <c r="DX5">
-        <v>0.004166839032309936</v>
+        <v>0.004156917409745699</v>
       </c>
       <c r="DY5">
-        <v>0.006153868547717489</v>
+        <v>0.006159200271162426</v>
       </c>
       <c r="DZ5">
-        <v>0.001996362315479921</v>
+        <v>0.00196977912241059</v>
       </c>
       <c r="EA5">
-        <v>0.008167352563330173</v>
+        <v>0.008188140709609265</v>
       </c>
       <c r="EB5">
-        <v>0.01096050808498848</v>
+        <v>0.01100273776864733</v>
       </c>
       <c r="EC5">
-        <v>0.001068949808288705</v>
+        <v>0.001035247373277705</v>
       </c>
       <c r="ED5">
-        <v>0.006580964051029215</v>
+        <v>0.006589574354606185</v>
       </c>
       <c r="EE5">
-        <v>0.004724980036637797</v>
+        <v>0.00471934295931806</v>
       </c>
       <c r="EF5">
-        <v>4.262876033054613E-05</v>
+        <v>1.047816248786642E-06</v>
       </c>
       <c r="EG5">
-        <v>0.001231099509546024</v>
+        <v>0.001198641809693402</v>
       </c>
       <c r="EH5">
-        <v>0.0008900246069013076</v>
+        <v>0.000854948660331792</v>
       </c>
       <c r="EI5">
-        <v>0.0104368760809282</v>
+        <v>0.01047508612618839</v>
       </c>
       <c r="EJ5">
-        <v>0.02198614717048199</v>
+        <v>0.02211301469501801</v>
       </c>
       <c r="EK5">
-        <v>0.03531206027381197</v>
+        <v>0.03554122359308941</v>
       </c>
       <c r="EL5">
-        <v>0.01574152712206081</v>
+        <v>0.01582045809127351</v>
       </c>
       <c r="EM5">
-        <v>0.000322760302502704</v>
+        <v>0.0002833297760708601</v>
       </c>
       <c r="EN5">
-        <v>0.01510518511712657</v>
+        <v>0.0151792312345008</v>
       </c>
       <c r="EO5">
-        <v>0.01734625513450397</v>
+        <v>0.01743750472879729</v>
       </c>
       <c r="EP5">
-        <v>0.02342495018163856</v>
+        <v>0.02356286261516966</v>
       </c>
       <c r="EQ5">
-        <v>0.01512488611727933</v>
+        <v>0.01519908346852791</v>
       </c>
       <c r="ER5">
-        <v>0.002976644823081094</v>
+        <v>0.002957586726221577</v>
       </c>
       <c r="ES5">
-        <v>0.008512278066004747</v>
+        <v>0.008535714017965075</v>
       </c>
       <c r="ET5">
-        <v>0.003040682823577649</v>
+        <v>0.003022116311655213</v>
       </c>
       <c r="EU5">
-        <v>0.0006747501352320557</v>
+        <v>0.0006380216435051321</v>
       </c>
       <c r="EV5">
-        <v>0.004783381737090648</v>
+        <v>0.004778192977894835</v>
       </c>
       <c r="EW5">
-        <v>0.0003607662527974046</v>
+        <v>0.0003216274773968148</v>
       </c>
       <c r="EX5">
-        <v>3.812145229559617E-06</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.001819268514106724</v>
+        <v>0.001791325868141761</v>
       </c>
       <c r="EZ5">
-        <v>0.007894188061212039</v>
+        <v>0.00791287927202242</v>
       </c>
       <c r="FA5">
-        <v>0.01204752609341729</v>
+        <v>0.01209810022373493</v>
       </c>
       <c r="FB5">
-        <v>0.002812655421809509</v>
+        <v>0.00279233846741414</v>
       </c>
       <c r="FC5">
-        <v>0.003230376925048549</v>
+        <v>0.003213266591679676</v>
       </c>
       <c r="FD5">
-        <v>0.01425651661054594</v>
+        <v>0.01432404796088849</v>
       </c>
       <c r="FE5">
-        <v>0.01644473512751353</v>
+        <v>0.01652906424252146</v>
       </c>
       <c r="FF5">
-        <v>0.01712386313277953</v>
+        <v>0.01721340554450425</v>
       </c>
       <c r="FG5">
-        <v>0.003345889025944237</v>
+        <v>0.00332966541621462</v>
       </c>
       <c r="FH5">
-        <v>0.0003453508826778728</v>
+        <v>0.0003060937718562591</v>
       </c>
       <c r="FI5">
-        <v>2.585058020044705E-07</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01264781409807196</v>
+        <v>0.01270299631325656</v>
       </c>
       <c r="FK5">
-        <v>0.01610259512486055</v>
+        <v>0.01618429781695751</v>
       </c>
       <c r="FL5">
-        <v>0.009428773073111308</v>
+        <v>0.009459244459296785</v>
       </c>
       <c r="FM5">
-        <v>0.001724837913374503</v>
+        <v>0.001696170374993171</v>
       </c>
       <c r="FN5">
-        <v>0.0004588342035578297</v>
+        <v>0.0004204482425335541</v>
       </c>
       <c r="FO5">
-        <v>3.585000527798323E-06</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.002342445318163471</v>
+        <v>0.002318518816274061</v>
       </c>
       <c r="FQ5">
-        <v>0.0001478787511466613</v>
+        <v>0.0001071057540606219</v>
       </c>
       <c r="FR5">
-        <v>0.000373928432899465</v>
+        <v>0.0003348906964043242</v>
       </c>
       <c r="FS5">
-        <v>1.304764710117229E-05</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.005095727739512598</v>
+        <v>0.005092936690875478</v>
       </c>
       <c r="FU5">
-        <v>0.001110633408611922</v>
+        <v>0.001077250955953327</v>
       </c>
       <c r="FV5">
-        <v>0.0005929522045977892</v>
+        <v>0.0005555957945993331</v>
       </c>
       <c r="FW5">
-        <v>4.50537303493495E-05</v>
+        <v>3.491401444904631E-06</v>
       </c>
       <c r="FX5">
-        <v>0.0001236309809586425</v>
+        <v>8.267184691501847E-05</v>
       </c>
       <c r="FY5">
-        <v>0.0009370708072661069</v>
+        <v>0.0009023560088159407</v>
       </c>
       <c r="FZ5">
-        <v>5.20682704037407E-05</v>
+        <v>1.055978831219679E-05</v>
       </c>
       <c r="GA5">
-        <v>8.99460606974475E-05</v>
+        <v>4.872834582246119E-05</v>
       </c>
       <c r="GB5">
-        <v>0.0005902573045768927</v>
+        <v>0.0005528802072951527</v>
       </c>
       <c r="GC5">
-        <v>0.01083862008404335</v>
+        <v>0.01087991409974238</v>
       </c>
       <c r="GD5">
-        <v>0.02553773319802121</v>
+        <v>0.02569186431886486</v>
       </c>
       <c r="GE5">
-        <v>0.01360005110545567</v>
+        <v>0.01366254312678242</v>
       </c>
       <c r="GF5">
-        <v>0.005784266644851573</v>
+        <v>0.005786761135298032</v>
       </c>
       <c r="GG5">
-        <v>0.004659371536129065</v>
+        <v>0.004653230817996927</v>
       </c>
       <c r="GH5">
-        <v>0.002003528915535491</v>
+        <v>0.001977000736561074</v>
       </c>
       <c r="GI5">
-        <v>0.0003928243030459847</v>
+        <v>0.0003539316198795714</v>
       </c>
       <c r="GJ5">
-        <v>0.001561566412108486</v>
+        <v>0.001531645527119598</v>
       </c>
       <c r="GK5">
-        <v>0.01769727313722579</v>
+        <v>0.01779121730601306</v>
       </c>
       <c r="GL5">
-        <v>0.02358231918285881</v>
+        <v>0.02372143965271152</v>
       </c>
       <c r="GM5">
-        <v>0.01466624811372302</v>
+        <v>0.01473692475020267</v>
       </c>
       <c r="GN5">
-        <v>0.01640905612723687</v>
+        <v>0.01649311135394458</v>
       </c>
       <c r="GO5">
-        <v>0.003662695628400776</v>
+        <v>0.003648903970832809</v>
       </c>
       <c r="GP5">
-        <v>0.0005486593642543398</v>
+        <v>0.0005109629421854795</v>
       </c>
       <c r="GQ5">
-        <v>0.001169245709066406</v>
+        <v>0.001136313191193526</v>
       </c>
       <c r="GR5">
-        <v>0.0001015530607874489</v>
+        <v>6.042444654590993E-05</v>
       </c>
       <c r="GS5">
-        <v>0.0003359879826052723</v>
+        <v>0.0002966589978867943</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001779586753981877</v>
+        <v>0.001742076450455632</v>
       </c>
       <c r="C6">
-        <v>0.001365434064691403</v>
+        <v>0.001324166052485424</v>
       </c>
       <c r="D6">
-        <v>0.0004421226885672019</v>
+        <v>0.0003924772463411436</v>
       </c>
       <c r="E6">
-        <v>0.0002584863333158326</v>
+        <v>0.0002071747135086872</v>
       </c>
       <c r="F6">
-        <v>8.893815770015874E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>6.057905843349332E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001017348473692507</v>
+        <v>4.900098297808065E-05</v>
       </c>
       <c r="I6">
-        <v>8.052173791779794E-05</v>
+        <v>2.759540179441141E-05</v>
       </c>
       <c r="J6">
-        <v>0.0002509279935112828</v>
+        <v>0.0001995477950378088</v>
       </c>
       <c r="K6">
-        <v>0.0003337178713704292</v>
+        <v>0.0002830888457147833</v>
       </c>
       <c r="L6">
-        <v>5.317446462496783E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.782183928055836E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>9.835579245662925E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5.816453849593011E-05</v>
+        <v>5.035350032103596E-06</v>
       </c>
       <c r="P6">
-        <v>0.0002279415541056864</v>
+        <v>0.0001763527940434454</v>
       </c>
       <c r="Q6">
-        <v>0.000376653610260159</v>
+        <v>0.0003264141510684497</v>
       </c>
       <c r="R6">
-        <v>0.001130022270778888</v>
+        <v>0.00108661830976907</v>
       </c>
       <c r="S6">
-        <v>0.001231717268149169</v>
+        <v>0.001189236010731977</v>
       </c>
       <c r="T6">
-        <v>0.0007091615816618748</v>
+        <v>0.000661939048648666</v>
       </c>
       <c r="U6">
-        <v>0.0007110546416129224</v>
+        <v>0.0006638492847958202</v>
       </c>
       <c r="V6">
-        <v>0.0008470829080953836</v>
+        <v>0.0008011117690218048</v>
       </c>
       <c r="W6">
-        <v>0.0004328359388073469</v>
+        <v>0.0003831062356285493</v>
       </c>
       <c r="X6">
-        <v>0.0003372962912778953</v>
+        <v>0.0002866997335015937</v>
       </c>
       <c r="Y6">
-        <v>1.409869663542348E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001310565266110248</v>
+        <v>7.858870498968433E-05</v>
       </c>
       <c r="AA6">
-        <v>6.057905843349332E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.713490829832163E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.484489835753872E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.287079514999801E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.99389752258116E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.870760148188711E-05</v>
+        <v>5.58334036140218E-06</v>
       </c>
       <c r="AG6">
-        <v>2.865728425895469E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.777998902305175E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.782183928055836E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0001441075862735391</v>
+        <v>9.175818010968977E-05</v>
       </c>
       <c r="AK6">
-        <v>0.000325122111592706</v>
+        <v>0.0002744150945054917</v>
       </c>
       <c r="AL6">
-        <v>0.000521045626526343</v>
+        <v>0.0004721162714262845</v>
       </c>
       <c r="AM6">
-        <v>0.0005539825856746302</v>
+        <v>0.0005053520756635354</v>
       </c>
       <c r="AN6">
-        <v>0.0008628350776880502</v>
+        <v>0.0008170068619032334</v>
       </c>
       <c r="AO6">
-        <v>0.0007146901115189133</v>
+        <v>0.0006675177402097502</v>
       </c>
       <c r="AP6">
-        <v>0.0005081534468597204</v>
+        <v>0.0004591071178592462</v>
       </c>
       <c r="AQ6">
-        <v>5.92076234689571E-05</v>
+        <v>6.0878991703001E-06</v>
       </c>
       <c r="AR6">
-        <v>9.395030757055015E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.076637272159365E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0001368805464604222</v>
+        <v>8.446556759612502E-05</v>
       </c>
       <c r="AU6">
-        <v>0.0004563008182005713</v>
+        <v>0.0004067840176136075</v>
       </c>
       <c r="AV6">
-        <v>0.0004245011590228749</v>
+        <v>0.0003746958323478412</v>
       </c>
       <c r="AW6">
-        <v>0.0003812634301409542</v>
+        <v>0.0003310657969728976</v>
       </c>
       <c r="AX6">
-        <v>0.0004328359388073469</v>
+        <v>0.0003831062356285493</v>
       </c>
       <c r="AY6">
-        <v>0.0003522451608913342</v>
+        <v>0.0003017842378665415</v>
       </c>
       <c r="AZ6">
-        <v>8.982310767727493E-06</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.398400463838928E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.315653165978681E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>5.410666860086208E-07</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1.930893950069243E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0001013172923800482</v>
+        <v>4.857963941029889E-05</v>
       </c>
       <c r="BF6">
-        <v>0.0001416309363375824</v>
+        <v>8.925905892290787E-05</v>
       </c>
       <c r="BG6">
-        <v>0.0003938499598154807</v>
+        <v>0.0003437665273106787</v>
       </c>
       <c r="BH6">
-        <v>0.000554679525656608</v>
+        <v>0.0005060553391524884</v>
       </c>
       <c r="BI6">
-        <v>0.0004788292476180113</v>
+        <v>0.0004295168529831317</v>
       </c>
       <c r="BJ6">
-        <v>0.000289136212523261</v>
+        <v>0.0002381026865692012</v>
       </c>
       <c r="BK6">
-        <v>0.0001145974470366382</v>
+        <v>6.198028815931358E-05</v>
       </c>
       <c r="BL6">
-        <v>2.023016447687058E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.473244884326892E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001720677655505201</v>
+        <v>0.0001199720489342046</v>
       </c>
       <c r="BO6">
-        <v>0.0004954227371889222</v>
+        <v>0.000446260899344811</v>
       </c>
       <c r="BP6">
-        <v>0.0005578910155735625</v>
+        <v>0.0005092959677032075</v>
       </c>
       <c r="BQ6">
-        <v>0.0003472629710201681</v>
+        <v>0.0002967568433676931</v>
       </c>
       <c r="BR6">
-        <v>9.538811753336999E-05</v>
+        <v>4.259666770955901E-05</v>
       </c>
       <c r="BS6">
-        <v>1.462117062191288E-06</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>8.776986773036942E-07</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>3.734459903431045E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>2.151222544371792E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1.914966750481102E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>8.284918785761269E-07</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>9.254750760682498E-09</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>4.473244884326892E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0001150415020251555</v>
+        <v>6.242837216738754E-05</v>
       </c>
       <c r="CB6">
-        <v>0.0002250015641817113</v>
+        <v>0.0001733861288715693</v>
       </c>
       <c r="CC6">
-        <v>0.0002225219742458307</v>
+        <v>0.0001708840410095248</v>
       </c>
       <c r="CD6">
-        <v>1.39877706382919E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>5.727407251895656E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1.168858619774624E-07</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>9.337515758542289E-05</v>
+        <v>4.056544368349783E-05</v>
       </c>
       <c r="CH6">
-        <v>0.0003891644499366427</v>
+        <v>0.000339038504654317</v>
       </c>
       <c r="CI6">
-        <v>0.0008035476792211559</v>
+        <v>0.0007571815343643353</v>
       </c>
       <c r="CJ6">
-        <v>0.0008825973271770204</v>
+        <v>0.0008369484191170019</v>
       </c>
       <c r="CK6">
-        <v>0.0008519142779704499</v>
+        <v>0.0008059869750978279</v>
       </c>
       <c r="CL6">
-        <v>0.0005738038351620747</v>
+        <v>0.0005253531681971998</v>
       </c>
       <c r="CM6">
-        <v>0.0007789027798584454</v>
+        <v>0.0007323130257998953</v>
       </c>
       <c r="CN6">
-        <v>0.1230522868180055</v>
+        <v>0.1241151133936772</v>
       </c>
       <c r="CO6">
-        <v>0.02166749643970278</v>
+        <v>0.02181043400668493</v>
       </c>
       <c r="CP6">
-        <v>0.05791412150240561</v>
+        <v>0.05838593356696138</v>
       </c>
       <c r="CQ6">
-        <v>6.446700833295529E-05</v>
+        <v>1.139500371997114E-05</v>
       </c>
       <c r="CR6">
-        <v>0.01997306548351887</v>
+        <v>0.02010062906386298</v>
       </c>
       <c r="CS6">
-        <v>0.01789812953717439</v>
+        <v>0.01800686671600744</v>
       </c>
       <c r="CT6">
-        <v>0.01345529165206121</v>
+        <v>0.01352371787574353</v>
       </c>
       <c r="CU6">
-        <v>0.001841045052392635</v>
+        <v>0.001804092375044733</v>
       </c>
       <c r="CV6">
-        <v>0.0008197388188024712</v>
+        <v>0.0007735195801165214</v>
       </c>
       <c r="CW6">
-        <v>0.01008559923919769</v>
+        <v>0.01012345141916308</v>
       </c>
       <c r="CX6">
-        <v>0.0002623075832170194</v>
+        <v>0.000211030634545164</v>
       </c>
       <c r="CY6">
-        <v>0.06468773832724745</v>
+        <v>0.06522100907454051</v>
       </c>
       <c r="CZ6">
-        <v>0.01988865148570172</v>
+        <v>0.02001544915719025</v>
       </c>
       <c r="DA6">
-        <v>0.05997224344918488</v>
+        <v>0.06046272935771981</v>
       </c>
       <c r="DB6">
-        <v>1.168858619774624E-07</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.06448311833253871</v>
+        <v>0.06501453251255586</v>
       </c>
       <c r="DD6">
-        <v>0.01531828960388617</v>
+        <v>0.01540361926380089</v>
       </c>
       <c r="DE6">
-        <v>0.008127519789831431</v>
+        <v>0.008147605835873857</v>
       </c>
       <c r="DF6">
-        <v>0.005631256854381998</v>
+        <v>0.005628693696056089</v>
       </c>
       <c r="DG6">
-        <v>0.003137956018855968</v>
+        <v>0.003112770532019059</v>
       </c>
       <c r="DH6">
-        <v>0.003605177306774148</v>
+        <v>0.003584231032996496</v>
       </c>
       <c r="DI6">
-        <v>0.004696304878558809</v>
+        <v>0.004685258672203672</v>
       </c>
       <c r="DJ6">
-        <v>0.0002688680230473737</v>
+        <v>0.0002176505988512271</v>
       </c>
       <c r="DK6">
-        <v>0.001053357272761359</v>
+        <v>0.001009257711467077</v>
       </c>
       <c r="DL6">
-        <v>0.002815088927204949</v>
+        <v>0.00278697398825033</v>
       </c>
       <c r="DM6">
-        <v>0.001323109465785869</v>
+        <v>0.001281457432138557</v>
       </c>
       <c r="DN6">
-        <v>0.006902977221496732</v>
+        <v>0.006911952693210599</v>
       </c>
       <c r="DO6">
-        <v>0.0007154817414984426</v>
+        <v>0.0006683165528417702</v>
       </c>
       <c r="DP6">
-        <v>0.000684161422308351</v>
+        <v>0.0006367120567325953</v>
       </c>
       <c r="DQ6">
-        <v>0.00243089133713987</v>
+        <v>0.002399290479449835</v>
       </c>
       <c r="DR6">
-        <v>5.460861058788242E-05</v>
+        <v>1.447158320125364E-06</v>
       </c>
       <c r="DS6">
-        <v>0.00131859106590271</v>
+        <v>0.001276898035707751</v>
       </c>
       <c r="DT6">
-        <v>0.002301601140483169</v>
+        <v>0.002268827201205728</v>
       </c>
       <c r="DU6">
-        <v>0.01415076763407698</v>
+        <v>0.01422550408150466</v>
       </c>
       <c r="DV6">
-        <v>0.0002914561424632702</v>
+        <v>0.0002404436658011681</v>
       </c>
       <c r="DW6">
-        <v>0.001291430866605043</v>
+        <v>0.001249491405276631</v>
       </c>
       <c r="DX6">
-        <v>0.000856759377845161</v>
+        <v>0.0008108760357491419</v>
       </c>
       <c r="DY6">
-        <v>0.003692431704517847</v>
+        <v>0.003672277111239259</v>
       </c>
       <c r="DZ6">
-        <v>0.01375705864425785</v>
+        <v>0.01382822287369302</v>
       </c>
       <c r="EA6">
-        <v>0.001325694765719016</v>
+        <v>0.001284066189130537</v>
       </c>
       <c r="EB6">
-        <v>0.004427629885506445</v>
+        <v>0.004414145925203242</v>
       </c>
       <c r="EC6">
-        <v>0.005288346863249266</v>
+        <v>0.005282672398674798</v>
       </c>
       <c r="ED6">
-        <v>0.0002755094928756327</v>
+        <v>0.0002243523283601913</v>
       </c>
       <c r="EE6">
-        <v>0.0002387933438250713</v>
+        <v>0.000187303044706037</v>
       </c>
       <c r="EF6">
-        <v>0.001742817154932698</v>
+        <v>0.001704973231837945</v>
       </c>
       <c r="EG6">
-        <v>0.002409630437689653</v>
+        <v>0.00237783667465705</v>
       </c>
       <c r="EH6">
-        <v>0.004119616393471329</v>
+        <v>0.004103337751393927</v>
       </c>
       <c r="EI6">
-        <v>0.01300587766368255</v>
+        <v>0.01307022624429121</v>
       </c>
       <c r="EJ6">
-        <v>0.0302932092166515</v>
+        <v>0.03051440998609253</v>
       </c>
       <c r="EK6">
-        <v>0.006404228834393807</v>
+        <v>0.00640867903996385</v>
       </c>
       <c r="EL6">
-        <v>0.00385388210034292</v>
+        <v>0.003835192386007357</v>
       </c>
       <c r="EM6">
-        <v>0.025861482331251</v>
+        <v>0.0260424729583602</v>
       </c>
       <c r="EN6">
-        <v>0.02546317234155085</v>
+        <v>0.0256405490046699</v>
       </c>
       <c r="EO6">
-        <v>0.02029226247526479</v>
+        <v>0.02042272220801222</v>
       </c>
       <c r="EP6">
-        <v>0.007989345793404455</v>
+        <v>0.00800817815297058</v>
       </c>
       <c r="EQ6">
-        <v>0.002672454530893316</v>
+        <v>0.002643045435162926</v>
       </c>
       <c r="ER6">
-        <v>0.009535054753434151</v>
+        <v>0.009567911708579738</v>
       </c>
       <c r="ES6">
-        <v>0.002790016527853294</v>
+        <v>0.00276167410088495</v>
       </c>
       <c r="ET6">
-        <v>0.001738865155034893</v>
+        <v>0.00170098537447814</v>
       </c>
       <c r="EU6">
-        <v>0.009102465764620418</v>
+        <v>0.009131397734029928</v>
       </c>
       <c r="EV6">
-        <v>1.677089856632333E-05</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>1.169870819748449E-05</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.006208658539451037</v>
+        <v>0.006211334287885322</v>
       </c>
       <c r="EY6">
-        <v>0.01629695957857886</v>
+        <v>0.01639116895062293</v>
       </c>
       <c r="EZ6">
-        <v>0.01865925751749248</v>
+        <v>0.01877490059671441</v>
       </c>
       <c r="FA6">
-        <v>0.001047026172925075</v>
+        <v>0.001002869168012962</v>
       </c>
       <c r="FB6">
-        <v>0.005134920867216691</v>
+        <v>0.005127854331041829</v>
       </c>
       <c r="FC6">
-        <v>0.008816131772024696</v>
+        <v>0.008842465763062695</v>
       </c>
       <c r="FD6">
-        <v>0.007854455796892559</v>
+        <v>0.007872064266517102</v>
       </c>
       <c r="FE6">
-        <v>0.008097658790603602</v>
+        <v>0.008117473900494011</v>
       </c>
       <c r="FF6">
-        <v>0.0001330293165600107</v>
+        <v>8.057939454455541E-05</v>
       </c>
       <c r="FG6">
-        <v>0.001103119171474572</v>
+        <v>0.001059471112062446</v>
       </c>
       <c r="FH6">
-        <v>0.0009200975762073061</v>
+        <v>0.0008747889170818403</v>
       </c>
       <c r="FI6">
-        <v>0.0153146261039809</v>
+        <v>0.01539992252406464</v>
       </c>
       <c r="FJ6">
-        <v>0.0124211716788024</v>
+        <v>0.01248021507895154</v>
       </c>
       <c r="FK6">
-        <v>0.002161783144098707</v>
+        <v>0.002127740601931117</v>
       </c>
       <c r="FL6">
-        <v>1.058053472639921E-06</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.000527144386368636</v>
+        <v>0.0004782703668087964</v>
       </c>
       <c r="FN6">
-        <v>7.967400793971929E-05</v>
+        <v>2.673998015482948E-05</v>
       </c>
       <c r="FO6">
-        <v>0.0003208662917027567</v>
+        <v>0.0002701206605204191</v>
       </c>
       <c r="FP6">
-        <v>0.0008035476792211559</v>
+        <v>0.0007571815343643353</v>
       </c>
       <c r="FQ6">
-        <v>0.0006444929833341324</v>
+        <v>0.0005966836963059764</v>
       </c>
       <c r="FR6">
-        <v>0.002189673443377494</v>
+        <v>0.002155883956719117</v>
       </c>
       <c r="FS6">
-        <v>0.005704797152480328</v>
+        <v>0.005702901243272004</v>
       </c>
       <c r="FT6">
-        <v>1.578895559171527E-06</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>1.815604953050487E-05</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>9.637358750788684E-05</v>
+        <v>4.359107909426736E-05</v>
       </c>
       <c r="FW6">
-        <v>0.0002558281333845706</v>
+        <v>0.0002044923950790731</v>
       </c>
       <c r="FX6">
-        <v>0.003471018410243347</v>
+        <v>0.003448854879973117</v>
       </c>
       <c r="FY6">
-        <v>0.0001310565266110248</v>
+        <v>7.858870498968433E-05</v>
       </c>
       <c r="FZ6">
-        <v>0.0001464623562126473</v>
+        <v>9.413431545259181E-05</v>
       </c>
       <c r="GA6">
-        <v>0.0005794902550150304</v>
+        <v>0.0005310911823287647</v>
       </c>
       <c r="GB6">
-        <v>0.008936606768909346</v>
+        <v>0.008964033859070426</v>
       </c>
       <c r="GC6">
-        <v>0.01196684569055076</v>
+        <v>0.01202176687984959</v>
       </c>
       <c r="GD6">
-        <v>0.005532623856932537</v>
+        <v>0.005529165777288457</v>
       </c>
       <c r="GE6">
-        <v>0.001985250448663644</v>
+        <v>0.001949606182158518</v>
       </c>
       <c r="GF6">
-        <v>0.002849114526325086</v>
+        <v>0.00282130830995625</v>
       </c>
       <c r="GG6">
-        <v>0.001017544673687433</v>
+        <v>0.0009731201759195653</v>
       </c>
       <c r="GH6">
-        <v>0.0001337814765405607</v>
+        <v>8.133837905663821E-05</v>
       </c>
       <c r="GI6">
-        <v>0.006474537832575695</v>
+        <v>0.006479625968888586</v>
       </c>
       <c r="GJ6">
-        <v>0.01862692451832857</v>
+        <v>0.01874227423233824</v>
       </c>
       <c r="GK6">
-        <v>0.01907559950672634</v>
+        <v>0.01919502015868204</v>
       </c>
       <c r="GL6">
-        <v>0.01422692763210757</v>
+        <v>0.01430235509783128</v>
       </c>
       <c r="GM6">
-        <v>0.01206743668794959</v>
+        <v>0.01212327056397919</v>
       </c>
       <c r="GN6">
-        <v>0.0004421226885672019</v>
+        <v>0.0003924772463411436</v>
       </c>
       <c r="GO6">
-        <v>0.0001809548553207099</v>
+        <v>0.0001289397734442635</v>
       </c>
       <c r="GP6">
-        <v>6.314293836719425E-05</v>
+        <v>1.005892014345355E-05</v>
       </c>
       <c r="GQ6">
-        <v>0.0001405059163666742</v>
+        <v>8.81238313705475E-05</v>
       </c>
       <c r="GR6">
-        <v>7.637967802490698E-05</v>
+        <v>2.341575997868384E-05</v>
       </c>
       <c r="GS6">
-        <v>0.001864488651786409</v>
+        <v>0.0018277486839517</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0008397393443586246</v>
+        <v>0.0008012368417176665</v>
       </c>
       <c r="C2">
-        <v>0.001464564477601748</v>
+        <v>0.001385788985093017</v>
       </c>
       <c r="D2">
-        <v>0.001984224840299018</v>
+        <v>0.001864309998820453</v>
       </c>
       <c r="E2">
-        <v>0.002430259492614139</v>
+        <v>0.002268598765356841</v>
       </c>
       <c r="F2">
-        <v>0.002668096293848619</v>
+        <v>0.002462974523708388</v>
       </c>
       <c r="G2">
-        <v>0.00279217260449263</v>
+        <v>0.002542652619867546</v>
       </c>
       <c r="H2">
-        <v>0.002837221852726456</v>
+        <v>0.002542652619867546</v>
       </c>
       <c r="I2">
-        <v>0.002848503514285013</v>
+        <v>0.002542652619867546</v>
       </c>
       <c r="J2">
-        <v>0.002854538579316338</v>
+        <v>0.002542652619867546</v>
       </c>
       <c r="K2">
-        <v>0.002951956129821979</v>
+        <v>0.002595452338050766</v>
       </c>
       <c r="L2">
-        <v>0.003313425501698167</v>
+        <v>0.002914479165941806</v>
       </c>
       <c r="M2">
-        <v>0.003837946204420665</v>
+        <v>0.00339790055971736</v>
       </c>
       <c r="N2">
-        <v>0.004397221207323554</v>
+        <v>0.003916362563472118</v>
       </c>
       <c r="O2">
-        <v>0.005072884010830548</v>
+        <v>0.004552171183505648</v>
       </c>
       <c r="P2">
-        <v>0.005732303514253231</v>
+        <v>0.005171602689338197</v>
       </c>
       <c r="Q2">
-        <v>0.006485662118163501</v>
+        <v>0.005885747176439172</v>
       </c>
       <c r="R2">
-        <v>0.007010182820885999</v>
+        <v>0.006369168570214726</v>
       </c>
       <c r="S2">
-        <v>0.007464621793244742</v>
+        <v>0.006781930892520052</v>
       </c>
       <c r="T2">
-        <v>0.007839663395191376</v>
+        <v>0.007114641760025702</v>
       </c>
       <c r="U2">
-        <v>0.008199640197059817</v>
+        <v>0.0074321637219509</v>
       </c>
       <c r="V2">
-        <v>0.008329955697736214</v>
+        <v>0.007518132407285387</v>
       </c>
       <c r="W2">
-        <v>0.008398600073092509</v>
+        <v>0.007541921913695147</v>
       </c>
       <c r="X2">
-        <v>0.00841723254518922</v>
+        <v>0.007541921913695147</v>
       </c>
       <c r="Y2">
-        <v>0.00843140666026279</v>
+        <v>0.007541921913695147</v>
       </c>
       <c r="Z2">
-        <v>0.008625053431267904</v>
+        <v>0.007691743599422609</v>
       </c>
       <c r="AA2">
-        <v>0.008808982902222581</v>
+        <v>0.007831767932898668</v>
       </c>
       <c r="AB2">
-        <v>0.00905909380352077</v>
+        <v>0.008038518906718393</v>
       </c>
       <c r="AC2">
-        <v>0.009647152606573058</v>
+        <v>0.008586001834776598</v>
       </c>
       <c r="AD2">
-        <v>0.01058446085143811</v>
+        <v>0.009485611360478687</v>
       </c>
       <c r="AE2">
-        <v>0.01167341475709027</v>
+        <v>0.0105381158208248</v>
       </c>
       <c r="AF2">
-        <v>0.01260511743192622</v>
+        <v>0.01143207359718706</v>
       </c>
       <c r="AG2">
-        <v>0.01335264893580625</v>
+        <v>0.01214034297995821</v>
       </c>
       <c r="AH2">
-        <v>0.01414672110992784</v>
+        <v>0.01289553644020009</v>
       </c>
       <c r="AI2">
-        <v>0.01497134695420802</v>
+        <v>0.01368153527514103</v>
       </c>
       <c r="AJ2">
-        <v>0.01564829040772166</v>
+        <v>0.01431863509531871</v>
       </c>
       <c r="AK2">
-        <v>0.0161071403801033</v>
+        <v>0.0147358447559568</v>
       </c>
       <c r="AL2">
-        <v>0.01629106985105798</v>
+        <v>0.01487586908943286</v>
       </c>
       <c r="AM2">
-        <v>0.01638897409156614</v>
+        <v>0.01492915950702509</v>
       </c>
       <c r="AN2">
-        <v>0.01639171674218038</v>
+        <v>0.01492915950702509</v>
       </c>
       <c r="AO2">
-        <v>0.01639841249681514</v>
+        <v>0.01492915950702509</v>
       </c>
       <c r="AP2">
-        <v>0.01648997407729038</v>
+        <v>0.01497605501304406</v>
       </c>
       <c r="AQ2">
-        <v>0.01671080325843658</v>
+        <v>0.01515328304063727</v>
       </c>
       <c r="AR2">
-        <v>0.01708078896035697</v>
+        <v>0.0154808963570487</v>
       </c>
       <c r="AS2">
-        <v>0.01767210481342617</v>
+        <v>0.0160316631670649</v>
       </c>
       <c r="AT2">
-        <v>0.01825453625644925</v>
+        <v>0.01657347237627472</v>
       </c>
       <c r="AU2">
-        <v>0.01875299145903645</v>
+        <v>0.01703061353941945</v>
       </c>
       <c r="AV2">
-        <v>0.01920519944138362</v>
+        <v>0.0174411264925688</v>
       </c>
       <c r="AW2">
-        <v>0.01969029384390147</v>
+        <v>0.01788479678788393</v>
       </c>
       <c r="AX2">
-        <v>0.02010755284606723</v>
+        <v>0.01826007284725752</v>
       </c>
       <c r="AY2">
-        <v>0.02049641677808561</v>
+        <v>0.01860671991473077</v>
       </c>
       <c r="AZ2">
-        <v>0.02084163757987747</v>
+        <v>0.01890936431500595</v>
       </c>
       <c r="BA2">
-        <v>0.02105208134096976</v>
+        <v>0.01907612136629723</v>
       </c>
       <c r="BB2">
-        <v>0.0211129302152856</v>
+        <v>0.01909205115146002</v>
       </c>
       <c r="BC2">
-        <v>0.02115254859749123</v>
+        <v>0.01909205115146002</v>
       </c>
       <c r="BD2">
-        <v>0.02115276406857235</v>
+        <v>0.01909205115146002</v>
       </c>
       <c r="BE2">
-        <v>0.02118381525473352</v>
+        <v>0.01909205115146002</v>
       </c>
       <c r="BF2">
-        <v>0.02135931712564446</v>
+        <v>0.01922357845738379</v>
       </c>
       <c r="BG2">
-        <v>0.02164721340713877</v>
+        <v>0.01946842609157348</v>
       </c>
       <c r="BH2">
-        <v>0.02231261981059253</v>
+        <v>0.02009389381818689</v>
       </c>
       <c r="BI2">
-        <v>0.02293548206382546</v>
+        <v>0.02067646691112774</v>
       </c>
       <c r="BJ2">
-        <v>0.02363996256748203</v>
+        <v>0.02134133063473688</v>
       </c>
       <c r="BK2">
-        <v>0.02452119390205602</v>
+        <v>0.02218440128231025</v>
       </c>
       <c r="BL2">
-        <v>0.0255580553074378</v>
+        <v>0.0231843840985622</v>
       </c>
       <c r="BM2">
-        <v>0.02640769205184779</v>
+        <v>0.02399559987621609</v>
       </c>
       <c r="BN2">
-        <v>0.027048331255173</v>
+        <v>0.02459609636774559</v>
       </c>
       <c r="BO2">
-        <v>0.02766662555838223</v>
+        <v>0.02517406387938125</v>
       </c>
       <c r="BP2">
-        <v>0.02822954906130405</v>
+        <v>0.02569620443990479</v>
       </c>
       <c r="BQ2">
-        <v>0.02872326650386667</v>
+        <v>0.02614856881282974</v>
       </c>
       <c r="BR2">
-        <v>0.02894482810501667</v>
+        <v>0.02632653529418438</v>
       </c>
       <c r="BS2">
-        <v>0.02902056597140978</v>
+        <v>0.02635747672860081</v>
       </c>
       <c r="BT2">
-        <v>0.02903247194547158</v>
+        <v>0.02635747672860081</v>
       </c>
       <c r="BU2">
-        <v>0.02904705529854728</v>
+        <v>0.02635747672860081</v>
       </c>
       <c r="BV2">
-        <v>0.02910648218885573</v>
+        <v>0.02637197281529346</v>
       </c>
       <c r="BW2">
-        <v>0.02942125559048954</v>
+        <v>0.02664391898633426</v>
       </c>
       <c r="BX2">
-        <v>0.02988862917291542</v>
+        <v>0.02706972247546622</v>
       </c>
       <c r="BY2">
-        <v>0.03042339847569112</v>
+        <v>0.02756347689840458</v>
       </c>
       <c r="BZ2">
-        <v>0.03109226922916285</v>
+        <v>0.02819243751473759</v>
       </c>
       <c r="CA2">
-        <v>0.03157505856166875</v>
+        <v>0.02863378375061706</v>
       </c>
       <c r="CB2">
-        <v>0.03223447806509144</v>
+        <v>0.02925321525644961</v>
       </c>
       <c r="CC2">
-        <v>0.03293556972873041</v>
+        <v>0.02991466222239935</v>
       </c>
       <c r="CD2">
-        <v>0.03354420970188953</v>
+        <v>0.03048289587053783</v>
       </c>
       <c r="CE2">
-        <v>0.03409546010475077</v>
+        <v>0.03099326716670132</v>
       </c>
       <c r="CF2">
-        <v>0.03445892440663732</v>
+        <v>0.03131430535905851</v>
       </c>
       <c r="CG2">
-        <v>0.03466445699770412</v>
+        <v>0.03147611078155819</v>
       </c>
       <c r="CH2">
-        <v>0.03469928325288489</v>
+        <v>0.03147611078155819</v>
       </c>
       <c r="CI2">
-        <v>0.03472097164299746</v>
+        <v>0.03147611078155819</v>
       </c>
       <c r="CJ2">
-        <v>0.03472607290402394</v>
+        <v>0.03147611078155819</v>
       </c>
       <c r="CK2">
-        <v>0.03481710385049643</v>
+        <v>0.03152247128215235</v>
       </c>
       <c r="CL2">
-        <v>0.03518150761238785</v>
+        <v>0.03184445667389065</v>
       </c>
       <c r="CM2">
-        <v>0.03737599232377821</v>
+        <v>0.03401159942598182</v>
       </c>
       <c r="CN2">
-        <v>0.1454961728849705</v>
+        <v>0.142977065717408</v>
       </c>
       <c r="CO2">
-        <v>0.2750495735574109</v>
+        <v>0.2735523213764357</v>
       </c>
       <c r="CP2">
-        <v>0.3241831938124364</v>
+        <v>0.3230452895028921</v>
       </c>
       <c r="CQ2">
-        <v>0.3286548441356463</v>
+        <v>0.3275083574109396</v>
       </c>
       <c r="CR2">
-        <v>0.3466557022290789</v>
+        <v>0.3456120882108688</v>
       </c>
       <c r="CS2">
-        <v>0.3480291194362075</v>
+        <v>0.3469513994130769</v>
       </c>
       <c r="CT2">
-        <v>0.3503962175484938</v>
+        <v>0.3492925775745011</v>
       </c>
       <c r="CU2">
-        <v>0.3528389527611727</v>
+        <v>0.3517100159431819</v>
       </c>
       <c r="CV2">
-        <v>0.3584923567905164</v>
+        <v>0.3573645729761199</v>
       </c>
       <c r="CW2">
-        <v>0.3584989096130505</v>
+        <v>0.3573645729761199</v>
       </c>
       <c r="CX2">
-        <v>0.3639744973414712</v>
+        <v>0.3628398488376275</v>
       </c>
       <c r="CY2">
-        <v>0.4287442426776553</v>
+        <v>0.4280977541865586</v>
       </c>
       <c r="CZ2">
-        <v>0.4288286504730934</v>
+        <v>0.4281374369738619</v>
       </c>
       <c r="DA2">
-        <v>0.4532305255997501</v>
+        <v>0.4526949170988312</v>
       </c>
       <c r="DB2">
-        <v>0.456642341117459</v>
+        <v>0.4560894191641144</v>
       </c>
       <c r="DC2">
-        <v>0.4632721621518707</v>
+        <v>0.4627284370342455</v>
       </c>
       <c r="DD2">
-        <v>0.4750178592128362</v>
+        <v>0.4745254760878838</v>
       </c>
       <c r="DE2">
-        <v>0.4750219045775572</v>
+        <v>0.4745254760878838</v>
       </c>
       <c r="DF2">
-        <v>0.4778005832919798</v>
+        <v>0.477281625498322</v>
       </c>
       <c r="DG2">
-        <v>0.4845264767268902</v>
+        <v>0.4840175072240959</v>
       </c>
       <c r="DH2">
-        <v>0.4845575279130513</v>
+        <v>0.4840175072240959</v>
       </c>
       <c r="DI2">
-        <v>0.4974666404800555</v>
+        <v>0.496987546130393</v>
       </c>
       <c r="DJ2">
-        <v>0.4987513693867238</v>
+        <v>0.4982374384080359</v>
       </c>
       <c r="DK2">
-        <v>0.501432871800642</v>
+        <v>0.5008956109687743</v>
       </c>
       <c r="DL2">
-        <v>0.5022291600547751</v>
+        <v>0.5016530387653418</v>
       </c>
       <c r="DM2">
-        <v>0.5086052453878699</v>
+        <v>0.5080362306311657</v>
       </c>
       <c r="DN2">
-        <v>0.5128265032097801</v>
+        <v>0.5122468432765777</v>
       </c>
       <c r="DO2">
-        <v>0.5131073845412379</v>
+        <v>0.5124846181707906</v>
       </c>
       <c r="DP2">
-        <v>0.5131942161916886</v>
+        <v>0.5125267447810943</v>
       </c>
       <c r="DQ2">
-        <v>0.515064072901394</v>
+        <v>0.5143665852098376</v>
       </c>
       <c r="DR2">
-        <v>0.5178591801159018</v>
+        <v>0.5171392984601759</v>
       </c>
       <c r="DS2">
-        <v>0.5179576346164129</v>
+        <v>0.5171931436708742</v>
       </c>
       <c r="DT2">
-        <v>0.5254386019552425</v>
+        <v>0.524690319683553</v>
       </c>
       <c r="DU2">
-        <v>0.5387405560242856</v>
+        <v>0.5380564363639713</v>
       </c>
       <c r="DV2">
-        <v>0.5436718895498814</v>
+        <v>0.5429829743958652</v>
       </c>
       <c r="DW2">
-        <v>0.5481085745729098</v>
+        <v>0.547410788955691</v>
       </c>
       <c r="DX2">
-        <v>0.5485230983050614</v>
+        <v>0.5477833072115911</v>
       </c>
       <c r="DY2">
-        <v>0.5544897203360308</v>
+        <v>0.5537536625709654</v>
       </c>
       <c r="DZ2">
-        <v>0.5690051504113725</v>
+        <v>0.5683432520082835</v>
       </c>
       <c r="EA2">
-        <v>0.5696365407146496</v>
+        <v>0.5689344234062955</v>
       </c>
       <c r="EB2">
-        <v>0.5744165907394603</v>
+        <v>0.5737084316470618</v>
       </c>
       <c r="EC2">
-        <v>0.5836228497872449</v>
+        <v>0.5829451125141054</v>
       </c>
       <c r="ED2">
-        <v>0.5836296735836803</v>
+        <v>0.5829451125141054</v>
       </c>
       <c r="EE2">
-        <v>0.5860375768961784</v>
+        <v>0.5853274320335292</v>
       </c>
       <c r="EF2">
-        <v>0.5872309237023724</v>
+        <v>0.5864851893947681</v>
       </c>
       <c r="EG2">
-        <v>0.5890047649115794</v>
+        <v>0.5882282233366175</v>
       </c>
       <c r="EH2">
-        <v>0.6031879519851965</v>
+        <v>0.6024828327173292</v>
       </c>
       <c r="EI2">
-        <v>0.6275534981116646</v>
+        <v>0.6270036845597569</v>
       </c>
       <c r="EJ2">
-        <v>0.6536582292471599</v>
+        <v>0.6532780490111763</v>
       </c>
       <c r="EK2">
-        <v>0.6585000556722911</v>
+        <v>0.6581143425731349</v>
       </c>
       <c r="EL2">
-        <v>0.6622469791917392</v>
+        <v>0.661846713297229</v>
       </c>
       <c r="EM2">
-        <v>0.6854765843123113</v>
+        <v>0.6852222661251351</v>
       </c>
       <c r="EN2">
-        <v>0.7077617644279814</v>
+        <v>0.7076456136696776</v>
       </c>
       <c r="EO2">
-        <v>0.7244383075145402</v>
+        <v>0.7244141196080901</v>
       </c>
       <c r="EP2">
-        <v>0.7270322020280037</v>
+        <v>0.7269839625447245</v>
       </c>
       <c r="EQ2">
-        <v>0.7285952294361164</v>
+        <v>0.7285144459778877</v>
       </c>
       <c r="ER2">
-        <v>0.7343532677660033</v>
+        <v>0.7342744993003999</v>
       </c>
       <c r="ES2">
-        <v>0.7343920464412046</v>
+        <v>0.7342744993003999</v>
       </c>
       <c r="ET2">
-        <v>0.7374813614572395</v>
+        <v>0.7373438440689285</v>
       </c>
       <c r="EU2">
-        <v>0.7395655961680576</v>
+        <v>0.7393998285686536</v>
       </c>
       <c r="EV2">
-        <v>0.739585130324159</v>
+        <v>0.7393998285686536</v>
       </c>
       <c r="EW2">
-        <v>0.7420034828367112</v>
+        <v>0.7417926833698064</v>
       </c>
       <c r="EX2">
-        <v>0.7478655898671382</v>
+        <v>0.747657662722414</v>
       </c>
       <c r="EY2">
-        <v>0.7615785409383147</v>
+        <v>0.7614381622440813</v>
       </c>
       <c r="EZ2">
-        <v>0.7762494085144631</v>
+        <v>0.7761844696936639</v>
       </c>
       <c r="FA2">
-        <v>0.776249764611935</v>
+        <v>0.7761844696936639</v>
       </c>
       <c r="FB2">
-        <v>0.7845349286549387</v>
+        <v>0.7844924674726065</v>
       </c>
       <c r="FC2">
-        <v>0.7986803317283597</v>
+        <v>0.7987089815843167</v>
       </c>
       <c r="FD2">
-        <v>0.8178016918276082</v>
+        <v>0.8179424452104836</v>
       </c>
       <c r="FE2">
-        <v>0.8267357238739799</v>
+        <v>0.8269046564397327</v>
       </c>
       <c r="FF2">
-        <v>0.8270981301558609</v>
+        <v>0.8272246278959976</v>
       </c>
       <c r="FG2">
-        <v>0.8305128227735846</v>
+        <v>0.8306220307631663</v>
       </c>
       <c r="FH2">
-        <v>0.8335384057892887</v>
+        <v>0.8336271185000415</v>
       </c>
       <c r="FI2">
-        <v>0.8482314918655525</v>
+        <v>0.84839582748822</v>
       </c>
       <c r="FJ2">
-        <v>0.8575917094141362</v>
+        <v>0.8577877351833535</v>
       </c>
       <c r="FK2">
-        <v>0.8602502009279349</v>
+        <v>0.8604227072776123</v>
       </c>
       <c r="FL2">
-        <v>0.8604058642087429</v>
+        <v>0.8605342325609164</v>
       </c>
       <c r="FM2">
-        <v>0.860628988229901</v>
+        <v>0.8607137743336694</v>
       </c>
       <c r="FN2">
-        <v>0.8627372101408436</v>
+        <v>0.8627939436427473</v>
       </c>
       <c r="FO2">
-        <v>0.8630137183422788</v>
+        <v>0.863027309380605</v>
       </c>
       <c r="FP2">
-        <v>0.8630344274383863</v>
+        <v>0.863027309380605</v>
       </c>
       <c r="FQ2">
-        <v>0.8630370465698999</v>
+        <v>0.863027309380605</v>
       </c>
       <c r="FR2">
-        <v>0.8674964435930461</v>
+        <v>0.8674780230445372</v>
       </c>
       <c r="FS2">
-        <v>0.8769809526422749</v>
+        <v>0.8769952461675525</v>
       </c>
       <c r="FT2">
-        <v>0.8770081876424163</v>
+        <v>0.8769952461675525</v>
       </c>
       <c r="FU2">
-        <v>0.8770094730356229</v>
+        <v>0.8769952461675525</v>
       </c>
       <c r="FV2">
-        <v>0.8770254905267061</v>
+        <v>0.8769952461675525</v>
       </c>
       <c r="FW2">
-        <v>0.8776471244299326</v>
+        <v>0.8775765807912027</v>
       </c>
       <c r="FX2">
-        <v>0.8788881022363739</v>
+        <v>0.8787823615421781</v>
       </c>
       <c r="FY2">
-        <v>0.8789018846024454</v>
+        <v>0.8787823615421781</v>
       </c>
       <c r="FZ2">
-        <v>0.8789771944728363</v>
+        <v>0.8788128714547135</v>
       </c>
       <c r="GA2">
-        <v>0.8809283412829636</v>
+        <v>0.8807346716607871</v>
       </c>
       <c r="GB2">
-        <v>0.8964060293632997</v>
+        <v>0.8962944462918041</v>
       </c>
       <c r="GC2">
-        <v>0.9089102564282022</v>
+        <v>0.9088562642041023</v>
       </c>
       <c r="GD2">
-        <v>0.9118569380434969</v>
+        <v>0.9117818005420365</v>
       </c>
       <c r="GE2">
-        <v>0.914179487255552</v>
+        <v>0.9140780628044237</v>
       </c>
       <c r="GF2">
-        <v>0.915372834061746</v>
+        <v>0.9152358201656626</v>
       </c>
       <c r="GG2">
-        <v>0.9177679002741774</v>
+        <v>0.9176051968315585</v>
       </c>
       <c r="GH2">
-        <v>0.9178445527795753</v>
+        <v>0.9176370604398777</v>
       </c>
       <c r="GI2">
-        <v>0.9262400518231517</v>
+        <v>0.9260563021714262</v>
       </c>
       <c r="GJ2">
-        <v>0.9476276739341631</v>
+        <v>0.9475746975284203</v>
       </c>
       <c r="GK2">
-        <v>0.9646070570222938</v>
+        <v>0.964648538298094</v>
       </c>
       <c r="GL2">
-        <v>0.9845229861256664</v>
+        <v>0.9846831166764086</v>
       </c>
       <c r="GM2">
-        <v>0.9941409271755878</v>
+        <v>0.9943348710278113</v>
       </c>
       <c r="GN2">
-        <v>0.9947322430286569</v>
+        <v>0.9948856378378275</v>
       </c>
       <c r="GO2">
-        <v>0.9954906430325934</v>
+        <v>0.99560486525657</v>
       </c>
       <c r="GP2">
-        <v>0.9958035601342176</v>
+        <v>0.9958749398351947</v>
       </c>
       <c r="GQ2">
-        <v>0.9958185463782954</v>
+        <v>0.9958749398351947</v>
       </c>
       <c r="GR2">
-        <v>0.9964942091818023</v>
+        <v>0.9965107484552282</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.760055292053269E-05</v>
+        <v>5.758193157529145E-06</v>
       </c>
       <c r="C3">
-        <v>2.761914521580553E-05</v>
+        <v>5.758193157529145E-06</v>
       </c>
       <c r="D3">
-        <v>3.591047239152882E-05</v>
+        <v>5.758193157529145E-06</v>
       </c>
       <c r="E3">
-        <v>8.177353459780837E-05</v>
+        <v>2.985465188629751E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001707952511161378</v>
+        <v>9.728879505306244E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001933671202333441</v>
+        <v>9.799744449147294E-05</v>
       </c>
       <c r="H3">
-        <v>0.0002152332673781514</v>
+        <v>9.799744449147294E-05</v>
       </c>
       <c r="I3">
-        <v>0.0002398832414140822</v>
+        <v>0.0001007928192143553</v>
       </c>
       <c r="J3">
-        <v>0.0002479300450993689</v>
+        <v>0.0001007928192143553</v>
       </c>
       <c r="K3">
-        <v>0.0002577318592160165</v>
+        <v>0.0001007928192143553</v>
       </c>
       <c r="L3">
-        <v>0.0003574499313160077</v>
+        <v>0.0001789676884353438</v>
       </c>
       <c r="M3">
-        <v>0.0004542002135320703</v>
+        <v>0.000254162456827932</v>
       </c>
       <c r="N3">
-        <v>0.0006468172559987501</v>
+        <v>0.0004256216586246533</v>
       </c>
       <c r="O3">
-        <v>0.001082490638959411</v>
+        <v>0.0008411454438261787</v>
       </c>
       <c r="P3">
-        <v>0.001470017903803084</v>
+        <v>0.001208323391857197</v>
       </c>
       <c r="Q3">
-        <v>0.001746123313004505</v>
+        <v>0.00146361728566339</v>
       </c>
       <c r="R3">
-        <v>0.001987499483564198</v>
+        <v>0.001684037877486048</v>
       </c>
       <c r="S3">
-        <v>0.002109956448774863</v>
+        <v>0.001785045964975952</v>
       </c>
       <c r="T3">
-        <v>0.002158836996863128</v>
+        <v>0.001812172426679421</v>
       </c>
       <c r="U3">
-        <v>0.002161470719460122</v>
+        <v>0.001812172426679421</v>
       </c>
       <c r="V3">
-        <v>0.002195099550144886</v>
+        <v>0.001823983904018657</v>
       </c>
       <c r="W3">
-        <v>0.002363449583560657</v>
+        <v>0.001971075432697065</v>
       </c>
       <c r="X3">
-        <v>0.002593821974550712</v>
+        <v>0.002180446599225638</v>
       </c>
       <c r="Y3">
-        <v>0.002887067183081789</v>
+        <v>0.002452951391437248</v>
       </c>
       <c r="Z3">
-        <v>0.003085516245320377</v>
+        <v>0.002630266805308694</v>
       </c>
       <c r="AA3">
-        <v>0.003326726295886567</v>
+        <v>0.002850520588041216</v>
       </c>
       <c r="AB3">
-        <v>0.003611246904758866</v>
+        <v>0.003114264589331818</v>
       </c>
       <c r="AC3">
-        <v>0.003763093848820079</v>
+        <v>0.003244784570771316</v>
       </c>
       <c r="AD3">
-        <v>0.003798864317421083</v>
+        <v>0.00325874656993923</v>
       </c>
       <c r="AE3">
-        <v>0.003848269650488823</v>
+        <v>0.003286399993527884</v>
       </c>
       <c r="AF3">
-        <v>0.0038903051438448</v>
+        <v>0.0033066530059388</v>
       </c>
       <c r="AG3">
-        <v>0.004096051475797989</v>
+        <v>0.003491295959956975</v>
       </c>
       <c r="AH3">
-        <v>0.004271977908917444</v>
+        <v>0.00364599531665431</v>
       </c>
       <c r="AI3">
-        <v>0.004530427038809408</v>
+        <v>0.003883559689620259</v>
       </c>
       <c r="AJ3">
-        <v>0.004772967669323559</v>
+        <v>0.004105149571793865</v>
       </c>
       <c r="AK3">
-        <v>0.004804520968089498</v>
+        <v>0.00411487690752181</v>
       </c>
       <c r="AL3">
-        <v>0.004840676236675453</v>
+        <v>0.004129225302896588</v>
       </c>
       <c r="AM3">
-        <v>0.00485494797911728</v>
+        <v>0.004129225302896588</v>
       </c>
       <c r="AN3">
-        <v>0.004884900151945841</v>
+        <v>0.004137344870918944</v>
       </c>
       <c r="AO3">
-        <v>0.004972815398507444</v>
+        <v>0.00420366795428579</v>
       </c>
       <c r="AP3">
-        <v>0.005282209766406922</v>
+        <v>0.004492388895582736</v>
       </c>
       <c r="AQ3">
-        <v>0.005908321081919489</v>
+        <v>0.005099140585303395</v>
       </c>
       <c r="AR3">
-        <v>0.006330704085399941</v>
+        <v>0.005501318860058509</v>
       </c>
       <c r="AS3">
-        <v>0.006541854407141777</v>
+        <v>0.005691388220620161</v>
       </c>
       <c r="AT3">
-        <v>0.006819383256287527</v>
+        <v>0.005948111459064343</v>
       </c>
       <c r="AU3">
-        <v>0.007026204788198664</v>
+        <v>0.006133834073169888</v>
       </c>
       <c r="AV3">
-        <v>0.007136214053896163</v>
+        <v>0.006222342825773672</v>
       </c>
       <c r="AW3">
-        <v>0.00715955448998331</v>
+        <v>0.006223823230340775</v>
       </c>
       <c r="AX3">
-        <v>0.007166073766428339</v>
+        <v>0.006223823230340775</v>
       </c>
       <c r="AY3">
-        <v>0.007166178422249246</v>
+        <v>0.006223823230340775</v>
       </c>
       <c r="AZ3">
-        <v>0.00719689630104786</v>
+        <v>0.006232711680623975</v>
       </c>
       <c r="BA3">
-        <v>0.007209294660562956</v>
+        <v>0.006232711680623975</v>
       </c>
       <c r="BB3">
-        <v>0.007231160807707763</v>
+        <v>0.006232711680623975</v>
       </c>
       <c r="BC3">
-        <v>0.007243111407240371</v>
+        <v>0.006232711680623975</v>
       </c>
       <c r="BD3">
-        <v>0.007245297370854877</v>
+        <v>0.006232711680623975</v>
       </c>
       <c r="BE3">
-        <v>0.007320753077903777</v>
+        <v>0.006286523539990644</v>
       </c>
       <c r="BF3">
-        <v>0.007513221720376261</v>
+        <v>0.00645783372620239</v>
       </c>
       <c r="BG3">
-        <v>0.00780027336914957</v>
+        <v>0.006724119266618304</v>
       </c>
       <c r="BH3">
-        <v>0.007981919452045329</v>
+        <v>0.006884561999263116</v>
       </c>
       <c r="BI3">
-        <v>0.008457532313443943</v>
+        <v>0.007340190939288223</v>
       </c>
       <c r="BJ3">
-        <v>0.009169061335615793</v>
+        <v>0.008032714664203775</v>
       </c>
       <c r="BK3">
-        <v>0.01011917579845648</v>
+        <v>0.008964813526574892</v>
       </c>
       <c r="BL3">
-        <v>0.01076497411319908</v>
+        <v>0.009591333880860333</v>
       </c>
       <c r="BM3">
-        <v>0.01110421253993135</v>
+        <v>0.009910022679697343</v>
       </c>
       <c r="BN3">
-        <v>0.01130175871220525</v>
+        <v>0.01008643145824858</v>
       </c>
       <c r="BO3">
-        <v>0.01146351417587894</v>
+        <v>0.01022690106168297</v>
       </c>
       <c r="BP3">
-        <v>0.01156376693195802</v>
+        <v>0.01030561283285165</v>
       </c>
       <c r="BQ3">
-        <v>0.01156457873836627</v>
+        <v>0.01030561283285165</v>
       </c>
       <c r="BR3">
-        <v>0.01162415678003615</v>
+        <v>0.01034348116332993</v>
       </c>
       <c r="BS3">
-        <v>0.01172819232596728</v>
+        <v>0.0104259914160666</v>
       </c>
       <c r="BT3">
-        <v>0.01183820159166478</v>
+        <v>0.01051450016867039</v>
       </c>
       <c r="BU3">
-        <v>0.01212290261053002</v>
+        <v>0.01077842532832814</v>
       </c>
       <c r="BV3">
-        <v>0.01263390139054468</v>
+        <v>0.01126958697434178</v>
       </c>
       <c r="BW3">
-        <v>0.01297058397737691</v>
+        <v>0.01158570933117944</v>
       </c>
       <c r="BX3">
-        <v>0.01317956429920362</v>
+        <v>0.01177359969026267</v>
       </c>
       <c r="BY3">
-        <v>0.01329502353468797</v>
+        <v>0.01186758102014172</v>
       </c>
       <c r="BZ3">
-        <v>0.01337683170148842</v>
+        <v>0.0119277716904446</v>
       </c>
       <c r="CA3">
-        <v>0.01369417714907693</v>
+        <v>0.01222447669398809</v>
       </c>
       <c r="CB3">
-        <v>0.01393555331963662</v>
+        <v>0.01244489728581075</v>
       </c>
       <c r="CC3">
-        <v>0.01412906193206843</v>
+        <v>0.01261725175597066</v>
       </c>
       <c r="CD3">
-        <v>0.01437276983253693</v>
+        <v>0.01284001375015151</v>
       </c>
       <c r="CE3">
-        <v>0.01445457799933738</v>
+        <v>0.01290020442045439</v>
       </c>
       <c r="CF3">
-        <v>0.01448914352198551</v>
+        <v>0.01291295647532948</v>
       </c>
       <c r="CG3">
-        <v>0.01451006983416708</v>
+        <v>0.01291295647532948</v>
       </c>
       <c r="CH3">
-        <v>0.01453413920822572</v>
+        <v>0.01291516884163837</v>
       </c>
       <c r="CI3">
-        <v>0.01453420646501309</v>
+        <v>0.01291516884163837</v>
       </c>
       <c r="CJ3">
-        <v>0.01458152946316227</v>
+        <v>0.01294073129239589</v>
       </c>
       <c r="CK3">
-        <v>0.01481287680411419</v>
+        <v>0.01315108145316013</v>
       </c>
       <c r="CL3">
-        <v>0.01544623407934336</v>
+        <v>0.01376510916018611</v>
       </c>
       <c r="CM3">
-        <v>0.02306117178152048</v>
+        <v>0.02138967818840168</v>
       </c>
       <c r="CN3">
-        <v>0.09227762907444054</v>
+        <v>0.09087130136900566</v>
       </c>
       <c r="CO3">
-        <v>0.2162631042253251</v>
+        <v>0.2153491344811312</v>
       </c>
       <c r="CP3">
-        <v>0.2520870408242383</v>
+        <v>0.2512997185806096</v>
       </c>
       <c r="CQ3">
-        <v>0.2584762612743537</v>
+        <v>0.2576934858536085</v>
       </c>
       <c r="CR3">
-        <v>0.2693335238497224</v>
+        <v>0.2685738295216883</v>
       </c>
       <c r="CS3">
-        <v>0.2709036975883123</v>
+        <v>0.2701285597810206</v>
       </c>
       <c r="CT3">
-        <v>0.2824341131373537</v>
+        <v>0.2816848487865199</v>
       </c>
       <c r="CU3">
-        <v>0.2873667569444363</v>
+        <v>0.2866159972656356</v>
       </c>
       <c r="CV3">
-        <v>0.2985824025057885</v>
+        <v>0.297856210558987</v>
       </c>
       <c r="CW3">
-        <v>0.2990967913856706</v>
+        <v>0.2983507763676329</v>
       </c>
       <c r="CX3">
-        <v>0.3106203169349814</v>
+        <v>0.3099001467924012</v>
       </c>
       <c r="CY3">
-        <v>0.3774271643221422</v>
+        <v>0.3769621645571498</v>
       </c>
       <c r="CZ3">
-        <v>0.3807427714924676</v>
+        <v>0.3802695686307572</v>
       </c>
       <c r="DA3">
-        <v>0.4113885192939016</v>
+        <v>0.4110204838424392</v>
       </c>
       <c r="DB3">
-        <v>0.4207055859295079</v>
+        <v>0.4203542425515095</v>
       </c>
       <c r="DC3">
-        <v>0.4236812282131295</v>
+        <v>0.4233202715008268</v>
       </c>
       <c r="DD3">
-        <v>0.4459100303437532</v>
+        <v>0.4456193259854357</v>
       </c>
       <c r="DE3">
-        <v>0.4460382337187391</v>
+        <v>0.4457261043198775</v>
       </c>
       <c r="DF3">
-        <v>0.4488098188103415</v>
+        <v>0.4484872296099867</v>
       </c>
       <c r="DG3">
-        <v>0.457157366483866</v>
+        <v>0.4568474476119821</v>
       </c>
       <c r="DH3">
-        <v>0.45718385478683</v>
+        <v>0.4568520889413635</v>
       </c>
       <c r="DI3">
-        <v>0.4694609343066691</v>
+        <v>0.469158139218697</v>
       </c>
       <c r="DJ3">
-        <v>0.4717397667175431</v>
+        <v>0.4714244677983023</v>
       </c>
       <c r="DK3">
-        <v>0.4720713666345742</v>
+        <v>0.4717354864014789</v>
       </c>
       <c r="DL3">
-        <v>0.4730347125968974</v>
+        <v>0.4726808716500536</v>
       </c>
       <c r="DM3">
-        <v>0.4805798183018057</v>
+        <v>0.4802353190048863</v>
       </c>
       <c r="DN3">
-        <v>0.485682142402252</v>
+        <v>0.4853368516427846</v>
       </c>
       <c r="DO3">
-        <v>0.4857183620008355</v>
+        <v>0.4853512646350096</v>
       </c>
       <c r="DP3">
-        <v>0.4864185260334518</v>
+        <v>0.486032376226279</v>
       </c>
       <c r="DQ3">
-        <v>0.4884690537532549</v>
+        <v>0.4880694530644882</v>
       </c>
       <c r="DR3">
-        <v>0.4897743113022059</v>
+        <v>0.4893581682125502</v>
       </c>
       <c r="DS3">
-        <v>0.4907973048621962</v>
+        <v>0.4903634484881221</v>
       </c>
       <c r="DT3">
-        <v>0.5018459544300797</v>
+        <v>0.5014359730575613</v>
       </c>
       <c r="DU3">
-        <v>0.5165761568539764</v>
+        <v>0.516205322249059</v>
       </c>
       <c r="DV3">
-        <v>0.518469988679908</v>
+        <v>0.5180850531896822</v>
       </c>
       <c r="DW3">
-        <v>0.5224192255254519</v>
+        <v>0.5220287153522613</v>
       </c>
       <c r="DX3">
-        <v>0.5227284318133588</v>
+        <v>0.5223172474333747</v>
       </c>
       <c r="DY3">
-        <v>0.5271578546401225</v>
+        <v>0.5267430874779421</v>
       </c>
       <c r="DZ3">
-        <v>0.5428039480281983</v>
+        <v>0.5424321269197017</v>
       </c>
       <c r="EA3">
-        <v>0.5428768250253481</v>
+        <v>0.5424833493722009</v>
       </c>
       <c r="EB3">
-        <v>0.5464337522862354</v>
+        <v>0.5460330745769932</v>
       </c>
       <c r="EC3">
-        <v>0.5519243850714948</v>
+        <v>0.5515245266763578</v>
       </c>
       <c r="ED3">
-        <v>0.5521746475917069</v>
+        <v>0.5517538704800642</v>
       </c>
       <c r="EE3">
-        <v>0.5529592805610196</v>
+        <v>0.5525198014008913</v>
       </c>
       <c r="EF3">
-        <v>0.5537177733313547</v>
+        <v>0.5532594836883331</v>
       </c>
       <c r="EG3">
-        <v>0.5553430891677881</v>
+        <v>0.5548695847851874</v>
       </c>
       <c r="EH3">
-        <v>0.5695714366113124</v>
+        <v>0.5691349972085052</v>
       </c>
       <c r="EI3">
-        <v>0.5995154454401916</v>
+        <v>0.5991812625038452</v>
       </c>
       <c r="EJ3">
-        <v>0.629886604252365</v>
+        <v>0.6296564496800632</v>
       </c>
       <c r="EK3">
-        <v>0.6319308411724142</v>
+        <v>0.631687209623111</v>
       </c>
       <c r="EL3">
-        <v>0.6386823773083592</v>
+        <v>0.638444795534798</v>
       </c>
       <c r="EM3">
-        <v>0.6607838064439645</v>
+        <v>0.6606159486575128</v>
       </c>
       <c r="EN3">
-        <v>0.6838040055436364</v>
+        <v>0.6837096829730038</v>
       </c>
       <c r="EO3">
-        <v>0.7003922368948649</v>
+        <v>0.7003447685414326</v>
       </c>
       <c r="EP3">
-        <v>0.7030275993917949</v>
+        <v>0.7029691061602082</v>
       </c>
       <c r="EQ3">
-        <v>0.7067581675458912</v>
+        <v>0.7066931925529332</v>
       </c>
       <c r="ER3">
-        <v>0.7132745297910339</v>
+        <v>0.7132146290287746</v>
       </c>
       <c r="ES3">
-        <v>0.7132882415199976</v>
+        <v>0.7132146290287746</v>
       </c>
       <c r="ET3">
-        <v>0.7177141063469005</v>
+        <v>0.7176368963142359</v>
       </c>
       <c r="EU3">
-        <v>0.7208254370252153</v>
+        <v>0.7207391765189466</v>
       </c>
       <c r="EV3">
-        <v>0.7208483147783206</v>
+        <v>0.7207401923212368</v>
       </c>
       <c r="EW3">
-        <v>0.7247352965262993</v>
+        <v>0.7246213411405259</v>
       </c>
       <c r="EX3">
-        <v>0.7340730211610976</v>
+        <v>0.7339758435420115</v>
       </c>
       <c r="EY3">
-        <v>0.7529279884236733</v>
+        <v>0.752887067863979</v>
       </c>
       <c r="EZ3">
-        <v>0.7668568738789097</v>
+        <v>0.7668517760749791</v>
       </c>
       <c r="FA3">
-        <v>0.7669738318243354</v>
+        <v>0.7669472623317272</v>
       </c>
       <c r="FB3">
-        <v>0.7776535324066486</v>
+        <v>0.7776493074465763</v>
       </c>
       <c r="FC3">
-        <v>0.7927717508153698</v>
+        <v>0.7928082821853779</v>
       </c>
       <c r="FD3">
-        <v>0.813024745023268</v>
+        <v>0.8131233327284816</v>
       </c>
       <c r="FE3">
-        <v>0.8249921565552184</v>
+        <v>0.8251184304575118</v>
       </c>
       <c r="FF3">
-        <v>0.8255790306322656</v>
+        <v>0.8256857821454034</v>
       </c>
       <c r="FG3">
-        <v>0.829574100476017</v>
+        <v>0.8296754674299918</v>
       </c>
       <c r="FH3">
-        <v>0.832885398346511</v>
+        <v>0.8329785443279905</v>
       </c>
       <c r="FI3">
-        <v>0.8444089238958219</v>
+        <v>0.8445279147527588</v>
       </c>
       <c r="FJ3">
-        <v>0.8532310585507851</v>
+        <v>0.8533646884112691</v>
       </c>
       <c r="FK3">
-        <v>0.8557389839526992</v>
+        <v>0.8558610603022545</v>
       </c>
       <c r="FL3">
-        <v>0.8564337817255254</v>
+        <v>0.85653678337349</v>
       </c>
       <c r="FM3">
-        <v>0.8570489696014653</v>
+        <v>0.8571325663111787</v>
       </c>
       <c r="FN3">
-        <v>0.8587089600365424</v>
+        <v>0.8587774858433619</v>
       </c>
       <c r="FO3">
-        <v>0.85934798191155</v>
+        <v>0.8593972016479798</v>
       </c>
       <c r="FP3">
-        <v>0.8593514744968135</v>
+        <v>0.8593972016479798</v>
       </c>
       <c r="FQ3">
-        <v>0.8593830878985771</v>
+        <v>0.8594069893360239</v>
       </c>
       <c r="FR3">
-        <v>0.8640461202162043</v>
+        <v>0.864067407927076</v>
       </c>
       <c r="FS3">
-        <v>0.8700664102807486</v>
+        <v>0.8700907144226405</v>
       </c>
       <c r="FT3">
-        <v>0.8701298459682676</v>
+        <v>0.8701324564012005</v>
       </c>
       <c r="FU3">
-        <v>0.8701441581397078</v>
+        <v>0.8701324564012005</v>
       </c>
       <c r="FV3">
-        <v>0.8705258130647812</v>
+        <v>0.8704937376499036</v>
       </c>
       <c r="FW3">
-        <v>0.8721219431023559</v>
+        <v>0.8720745318797769</v>
       </c>
       <c r="FX3">
-        <v>0.8756014828662699</v>
+        <v>0.8755465485698638</v>
       </c>
       <c r="FY3">
-        <v>0.8761424007051144</v>
+        <v>0.8760677533845285</v>
       </c>
       <c r="FZ3">
-        <v>0.876517399290448</v>
+        <v>0.8764223506817564</v>
       </c>
       <c r="GA3">
-        <v>0.8786274337079238</v>
+        <v>0.8785191810624891</v>
       </c>
       <c r="GB3">
-        <v>0.8975485399679127</v>
+        <v>0.8974968187387334</v>
       </c>
       <c r="GC3">
-        <v>0.9130318593623546</v>
+        <v>0.9130224089700563</v>
       </c>
       <c r="GD3">
-        <v>0.918190869160584</v>
+        <v>0.9181808624485559</v>
       </c>
       <c r="GE3">
-        <v>0.922511359991608</v>
+        <v>0.9224973186272031</v>
       </c>
       <c r="GF3">
-        <v>0.9253938202788741</v>
+        <v>0.9253697790439112</v>
       </c>
       <c r="GG3">
-        <v>0.9291544962317927</v>
+        <v>0.9291240981282083</v>
       </c>
       <c r="GH3">
-        <v>0.9294678535495372</v>
+        <v>0.9294167984584033</v>
       </c>
       <c r="GI3">
-        <v>0.9360682242913944</v>
+        <v>0.9360225919138299</v>
       </c>
       <c r="GJ3">
-        <v>0.9542652775797013</v>
+        <v>0.9542731731119859</v>
       </c>
       <c r="GK3">
-        <v>0.9691099209991221</v>
+        <v>0.9691574380215443</v>
       </c>
       <c r="GL3">
-        <v>0.9863363963253886</v>
+        <v>0.986433415119738</v>
       </c>
       <c r="GM3">
-        <v>0.9948637079918825</v>
+        <v>0.9949741428091833</v>
       </c>
       <c r="GN3">
-        <v>0.9951964773788677</v>
+        <v>0.9952863357334931</v>
       </c>
       <c r="GO3">
-        <v>0.9955954564632635</v>
+        <v>0.9956650130053539</v>
       </c>
       <c r="GP3">
-        <v>0.9956195258373222</v>
+        <v>0.9956672253716629</v>
       </c>
       <c r="GQ3">
-        <v>0.9956601860297319</v>
+        <v>0.9956860973781234</v>
       </c>
       <c r="GR3">
-        <v>0.9959635901578657</v>
+        <v>0.9959688032310259</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.002018182484427983</v>
+        <v>0.002017975779818257</v>
       </c>
       <c r="C4">
-        <v>0.003148517387721609</v>
+        <v>0.003148044920948608</v>
       </c>
       <c r="D4">
-        <v>0.003799679747226912</v>
+        <v>0.003798909644848883</v>
       </c>
       <c r="E4">
-        <v>0.0045126870123838</v>
+        <v>0.004511623388179849</v>
       </c>
       <c r="F4">
-        <v>0.004795508288228915</v>
+        <v>0.004794122527228813</v>
       </c>
       <c r="G4">
-        <v>0.004866036744674031</v>
+        <v>0.004864314725653804</v>
       </c>
       <c r="H4">
-        <v>0.00487585374657114</v>
+        <v>0.004873791431146211</v>
       </c>
       <c r="I4">
-        <v>0.004897067696509739</v>
+        <v>0.004894665842778551</v>
       </c>
       <c r="J4">
-        <v>0.004897215574963253</v>
+        <v>0.004894665842778551</v>
       </c>
       <c r="K4">
-        <v>0.004938928398775104</v>
+        <v>0.004936040491821498</v>
       </c>
       <c r="L4">
-        <v>0.005093359012887469</v>
+        <v>0.00509014042888988</v>
       </c>
       <c r="M4">
-        <v>0.005093699939618624</v>
+        <v>0.00509014042888988</v>
       </c>
       <c r="N4">
-        <v>0.005093734242358759</v>
+        <v>0.00509014042888988</v>
       </c>
       <c r="O4">
-        <v>0.005093735316478457</v>
+        <v>0.00509014042888988</v>
       </c>
       <c r="P4">
-        <v>0.00510121297066179</v>
+        <v>0.005097277631060547</v>
       </c>
       <c r="Q4">
-        <v>0.005112318854676681</v>
+        <v>0.005108043304404173</v>
       </c>
       <c r="R4">
-        <v>0.00517831204070735</v>
+        <v>0.00517369993073909</v>
       </c>
       <c r="S4">
-        <v>0.00534371398582231</v>
+        <v>0.005338771928597457</v>
       </c>
       <c r="T4">
-        <v>0.005929910839390857</v>
+        <v>0.005924666825206808</v>
       </c>
       <c r="U4">
-        <v>0.006716481111270169</v>
+        <v>0.006710948468500096</v>
       </c>
       <c r="V4">
-        <v>0.007481496181179698</v>
+        <v>0.007475673476021761</v>
       </c>
       <c r="W4">
-        <v>0.008067693034748245</v>
+        <v>0.008061568372631112</v>
       </c>
       <c r="X4">
-        <v>0.00891320776201409</v>
+        <v>0.008906798392158841</v>
       </c>
       <c r="Y4">
-        <v>0.009064737775861389</v>
+        <v>0.009057997536020981</v>
       </c>
       <c r="Z4">
-        <v>0.009126237851481462</v>
+        <v>0.009119160753074061</v>
       </c>
       <c r="AA4">
-        <v>0.009173259400778443</v>
+        <v>0.009165844480726193</v>
       </c>
       <c r="AB4">
-        <v>0.009173287144978979</v>
+        <v>0.009165844480726193</v>
       </c>
       <c r="AC4">
-        <v>0.009174128072755826</v>
+        <v>0.009166344515030789</v>
       </c>
       <c r="AD4">
-        <v>0.009201503351257467</v>
+        <v>0.009193380665063399</v>
       </c>
       <c r="AE4">
-        <v>0.009701110696913188</v>
+        <v>0.009692680294027499</v>
       </c>
       <c r="AF4">
-        <v>0.01019028924161589</v>
+        <v>0.01018155042833903</v>
       </c>
       <c r="AG4">
-        <v>0.01030195932182066</v>
+        <v>0.01029288698716868</v>
       </c>
       <c r="AH4">
-        <v>0.01032453491988369</v>
+        <v>0.01031512313749911</v>
       </c>
       <c r="AI4">
-        <v>0.01032801992200216</v>
+        <v>0.010318267422023</v>
       </c>
       <c r="AJ4">
-        <v>0.0104109863645839</v>
+        <v>0.01040089843393049</v>
       </c>
       <c r="AK4">
-        <v>0.01041709592914221</v>
+        <v>0.010406667455474</v>
       </c>
       <c r="AL4">
-        <v>0.01043101799441446</v>
+        <v>0.0104202494974008</v>
       </c>
       <c r="AM4">
-        <v>0.01052419433792921</v>
+        <v>0.01051309108938013</v>
       </c>
       <c r="AN4">
-        <v>0.0106906263431383</v>
+        <v>0.01067919321584983</v>
       </c>
       <c r="AO4">
-        <v>0.01085615194826456</v>
+        <v>0.01084438888194507</v>
       </c>
       <c r="AP4">
-        <v>0.01090101343236415</v>
+        <v>0.0108889124007173</v>
       </c>
       <c r="AQ4">
-        <v>0.01098173314974057</v>
+        <v>0.01096929653797254</v>
       </c>
       <c r="AR4">
-        <v>0.01113921247413154</v>
+        <v>0.01112644538811264</v>
       </c>
       <c r="AS4">
-        <v>0.0111513575962414</v>
+        <v>0.01113825036867893</v>
       </c>
       <c r="AT4">
-        <v>0.01116413096040867</v>
+        <v>0.01115068363309183</v>
       </c>
       <c r="AU4">
-        <v>0.01132953290552363</v>
+        <v>0.0113157556309502</v>
       </c>
       <c r="AV4">
-        <v>0.01177938354663242</v>
+        <v>0.01176529524566725</v>
       </c>
       <c r="AW4">
-        <v>0.01199140971600805</v>
+        <v>0.01197699456912111</v>
       </c>
       <c r="AX4">
-        <v>0.01221415400636314</v>
+        <v>0.01219941272649888</v>
       </c>
       <c r="AY4">
-        <v>0.01273740845417981</v>
+        <v>0.0127223610305741</v>
       </c>
       <c r="AZ4">
-        <v>0.0132232678985792</v>
+        <v>0.01320791184380349</v>
       </c>
       <c r="BA4">
-        <v>0.01362240706505382</v>
+        <v>0.01360673661067717</v>
       </c>
       <c r="BB4">
-        <v>0.01378600431000386</v>
+        <v>0.01377000378832617</v>
       </c>
       <c r="BC4">
-        <v>0.01392054766229886</v>
+        <v>0.01390421514072284</v>
       </c>
       <c r="BD4">
-        <v>0.01398892629854752</v>
+        <v>0.01397225737595034</v>
       </c>
       <c r="BE4">
-        <v>0.01400971038444684</v>
+        <v>0.01399270189494985</v>
       </c>
       <c r="BF4">
-        <v>0.0140236841227238</v>
+        <v>0.01400633561331853</v>
       </c>
       <c r="BG4">
-        <v>0.01404070057227882</v>
+        <v>0.01402301224535934</v>
       </c>
       <c r="BH4">
-        <v>0.01410536690318824</v>
+        <v>0.01408734192831369</v>
       </c>
       <c r="BI4">
-        <v>0.01428118249925483</v>
+        <v>0.0142628282698155</v>
       </c>
       <c r="BJ4">
-        <v>0.01452432398147388</v>
+        <v>0.01450564497583093</v>
       </c>
       <c r="BK4">
-        <v>0.01470546563802718</v>
+        <v>0.0146864577320966</v>
       </c>
       <c r="BL4">
-        <v>0.01485326599153365</v>
+        <v>0.01483392696752959</v>
       </c>
       <c r="BM4">
-        <v>0.01486312639143473</v>
+        <v>0.0148434470739127</v>
       </c>
       <c r="BN4">
-        <v>0.01495116885548033</v>
+        <v>0.01493115444492917</v>
       </c>
       <c r="BO4">
-        <v>0.01528073798559741</v>
+        <v>0.01526040454780851</v>
       </c>
       <c r="BP4">
-        <v>0.01557834007279325</v>
+        <v>0.01555768548139334</v>
       </c>
       <c r="BQ4">
-        <v>0.01603789707478904</v>
+        <v>0.01601693210264192</v>
       </c>
       <c r="BR4">
-        <v>0.01671504647666912</v>
+        <v>0.01669378559751452</v>
       </c>
       <c r="BS4">
-        <v>0.01741744784085681</v>
+        <v>0.01739589273439645</v>
       </c>
       <c r="BT4">
-        <v>0.01771343386790496</v>
+        <v>0.01769155750033704</v>
       </c>
       <c r="BU4">
-        <v>0.01780820156656514</v>
+        <v>0.01778599055331504</v>
       </c>
       <c r="BV4">
-        <v>0.01791912941670208</v>
+        <v>0.01789658483270544</v>
       </c>
       <c r="BW4">
-        <v>0.01791944891889128</v>
+        <v>0.01789658483270544</v>
       </c>
       <c r="BX4">
-        <v>0.01793855755663749</v>
+        <v>0.01791535379210493</v>
       </c>
       <c r="BY4">
-        <v>0.01795342170399582</v>
+        <v>0.01792987797878292</v>
       </c>
       <c r="BZ4">
-        <v>0.01799363363767052</v>
+        <v>0.017969751637853</v>
       </c>
       <c r="CA4">
-        <v>0.01811046469834691</v>
+        <v>0.01808624952045067</v>
       </c>
       <c r="CB4">
-        <v>0.0181817019688568</v>
+        <v>0.0181571505800891</v>
       </c>
       <c r="CC4">
-        <v>0.01818611757056031</v>
+        <v>0.01816122552609934</v>
       </c>
       <c r="CD4">
-        <v>0.01818807136373886</v>
+        <v>0.01816283849983085</v>
       </c>
       <c r="CE4">
-        <v>0.01818931762525274</v>
+        <v>0.01816374389483435</v>
       </c>
       <c r="CF4">
-        <v>0.01820046966477185</v>
+        <v>0.01817455572675235</v>
       </c>
       <c r="CG4">
-        <v>0.01822828721431391</v>
+        <v>0.01820203417724421</v>
       </c>
       <c r="CH4">
-        <v>0.01834184619469129</v>
+        <v>0.01831525976189172</v>
       </c>
       <c r="CI4">
-        <v>0.01851241523027844</v>
+        <v>0.0184854991939251</v>
       </c>
       <c r="CJ4">
-        <v>0.01904104793858659</v>
+        <v>0.01901382611624116</v>
       </c>
       <c r="CK4">
-        <v>0.0200152270276102</v>
+        <v>0.01998772905598037</v>
       </c>
       <c r="CL4">
-        <v>0.02127989264317939</v>
+        <v>0.02125213784475246</v>
       </c>
       <c r="CM4">
-        <v>0.02245046745015027</v>
+        <v>0.02242244956622474</v>
       </c>
       <c r="CN4">
-        <v>0.02327767052574274</v>
+        <v>0.02324936671603067</v>
       </c>
       <c r="CO4">
-        <v>0.07576016832176158</v>
+        <v>0.07573501457617703</v>
       </c>
       <c r="CP4">
-        <v>0.07742262467368216</v>
+        <v>0.07739724056141394</v>
       </c>
       <c r="CQ4">
-        <v>0.1875478707372801</v>
+        <v>0.1875294709505203</v>
       </c>
       <c r="CR4">
-        <v>0.1922176691640212</v>
+        <v>0.1921992390519693</v>
       </c>
       <c r="CS4">
-        <v>0.1967159911750923</v>
+        <v>0.1966975193315364</v>
       </c>
       <c r="CT4">
-        <v>0.2090983473066317</v>
+        <v>0.2090803581591618</v>
       </c>
       <c r="CU4">
-        <v>0.2121760962878863</v>
+        <v>0.2121579709157026</v>
       </c>
       <c r="CV4">
-        <v>0.2193976513478151</v>
+        <v>0.2193796653872482</v>
       </c>
       <c r="CW4">
-        <v>0.2194222295020611</v>
+        <v>0.219403904226967</v>
       </c>
       <c r="CX4">
-        <v>0.2381290482115501</v>
+        <v>0.2381116263210649</v>
       </c>
       <c r="CY4">
-        <v>0.2381560066670137</v>
+        <v>0.2381382456203333</v>
       </c>
       <c r="CZ4">
-        <v>0.2835761248176497</v>
+        <v>0.2835610440620491</v>
       </c>
       <c r="DA4">
-        <v>0.3350481195213255</v>
+        <v>0.3350361216135399</v>
       </c>
       <c r="DB4">
-        <v>0.3516361360371916</v>
+        <v>0.351624900576227</v>
       </c>
       <c r="DC4">
-        <v>0.3615907799468788</v>
+        <v>0.3615798656962367</v>
       </c>
       <c r="DD4">
-        <v>0.3895118384983947</v>
+        <v>0.3895024405421382</v>
       </c>
       <c r="DE4">
-        <v>0.3895926825657824</v>
+        <v>0.3895829490376763</v>
       </c>
       <c r="DF4">
-        <v>0.404872520962103</v>
+        <v>0.4048634628638558</v>
       </c>
       <c r="DG4">
-        <v>0.4077733442271895</v>
+        <v>0.4077641381355419</v>
       </c>
       <c r="DH4">
-        <v>0.4078506433642534</v>
+        <v>0.4078411014649555</v>
       </c>
       <c r="DI4">
-        <v>0.4212825315917024</v>
+        <v>0.4212735422009214</v>
       </c>
       <c r="DJ4">
-        <v>0.4222050136760017</v>
+        <v>0.422195744697172</v>
       </c>
       <c r="DK4">
-        <v>0.4258562881096669</v>
+        <v>0.4258469210557009</v>
       </c>
       <c r="DL4">
-        <v>0.4260777776199073</v>
+        <v>0.426068084349499</v>
       </c>
       <c r="DM4">
-        <v>0.427855563482367</v>
+        <v>0.4278456475167255</v>
       </c>
       <c r="DN4">
-        <v>0.4373408853491662</v>
+        <v>0.4373312593756378</v>
       </c>
       <c r="DO4">
-        <v>0.4528155677632922</v>
+        <v>0.452806630180193</v>
       </c>
       <c r="DP4">
-        <v>0.4555002774086296</v>
+        <v>0.4554911774567553</v>
       </c>
       <c r="DQ4">
-        <v>0.4560070339549386</v>
+        <v>0.4559976267619208</v>
       </c>
       <c r="DR4">
-        <v>0.4589900141275329</v>
+        <v>0.4589804644060009</v>
       </c>
       <c r="DS4">
-        <v>0.4616011122661434</v>
+        <v>0.4615913952793703</v>
       </c>
       <c r="DT4">
-        <v>0.4618298464370459</v>
+        <v>0.4618198037157283</v>
       </c>
       <c r="DU4">
-        <v>0.4640598068408268</v>
+        <v>0.4640495715018735</v>
       </c>
       <c r="DV4">
-        <v>0.4818479974663687</v>
+        <v>0.4818386044070233</v>
       </c>
       <c r="DW4">
-        <v>0.4881278920402456</v>
+        <v>0.4881185757554543</v>
       </c>
       <c r="DX4">
-        <v>0.4909703913000023</v>
+        <v>0.4909609231422336</v>
       </c>
       <c r="DY4">
-        <v>0.4935456623353388</v>
+        <v>0.4935360245291934</v>
       </c>
       <c r="DZ4">
-        <v>0.49354578439619</v>
+        <v>0.4935360245291934</v>
       </c>
       <c r="EA4">
-        <v>0.4963970426567471</v>
+        <v>0.4963871314994014</v>
       </c>
       <c r="EB4">
-        <v>0.5049234904359212</v>
+        <v>0.5049138054886173</v>
       </c>
       <c r="EC4">
-        <v>0.5073399230567426</v>
+        <v>0.5073300578955006</v>
       </c>
       <c r="ED4">
-        <v>0.5167782749192494</v>
+        <v>0.5167686966257852</v>
       </c>
       <c r="EE4">
-        <v>0.5218663620842151</v>
+        <v>0.5218567812890516</v>
       </c>
       <c r="EF4">
-        <v>0.5219183317909643</v>
+        <v>0.5219084135032958</v>
       </c>
       <c r="EG4">
-        <v>0.5223046488262671</v>
+        <v>0.5222944152860994</v>
       </c>
       <c r="EH4">
-        <v>0.5225317578670211</v>
+        <v>0.5225211984842091</v>
       </c>
       <c r="EI4">
-        <v>0.5296065900135419</v>
+        <v>0.5295961602826802</v>
       </c>
       <c r="EJ4">
-        <v>0.5498813758663168</v>
+        <v>0.5498719538175869</v>
       </c>
       <c r="EK4">
-        <v>0.5820181768030807</v>
+        <v>0.5820105514701026</v>
       </c>
       <c r="EL4">
-        <v>0.5965151956278647</v>
+        <v>0.5965081936534106</v>
       </c>
       <c r="EM4">
-        <v>0.5978975707541906</v>
+        <v>0.5978903197827019</v>
       </c>
       <c r="EN4">
-        <v>0.620699554837909</v>
+        <v>0.6206934796518933</v>
       </c>
       <c r="EO4">
-        <v>0.6485563433835516</v>
+        <v>0.6485517802168305</v>
       </c>
       <c r="EP4">
-        <v>0.6750332958031003</v>
+        <v>0.6750301528721879</v>
       </c>
       <c r="EQ4">
-        <v>0.6904904792156273</v>
+        <v>0.6904880235111512</v>
       </c>
       <c r="ER4">
-        <v>0.6947116582013722</v>
+        <v>0.6947091423304835</v>
       </c>
       <c r="ES4">
-        <v>0.7073247253539946</v>
+        <v>0.7073227075255519</v>
       </c>
       <c r="ET4">
-        <v>0.7156124971113578</v>
+        <v>0.7156106896167836</v>
       </c>
       <c r="EU4">
-        <v>0.7158053132489779</v>
+        <v>0.7158031776306755</v>
       </c>
       <c r="EV4">
-        <v>0.7199286521257818</v>
+        <v>0.7199264498329706</v>
       </c>
       <c r="EW4">
-        <v>0.7203058053202473</v>
+        <v>0.7203032871653795</v>
       </c>
       <c r="EX4">
-        <v>0.7203083561164805</v>
+        <v>0.7203054971818769</v>
       </c>
       <c r="EY4">
-        <v>0.72470565851832</v>
+        <v>0.7247027511326233</v>
       </c>
       <c r="EZ4">
-        <v>0.7377554677108534</v>
+        <v>0.737753087418666</v>
       </c>
       <c r="FA4">
-        <v>0.7557318203535901</v>
+        <v>0.7557302948571097</v>
       </c>
       <c r="FB4">
-        <v>0.7614718838781355</v>
+        <v>0.7614703992479049</v>
       </c>
       <c r="FC4">
-        <v>0.7631704780333585</v>
+        <v>0.7631687654402468</v>
       </c>
       <c r="FD4">
-        <v>0.7731485339451852</v>
+        <v>0.7731471441197079</v>
       </c>
       <c r="FE4">
-        <v>0.785645980087242</v>
+        <v>0.78564508061337</v>
       </c>
       <c r="FF4">
-        <v>0.7981329412283404</v>
+        <v>0.7981325314086362</v>
       </c>
       <c r="FG4">
-        <v>0.7993776702420877</v>
+        <v>0.7993770022694501</v>
       </c>
       <c r="FH4">
-        <v>0.7993777320673934</v>
+        <v>0.7993770022694501</v>
       </c>
       <c r="FI4">
-        <v>0.7993997088614017</v>
+        <v>0.7993986395758947</v>
       </c>
       <c r="FJ4">
-        <v>0.8136605091645993</v>
+        <v>0.8136600475249103</v>
       </c>
       <c r="FK4">
-        <v>0.8288691465544133</v>
+        <v>0.828869355608458</v>
       </c>
       <c r="FL4">
-        <v>0.8381780784050934</v>
+        <v>0.838178565718198</v>
       </c>
       <c r="FM4">
-        <v>0.8405326596202626</v>
+        <v>0.8405329626052177</v>
       </c>
       <c r="FN4">
-        <v>0.8407310514883922</v>
+        <v>0.8407310267205037</v>
       </c>
       <c r="FO4">
-        <v>0.8407718604761215</v>
+        <v>0.840771497473343</v>
       </c>
       <c r="FP4">
-        <v>0.8423114138168109</v>
+        <v>0.8423108122721266</v>
       </c>
       <c r="FQ4">
-        <v>0.8423718153623305</v>
+        <v>0.8423708768860076</v>
       </c>
       <c r="FR4">
-        <v>0.8424346095680688</v>
+        <v>0.8424333343192615</v>
       </c>
       <c r="FS4">
-        <v>0.8432211798399482</v>
+        <v>0.8432196159625548</v>
       </c>
       <c r="FT4">
-        <v>0.852722496708209</v>
+        <v>0.852721223886879</v>
       </c>
       <c r="FU4">
-        <v>0.8564802367516033</v>
+        <v>0.8564788729369814</v>
       </c>
       <c r="FV4">
-        <v>0.8565276466629358</v>
+        <v>0.856525945052502</v>
       </c>
       <c r="FW4">
-        <v>0.8566942572481612</v>
+        <v>0.8566922257708668</v>
       </c>
       <c r="FX4">
-        <v>0.8567232508978107</v>
+        <v>0.8567208803996975</v>
       </c>
       <c r="FY4">
-        <v>0.8576195666797188</v>
+        <v>0.8576169148530355</v>
       </c>
       <c r="FZ4">
-        <v>0.8578841551538978</v>
+        <v>0.8578811799776148</v>
       </c>
       <c r="GA4">
-        <v>0.8578872161049775</v>
+        <v>0.8578839001828931</v>
       </c>
       <c r="GB4">
-        <v>0.8580599358707612</v>
+        <v>0.8580562904881845</v>
       </c>
       <c r="GC4">
-        <v>0.8672866647139292</v>
+        <v>0.8672832921224599</v>
       </c>
       <c r="GD4">
-        <v>0.8910909888892447</v>
+        <v>0.8910888587565771</v>
       </c>
       <c r="GE4">
-        <v>0.902549191936332</v>
+        <v>0.9025474830272393</v>
       </c>
       <c r="GF4">
-        <v>0.9068376790282277</v>
+        <v>0.9068359144299009</v>
       </c>
       <c r="GG4">
-        <v>0.9099083930088393</v>
+        <v>0.9099064917178469</v>
       </c>
       <c r="GH4">
-        <v>0.9110203453104531</v>
+        <v>0.9110181770345295</v>
       </c>
       <c r="GI4">
-        <v>0.911397767314943</v>
+        <v>0.9113952831948435</v>
       </c>
       <c r="GJ4">
-        <v>0.9137717337318837</v>
+        <v>0.9137690665730931</v>
       </c>
       <c r="GK4">
-        <v>0.9333414915202308</v>
+        <v>0.9333397851467471</v>
       </c>
       <c r="GL4">
-        <v>0.9573539957145704</v>
+        <v>0.9573535456475385</v>
       </c>
       <c r="GM4">
-        <v>0.974691543298931</v>
+        <v>0.9746919055357813</v>
       </c>
       <c r="GN4">
-        <v>0.9954297691940566</v>
+        <v>0.995431169939991</v>
       </c>
       <c r="GO4">
-        <v>0.9996714055816709</v>
+        <v>0.9996727475219714</v>
       </c>
       <c r="GP4">
-        <v>0.9997367166076392</v>
+        <v>0.9997377219428684</v>
       </c>
       <c r="GQ4">
-        <v>0.9999847865603086</v>
+        <v>0.9999854674471645</v>
       </c>
       <c r="GR4">
-        <v>0.9999886117739583</v>
+        <v>0.9999889519658496</v>
       </c>
       <c r="GS4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.404654318645843E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.855083322138498E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.884543564366935E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>8.705814309505439E-05</v>
+        <v>1.67513928646983E-05</v>
       </c>
       <c r="F5">
-        <v>0.0006684502976032062</v>
+        <v>0.0005606983971505909</v>
       </c>
       <c r="G5">
-        <v>0.001503460004077925</v>
+        <v>0.001360209837555575</v>
       </c>
       <c r="H5">
-        <v>0.002133865808966131</v>
+        <v>0.001953546743385696</v>
       </c>
       <c r="I5">
-        <v>0.002583993662456451</v>
+        <v>0.002365221801932553</v>
       </c>
       <c r="J5">
-        <v>0.00269381982730805</v>
+        <v>0.002433982860667622</v>
       </c>
       <c r="K5">
-        <v>0.002706867474409222</v>
+        <v>0.002433982860667622</v>
       </c>
       <c r="L5">
-        <v>0.002726228355559348</v>
+        <v>0.002433982860667622</v>
       </c>
       <c r="M5">
-        <v>0.002834105611395835</v>
+        <v>0.002500780049671939</v>
       </c>
       <c r="N5">
-        <v>0.003202301494250849</v>
+        <v>0.002829894190359695</v>
       </c>
       <c r="O5">
-        <v>0.003574903107140026</v>
+        <v>0.003163447881477392</v>
       </c>
       <c r="P5">
-        <v>0.003851658129286002</v>
+        <v>0.00340041921964953</v>
       </c>
       <c r="Q5">
-        <v>0.003893247055608485</v>
+        <v>0.00340041921964953</v>
       </c>
       <c r="R5">
-        <v>0.003917631548797564</v>
+        <v>0.00340041921964953</v>
       </c>
       <c r="S5">
-        <v>0.004005599879479676</v>
+        <v>0.003447154653497857</v>
       </c>
       <c r="T5">
-        <v>0.004006268150884858</v>
+        <v>0.003447154653497857</v>
       </c>
       <c r="U5">
-        <v>0.004049671641221411</v>
+        <v>0.003448983146933985</v>
       </c>
       <c r="V5">
-        <v>0.004091580065546372</v>
+        <v>0.00344930509754904</v>
       </c>
       <c r="W5">
-        <v>0.00409922608160566</v>
+        <v>0.00344930509754904</v>
       </c>
       <c r="X5">
-        <v>0.004104186401144122</v>
+        <v>0.00344930509754904</v>
       </c>
       <c r="Y5">
-        <v>0.004104200626020233</v>
+        <v>0.00344930509754904</v>
       </c>
       <c r="Z5">
-        <v>0.004255720447195127</v>
+        <v>0.003560079872154258</v>
       </c>
       <c r="AA5">
-        <v>0.00435181235394023</v>
+        <v>0.003615001242345359</v>
       </c>
       <c r="AB5">
-        <v>0.004502488005108579</v>
+        <v>0.00372492536670954</v>
       </c>
       <c r="AC5">
-        <v>0.004555718998521335</v>
+        <v>0.00373665680362357</v>
       </c>
       <c r="AD5">
-        <v>0.004570635081636996</v>
+        <v>0.00373665680362357</v>
       </c>
       <c r="AE5">
-        <v>0.004604922941902866</v>
+        <v>0.00373665680362357</v>
       </c>
       <c r="AF5">
-        <v>0.004820776433576607</v>
+        <v>0.003912259103362682</v>
       </c>
       <c r="AG5">
-        <v>0.005388996637982623</v>
+        <v>0.004442933043642006</v>
       </c>
       <c r="AH5">
-        <v>0.006377316945646122</v>
+        <v>0.005396931967425328</v>
       </c>
       <c r="AI5">
-        <v>0.007658850855583218</v>
+        <v>0.006646395334999897</v>
       </c>
       <c r="AJ5">
-        <v>0.00897919096582122</v>
+        <v>0.007934962796991137</v>
       </c>
       <c r="AK5">
-        <v>0.009861827902665243</v>
+        <v>0.008782467076136438</v>
       </c>
       <c r="AL5">
-        <v>0.01040469000687463</v>
+        <v>0.009287588255861332</v>
       </c>
       <c r="AM5">
-        <v>0.01073323374942218</v>
+        <v>0.009576745868304037</v>
       </c>
       <c r="AN5">
-        <v>0.01077769936976697</v>
+        <v>0.009579644645143406</v>
       </c>
       <c r="AO5">
-        <v>0.0108112990300275</v>
+        <v>0.009579644645143406</v>
       </c>
       <c r="AP5">
-        <v>0.01091447335082752</v>
+        <v>0.00964170279723415</v>
       </c>
       <c r="AQ5">
-        <v>0.01104585833184629</v>
+        <v>0.0097321881674549</v>
       </c>
       <c r="AR5">
-        <v>0.01115540637269573</v>
+        <v>0.009800668967180955</v>
       </c>
       <c r="AS5">
-        <v>0.01123976250934984</v>
+        <v>0.009843764478150274</v>
       </c>
       <c r="AT5">
-        <v>0.01151651753149581</v>
+        <v>0.01008073581632241</v>
       </c>
       <c r="AU5">
-        <v>0.01158737475204524</v>
+        <v>0.01011022878734227</v>
       </c>
       <c r="AV5">
-        <v>0.01177710985351646</v>
+        <v>0.01025951220018776</v>
       </c>
       <c r="AW5">
-        <v>0.01222279983697237</v>
+        <v>0.01066671532158311</v>
       </c>
       <c r="AX5">
-        <v>0.01268852474058363</v>
+        <v>0.01109410716033059</v>
       </c>
       <c r="AY5">
-        <v>0.01322492050474288</v>
+        <v>0.01159271236142603</v>
       </c>
       <c r="AZ5">
-        <v>0.01387375984977402</v>
+        <v>0.01220462431167156</v>
       </c>
       <c r="BA5">
-        <v>0.01441174735394561</v>
+        <v>0.01270483347170261</v>
       </c>
       <c r="BB5">
-        <v>0.01541584776173147</v>
+        <v>0.01367473363086338</v>
       </c>
       <c r="BC5">
-        <v>0.01628752820849054</v>
+        <v>0.01451119731290216</v>
       </c>
       <c r="BD5">
-        <v>0.01652468143032944</v>
+        <v>0.01470826284926247</v>
       </c>
       <c r="BE5">
-        <v>0.01657741254373832</v>
+        <v>0.01471949056886542</v>
       </c>
       <c r="BF5">
-        <v>0.01657756027577946</v>
+        <v>0.01471949056886542</v>
       </c>
       <c r="BG5">
-        <v>0.01674324937706423</v>
+        <v>0.01484454339344555</v>
       </c>
       <c r="BH5">
-        <v>0.01699695467903148</v>
+        <v>0.01505828807126038</v>
       </c>
       <c r="BI5">
-        <v>0.01767477672428735</v>
+        <v>0.01569940520617357</v>
       </c>
       <c r="BJ5">
-        <v>0.01901767143470024</v>
+        <v>0.01701070040775101</v>
       </c>
       <c r="BK5">
-        <v>0.02072180794791423</v>
+        <v>0.01868601046918199</v>
       </c>
       <c r="BL5">
-        <v>0.0222799027599958</v>
+        <v>0.02021415774668743</v>
       </c>
       <c r="BM5">
-        <v>0.02370022187100904</v>
+        <v>0.02160347169392289</v>
       </c>
       <c r="BN5">
-        <v>0.02512658648206916</v>
+        <v>0.02299887754922448</v>
       </c>
       <c r="BO5">
-        <v>0.02578664648718731</v>
+        <v>0.02362209629446817</v>
       </c>
       <c r="BP5">
-        <v>0.02604401118918293</v>
+        <v>0.02383952846353719</v>
       </c>
       <c r="BQ5">
-        <v>0.0262865388910635</v>
+        <v>0.02404200973690243</v>
       </c>
       <c r="BR5">
-        <v>0.02662343379367581</v>
+        <v>0.02433958261672841</v>
       </c>
       <c r="BS5">
-        <v>0.02671622440939531</v>
+        <v>0.02439117735367634</v>
       </c>
       <c r="BT5">
-        <v>0.02671845832391263</v>
+        <v>0.02439117735367634</v>
       </c>
       <c r="BU5">
-        <v>0.0267725546363321</v>
+        <v>0.02440378075218096</v>
       </c>
       <c r="BV5">
-        <v>0.02681747939268045</v>
+        <v>0.02440714218956153</v>
       </c>
       <c r="BW5">
-        <v>0.02683197063179282</v>
+        <v>0.02440714218956153</v>
       </c>
       <c r="BX5">
-        <v>0.02688520162520557</v>
+        <v>0.02441887362647556</v>
       </c>
       <c r="BY5">
-        <v>0.02710268605689196</v>
+        <v>0.02459611938606768</v>
       </c>
       <c r="BZ5">
-        <v>0.02776913676205966</v>
+        <v>0.02522577788929305</v>
       </c>
       <c r="CA5">
-        <v>0.02876599626978937</v>
+        <v>0.02618838156394203</v>
       </c>
       <c r="CB5">
-        <v>0.0299723219791433</v>
+        <v>0.02736205939843921</v>
       </c>
       <c r="CC5">
-        <v>0.03166216199224643</v>
+        <v>0.02902296321329546</v>
       </c>
       <c r="CD5">
-        <v>0.03338319920559146</v>
+        <v>0.03071530371235001</v>
       </c>
       <c r="CE5">
-        <v>0.03483460701684576</v>
+        <v>0.03213594501088736</v>
       </c>
       <c r="CF5">
-        <v>0.03614568022701191</v>
+        <v>0.03341517443584972</v>
       </c>
       <c r="CG5">
-        <v>0.03732591053616349</v>
+        <v>0.0345625565499352</v>
       </c>
       <c r="CH5">
-        <v>0.03781160613992961</v>
+        <v>0.03501007239305226</v>
       </c>
       <c r="CI5">
-        <v>0.03785319506625209</v>
+        <v>0.03501007239305226</v>
       </c>
       <c r="CJ5">
-        <v>0.03788748292651797</v>
+        <v>0.03501007239305226</v>
       </c>
       <c r="CK5">
-        <v>0.03816506112867032</v>
+        <v>0.03524787323033644</v>
       </c>
       <c r="CL5">
-        <v>0.03853244913151908</v>
+        <v>0.03557617328936206</v>
       </c>
       <c r="CM5">
-        <v>0.03899087145507371</v>
+        <v>0.03599620649011341</v>
       </c>
       <c r="CN5">
-        <v>0.03969699476054904</v>
+        <v>0.03666584213864429</v>
       </c>
       <c r="CO5">
-        <v>0.1156542353495263</v>
+        <v>0.1131642570130901</v>
       </c>
       <c r="CP5">
-        <v>0.1171817585613708</v>
+        <v>0.1146615980087935</v>
       </c>
       <c r="CQ5">
-        <v>0.2298589694350771</v>
+        <v>0.2281618624293766</v>
       </c>
       <c r="CR5">
-        <v>0.2379911894981349</v>
+        <v>0.2363146009455968</v>
       </c>
       <c r="CS5">
-        <v>0.2557468596358135</v>
+        <v>0.2541646635341073</v>
       </c>
       <c r="CT5">
-        <v>0.2706361807512663</v>
+        <v>0.2691263736962753</v>
       </c>
       <c r="CU5">
-        <v>0.2706378071967789</v>
+        <v>0.2691263736962753</v>
       </c>
       <c r="CV5">
-        <v>0.2755182555346222</v>
+        <v>0.2740023784024792</v>
       </c>
       <c r="CW5">
-        <v>0.281862128383813</v>
+        <v>0.2803530415349053</v>
       </c>
       <c r="CX5">
-        <v>0.2899898894468361</v>
+        <v>0.2885012868217703</v>
       </c>
       <c r="CY5">
-        <v>0.2902173296285997</v>
+        <v>0.2886885647563239</v>
       </c>
       <c r="CZ5">
-        <v>0.3244197828938077</v>
+        <v>0.3231116634906692</v>
       </c>
       <c r="DA5">
-        <v>0.3573930231494843</v>
+        <v>0.3562961132150573</v>
       </c>
       <c r="DB5">
-        <v>0.3774615053050966</v>
+        <v>0.3764767420227804</v>
       </c>
       <c r="DC5">
-        <v>0.3839908703557257</v>
+        <v>0.3830143212794948</v>
       </c>
       <c r="DD5">
-        <v>0.4229907806581335</v>
+        <v>0.4222717045221897</v>
       </c>
       <c r="DE5">
-        <v>0.4238165549945366</v>
+        <v>0.4230619096976047</v>
       </c>
       <c r="DF5">
-        <v>0.4315572420545584</v>
+        <v>0.4308201096246499</v>
       </c>
       <c r="DG5">
-        <v>0.4422009371370903</v>
+        <v>0.4415036023895497</v>
       </c>
       <c r="DH5">
-        <v>0.4424094019087068</v>
+        <v>0.441671759250042</v>
       </c>
       <c r="DI5">
-        <v>0.451136335976376</v>
+        <v>0.4504237770671708</v>
       </c>
       <c r="DJ5">
-        <v>0.4576303068267307</v>
+        <v>0.4569256904215654</v>
       </c>
       <c r="DK5">
-        <v>0.4662460508935377</v>
+        <v>0.4655656646926065</v>
       </c>
       <c r="DL5">
-        <v>0.4679832706070082</v>
+        <v>0.4672743119160478</v>
       </c>
       <c r="DM5">
-        <v>0.4682608488091606</v>
+        <v>0.467512112753332</v>
       </c>
       <c r="DN5">
-        <v>0.4711494775315592</v>
+        <v>0.4703810077270865</v>
       </c>
       <c r="DO5">
-        <v>0.4840903006319031</v>
+        <v>0.4833792623135297</v>
       </c>
       <c r="DP5">
-        <v>0.4861174660476219</v>
+        <v>0.4853800809948439</v>
       </c>
       <c r="DQ5">
-        <v>0.4861189823168336</v>
+        <v>0.4853800809948439</v>
       </c>
       <c r="DR5">
-        <v>0.4876797891289362</v>
+        <v>0.4869109610909211</v>
       </c>
       <c r="DS5">
-        <v>0.4910962268554275</v>
+        <v>0.4903117167717267</v>
       </c>
       <c r="DT5">
-        <v>0.491397557877764</v>
+        <v>0.4905734527666905</v>
       </c>
       <c r="DU5">
-        <v>0.4922692383245231</v>
+        <v>0.4914099164487292</v>
       </c>
       <c r="DV5">
-        <v>0.503839162414237</v>
+        <v>0.5030267483776661</v>
       </c>
       <c r="DW5">
-        <v>0.5051107503240969</v>
+        <v>0.5042661893951248</v>
       </c>
       <c r="DX5">
-        <v>0.5092775893564069</v>
+        <v>0.5084231068048705</v>
       </c>
       <c r="DY5">
-        <v>0.5154314579041244</v>
+        <v>0.5145823070760329</v>
       </c>
       <c r="DZ5">
-        <v>0.5174278202196043</v>
+        <v>0.5165520861984435</v>
       </c>
       <c r="EA5">
-        <v>0.5255951727829344</v>
+        <v>0.5247402269080528</v>
       </c>
       <c r="EB5">
-        <v>0.5365556808679229</v>
+        <v>0.5357429646767001</v>
       </c>
       <c r="EC5">
-        <v>0.5376246306762117</v>
+        <v>0.5367782120499779</v>
       </c>
       <c r="ED5">
-        <v>0.5442055947272409</v>
+        <v>0.5433677864045841</v>
       </c>
       <c r="EE5">
-        <v>0.5489305747638787</v>
+        <v>0.5480871293639021</v>
       </c>
       <c r="EF5">
-        <v>0.5489732035242093</v>
+        <v>0.5480881771801509</v>
       </c>
       <c r="EG5">
-        <v>0.5502043030337553</v>
+        <v>0.5492868189898443</v>
       </c>
       <c r="EH5">
-        <v>0.5510943276406567</v>
+        <v>0.5501417676501761</v>
       </c>
       <c r="EI5">
-        <v>0.5615312037215849</v>
+        <v>0.5606168537763645</v>
       </c>
       <c r="EJ5">
-        <v>0.5835173508920669</v>
+        <v>0.5827298684713825</v>
       </c>
       <c r="EK5">
-        <v>0.6188294111658789</v>
+        <v>0.6182710920644719</v>
       </c>
       <c r="EL5">
-        <v>0.6345709382879396</v>
+        <v>0.6340915501557455</v>
       </c>
       <c r="EM5">
-        <v>0.6348936985904423</v>
+        <v>0.6343748799318163</v>
       </c>
       <c r="EN5">
-        <v>0.6499988837075689</v>
+        <v>0.6495541111663171</v>
       </c>
       <c r="EO5">
-        <v>0.6673451388420728</v>
+        <v>0.6669916158951144</v>
       </c>
       <c r="EP5">
-        <v>0.6907700890237114</v>
+        <v>0.6905544785102841</v>
       </c>
       <c r="EQ5">
-        <v>0.7058949751409908</v>
+        <v>0.705753561978812</v>
       </c>
       <c r="ER5">
-        <v>0.7088716199640719</v>
+        <v>0.7087111487050336</v>
       </c>
       <c r="ES5">
-        <v>0.7173838980300766</v>
+        <v>0.7172468627229986</v>
       </c>
       <c r="ET5">
-        <v>0.7204245808536542</v>
+        <v>0.7202689790346538</v>
       </c>
       <c r="EU5">
-        <v>0.7210993309888863</v>
+        <v>0.7209070006781589</v>
       </c>
       <c r="EV5">
-        <v>0.725882712725977</v>
+        <v>0.7256851936560538</v>
       </c>
       <c r="EW5">
-        <v>0.7262434789787744</v>
+        <v>0.7260068211334506</v>
       </c>
       <c r="EX5">
-        <v>0.726247291124004</v>
+        <v>0.7260068211334506</v>
       </c>
       <c r="EY5">
-        <v>0.7280665596381107</v>
+        <v>0.7277981470015924</v>
       </c>
       <c r="EZ5">
-        <v>0.7359607476993227</v>
+        <v>0.7357110262736148</v>
       </c>
       <c r="FA5">
-        <v>0.74800827379274</v>
+        <v>0.7478091264973498</v>
       </c>
       <c r="FB5">
-        <v>0.7508209292145496</v>
+        <v>0.7506014649647639</v>
       </c>
       <c r="FC5">
-        <v>0.7540513061395981</v>
+        <v>0.7538147315564435</v>
       </c>
       <c r="FD5">
-        <v>0.7683078227501441</v>
+        <v>0.768138779517332</v>
       </c>
       <c r="FE5">
-        <v>0.7847525578776576</v>
+        <v>0.7846678437598534</v>
       </c>
       <c r="FF5">
-        <v>0.8018764210104372</v>
+        <v>0.8018812493043577</v>
       </c>
       <c r="FG5">
-        <v>0.8052223100363815</v>
+        <v>0.8052109147205723</v>
       </c>
       <c r="FH5">
-        <v>0.8055676609190593</v>
+        <v>0.8055170084924286</v>
       </c>
       <c r="FI5">
-        <v>0.8055679194248613</v>
+        <v>0.8055170084924286</v>
       </c>
       <c r="FJ5">
-        <v>0.8182157335229332</v>
+        <v>0.8182200048056851</v>
       </c>
       <c r="FK5">
-        <v>0.8343183286477938</v>
+        <v>0.8344043026226426</v>
       </c>
       <c r="FL5">
-        <v>0.8437471017209051</v>
+        <v>0.8438635470819394</v>
       </c>
       <c r="FM5">
-        <v>0.8454719396342796</v>
+        <v>0.8455597174569326</v>
       </c>
       <c r="FN5">
-        <v>0.8459307738378374</v>
+        <v>0.8459801656994661</v>
       </c>
       <c r="FO5">
-        <v>0.8459343588383652</v>
+        <v>0.8459801656994661</v>
       </c>
       <c r="FP5">
-        <v>0.8482768041565287</v>
+        <v>0.8482986845157402</v>
       </c>
       <c r="FQ5">
-        <v>0.8484246829076754</v>
+        <v>0.8484057902698008</v>
       </c>
       <c r="FR5">
-        <v>0.8487986113405749</v>
+        <v>0.8487406809662051</v>
       </c>
       <c r="FS5">
-        <v>0.8488116589876761</v>
+        <v>0.8487406809662051</v>
       </c>
       <c r="FT5">
-        <v>0.8539073867271887</v>
+        <v>0.8538336176570807</v>
       </c>
       <c r="FU5">
-        <v>0.8550180201358006</v>
+        <v>0.854910868613034</v>
       </c>
       <c r="FV5">
-        <v>0.8556109723403984</v>
+        <v>0.8554664644076333</v>
       </c>
       <c r="FW5">
-        <v>0.8556560260707478</v>
+        <v>0.8554699558090783</v>
       </c>
       <c r="FX5">
-        <v>0.8557796570517064</v>
+        <v>0.8555526276559933</v>
       </c>
       <c r="FY5">
-        <v>0.8567167278589726</v>
+        <v>0.8564549836648092</v>
       </c>
       <c r="FZ5">
-        <v>0.8567687961293763</v>
+        <v>0.8564655434531214</v>
       </c>
       <c r="GA5">
-        <v>0.8568587421900737</v>
+        <v>0.8565142717989439</v>
       </c>
       <c r="GB5">
-        <v>0.8574489994946506</v>
+        <v>0.8570671520062391</v>
       </c>
       <c r="GC5">
-        <v>0.8682876195786939</v>
+        <v>0.8679470661059815</v>
       </c>
       <c r="GD5">
-        <v>0.8938253527767152</v>
+        <v>0.8936389304248463</v>
       </c>
       <c r="GE5">
-        <v>0.9074254038821709</v>
+        <v>0.9073014735516287</v>
       </c>
       <c r="GF5">
-        <v>0.9132096705270224</v>
+        <v>0.9130882346869268</v>
       </c>
       <c r="GG5">
-        <v>0.9178690420631515</v>
+        <v>0.9177414655049237</v>
       </c>
       <c r="GH5">
-        <v>0.9198725709786869</v>
+        <v>0.9197184662414848</v>
       </c>
       <c r="GI5">
-        <v>0.9202653952817329</v>
+        <v>0.9200723978613644</v>
       </c>
       <c r="GJ5">
-        <v>0.9218269616938414</v>
+        <v>0.921604043388484</v>
       </c>
       <c r="GK5">
-        <v>0.9395242348310672</v>
+        <v>0.9393952606944971</v>
       </c>
       <c r="GL5">
-        <v>0.963106554013926</v>
+        <v>0.9631167003472086</v>
       </c>
       <c r="GM5">
-        <v>0.9777728021276491</v>
+        <v>0.9778536250974114</v>
       </c>
       <c r="GN5">
-        <v>0.9941818582548859</v>
+        <v>0.994346736451356</v>
       </c>
       <c r="GO5">
-        <v>0.9978445538832867</v>
+        <v>0.9979956404221888</v>
       </c>
       <c r="GP5">
-        <v>0.998393213247541</v>
+        <v>0.9985066033643742</v>
       </c>
       <c r="GQ5">
-        <v>0.9995624589566074</v>
+        <v>0.9996429165555678</v>
       </c>
       <c r="GR5">
-        <v>0.9996640120173949</v>
+        <v>0.9997033410021137</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001779586753981877</v>
+        <v>0.001742076450455632</v>
       </c>
       <c r="C6">
-        <v>0.00314502081867328</v>
+        <v>0.003066242502941056</v>
       </c>
       <c r="D6">
-        <v>0.003587143507240482</v>
+        <v>0.0034587197492822</v>
       </c>
       <c r="E6">
-        <v>0.003845629840556315</v>
+        <v>0.003665894462790887</v>
       </c>
       <c r="F6">
-        <v>0.003854523656326331</v>
+        <v>0.003665894462790887</v>
       </c>
       <c r="G6">
-        <v>0.00386058156216968</v>
+        <v>0.003665894462790887</v>
       </c>
       <c r="H6">
-        <v>0.003962316409538931</v>
+        <v>0.003714895445768967</v>
       </c>
       <c r="I6">
-        <v>0.004042838147456729</v>
+        <v>0.003742490847563379</v>
       </c>
       <c r="J6">
-        <v>0.004293766140968012</v>
+        <v>0.003942038642601188</v>
       </c>
       <c r="K6">
-        <v>0.00462748401233844</v>
+        <v>0.004225127488315971</v>
       </c>
       <c r="L6">
-        <v>0.004680658476963408</v>
+        <v>0.004225127488315971</v>
       </c>
       <c r="M6">
-        <v>0.004683440660891464</v>
+        <v>0.004225127488315971</v>
       </c>
       <c r="N6">
-        <v>0.004693276240137127</v>
+        <v>0.004225127488315971</v>
       </c>
       <c r="O6">
-        <v>0.004751440778633057</v>
+        <v>0.004230162838348075</v>
       </c>
       <c r="P6">
-        <v>0.004979382332738744</v>
+        <v>0.00440651563239152</v>
       </c>
       <c r="Q6">
-        <v>0.005356035942998902</v>
+        <v>0.00473292978345997</v>
       </c>
       <c r="R6">
-        <v>0.006486058213777791</v>
+        <v>0.00581954809322904</v>
       </c>
       <c r="S6">
-        <v>0.00771777548192696</v>
+        <v>0.007008784103961017</v>
       </c>
       <c r="T6">
-        <v>0.008426937063588835</v>
+        <v>0.007670723152609683</v>
       </c>
       <c r="U6">
-        <v>0.009137991705201756</v>
+        <v>0.008334572437405503</v>
       </c>
       <c r="V6">
-        <v>0.009985074613297141</v>
+        <v>0.009135684206427307</v>
       </c>
       <c r="W6">
-        <v>0.01041791055210449</v>
+        <v>0.009518790442055856</v>
       </c>
       <c r="X6">
-        <v>0.01075520684338238</v>
+        <v>0.009805490175557451</v>
       </c>
       <c r="Y6">
-        <v>0.01076930554001781</v>
+        <v>0.009805490175557451</v>
       </c>
       <c r="Z6">
-        <v>0.01090036206662883</v>
+        <v>0.009884078880547134</v>
       </c>
       <c r="AA6">
-        <v>0.01090641997247218</v>
+        <v>0.009884078880547134</v>
       </c>
       <c r="AB6">
-        <v>0.01090913346330201</v>
+        <v>0.009884078880547134</v>
       </c>
       <c r="AC6">
-        <v>0.01091161795313777</v>
+        <v>0.009884078880547134</v>
       </c>
       <c r="AD6">
-        <v>0.01091490503265276</v>
+        <v>0.009884078880547134</v>
       </c>
       <c r="AE6">
-        <v>0.01094484400787858</v>
+        <v>0.009884078880547134</v>
       </c>
       <c r="AF6">
-        <v>0.01100355160936046</v>
+        <v>0.009889662220908537</v>
       </c>
       <c r="AG6">
-        <v>0.01103220889361942</v>
+        <v>0.009889662220908537</v>
       </c>
       <c r="AH6">
-        <v>0.01106998888264247</v>
+        <v>0.009889662220908537</v>
       </c>
       <c r="AI6">
-        <v>0.01107277106657053</v>
+        <v>0.009889662220908537</v>
       </c>
       <c r="AJ6">
-        <v>0.01121687865284406</v>
+        <v>0.009981420401018227</v>
       </c>
       <c r="AK6">
-        <v>0.01154200076443677</v>
+        <v>0.01025583549552372</v>
       </c>
       <c r="AL6">
-        <v>0.01206304639096311</v>
+        <v>0.01072795176695</v>
       </c>
       <c r="AM6">
-        <v>0.01261702897663774</v>
+        <v>0.01123330384261354</v>
       </c>
       <c r="AN6">
-        <v>0.01347986405432579</v>
+        <v>0.01205031070451677</v>
       </c>
       <c r="AO6">
-        <v>0.01419455416584471</v>
+        <v>0.01271782844472652</v>
       </c>
       <c r="AP6">
-        <v>0.01470270761270443</v>
+        <v>0.01317693556258577</v>
       </c>
       <c r="AQ6">
-        <v>0.01476191523617338</v>
+        <v>0.01318302346175607</v>
       </c>
       <c r="AR6">
-        <v>0.01477131026693044</v>
+        <v>0.01318302346175607</v>
       </c>
       <c r="AS6">
-        <v>0.01478207663965203</v>
+        <v>0.01318302346175607</v>
       </c>
       <c r="AT6">
-        <v>0.01491895718611246</v>
+        <v>0.01326748902935219</v>
       </c>
       <c r="AU6">
-        <v>0.01537525800431303</v>
+        <v>0.0136742730469658</v>
       </c>
       <c r="AV6">
-        <v>0.0157997591633359</v>
+        <v>0.01404896887931364</v>
       </c>
       <c r="AW6">
-        <v>0.01618102259347685</v>
+        <v>0.01438003467628654</v>
       </c>
       <c r="AX6">
-        <v>0.0166138585322842</v>
+        <v>0.01476314091191509</v>
       </c>
       <c r="AY6">
-        <v>0.01696610369317553</v>
+        <v>0.01506492514978163</v>
       </c>
       <c r="AZ6">
-        <v>0.01697508600394326</v>
+        <v>0.01506492514978163</v>
       </c>
       <c r="BA6">
-        <v>0.0169764844044071</v>
+        <v>0.01506492514978163</v>
       </c>
       <c r="BB6">
-        <v>0.01697780005757308</v>
+        <v>0.01506492514978163</v>
       </c>
       <c r="BC6">
-        <v>0.01697834112425909</v>
+        <v>0.01506492514978163</v>
       </c>
       <c r="BD6">
-        <v>0.01699765006375978</v>
+        <v>0.01506492514978163</v>
       </c>
       <c r="BE6">
-        <v>0.01709896735613983</v>
+        <v>0.01511350478919193</v>
       </c>
       <c r="BF6">
-        <v>0.01724059829247741</v>
+        <v>0.01520276384811484</v>
       </c>
       <c r="BG6">
-        <v>0.01763444825229289</v>
+        <v>0.01554653037542552</v>
       </c>
       <c r="BH6">
-        <v>0.0181891277779495</v>
+        <v>0.01605258571457801</v>
       </c>
       <c r="BI6">
-        <v>0.01866795702556751</v>
+        <v>0.01648210256756114</v>
       </c>
       <c r="BJ6">
-        <v>0.01895709323809077</v>
+        <v>0.01672020525413034</v>
       </c>
       <c r="BK6">
-        <v>0.01907169068512741</v>
+        <v>0.01678218554228965</v>
       </c>
       <c r="BL6">
-        <v>0.01909192084960428</v>
+        <v>0.01678218554228965</v>
       </c>
       <c r="BM6">
-        <v>0.01913665329844755</v>
+        <v>0.01678218554228965</v>
       </c>
       <c r="BN6">
-        <v>0.01930872106399807</v>
+        <v>0.01690215759122386</v>
       </c>
       <c r="BO6">
-        <v>0.01980414380118699</v>
+        <v>0.01734841849056867</v>
       </c>
       <c r="BP6">
-        <v>0.02036203481676056</v>
+        <v>0.01785771445827188</v>
       </c>
       <c r="BQ6">
-        <v>0.02070929778778072</v>
+        <v>0.01815447130163957</v>
       </c>
       <c r="BR6">
-        <v>0.02080468590531409</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BS6">
-        <v>0.02080614802237628</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BT6">
-        <v>0.02080702572105359</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BU6">
-        <v>0.0208443703200879</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BV6">
-        <v>0.02084652154263227</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BW6">
-        <v>0.02084843650938275</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BX6">
-        <v>0.02084926500126133</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BY6">
-        <v>0.02084927425601209</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="BZ6">
-        <v>0.02089400670485536</v>
+        <v>0.01819706796934913</v>
       </c>
       <c r="CA6">
-        <v>0.02100904820688051</v>
+        <v>0.01825949634151652</v>
       </c>
       <c r="CB6">
-        <v>0.02123404977106222</v>
+        <v>0.01843288247038809</v>
       </c>
       <c r="CC6">
-        <v>0.02145657174530805</v>
+        <v>0.01860376651139761</v>
       </c>
       <c r="CD6">
-        <v>0.02147055951594634</v>
+        <v>0.01860376651139761</v>
       </c>
       <c r="CE6">
-        <v>0.02147628692319824</v>
+        <v>0.01860376651139761</v>
       </c>
       <c r="CF6">
-        <v>0.02147640380906022</v>
+        <v>0.01860376651139761</v>
       </c>
       <c r="CG6">
-        <v>0.02156977896664564</v>
+        <v>0.01864433195508111</v>
       </c>
       <c r="CH6">
-        <v>0.02195894341658229</v>
+        <v>0.01898337045973543</v>
       </c>
       <c r="CI6">
-        <v>0.02276249109580344</v>
+        <v>0.01974055199409977</v>
       </c>
       <c r="CJ6">
-        <v>0.02364508842298046</v>
+        <v>0.02057750041321677</v>
       </c>
       <c r="CK6">
-        <v>0.02449700270095092</v>
+        <v>0.0213834873883146</v>
       </c>
       <c r="CL6">
-        <v>0.02507080653611299</v>
+        <v>0.02190884055651179</v>
       </c>
       <c r="CM6">
-        <v>0.02584970931597144</v>
+        <v>0.02264115358231169</v>
       </c>
       <c r="CN6">
-        <v>0.1489019961339769</v>
+        <v>0.1467562669759889</v>
       </c>
       <c r="CO6">
-        <v>0.1705694925736797</v>
+        <v>0.1685667009826738</v>
       </c>
       <c r="CP6">
-        <v>0.2284836140760853</v>
+        <v>0.2269526345496352</v>
       </c>
       <c r="CQ6">
-        <v>0.2285480810844183</v>
+        <v>0.2269640295533552</v>
       </c>
       <c r="CR6">
-        <v>0.2485211465679372</v>
+        <v>0.2470646586172182</v>
       </c>
       <c r="CS6">
-        <v>0.2664192761051116</v>
+        <v>0.2650715253332256</v>
       </c>
       <c r="CT6">
-        <v>0.2798745677571728</v>
+        <v>0.2785952432089691</v>
       </c>
       <c r="CU6">
-        <v>0.2817156128095654</v>
+        <v>0.2803993355840139</v>
       </c>
       <c r="CV6">
-        <v>0.2825353516283679</v>
+        <v>0.2811728551641304</v>
       </c>
       <c r="CW6">
-        <v>0.2926209508675656</v>
+        <v>0.2912963065832935</v>
       </c>
       <c r="CX6">
-        <v>0.2928832584507826</v>
+        <v>0.2915073372178386</v>
       </c>
       <c r="CY6">
-        <v>0.35757099677803</v>
+        <v>0.3567283462923792</v>
       </c>
       <c r="CZ6">
-        <v>0.3774596482637317</v>
+        <v>0.3767437954495694</v>
       </c>
       <c r="DA6">
-        <v>0.4374318917129166</v>
+        <v>0.4372065248072892</v>
       </c>
       <c r="DB6">
-        <v>0.4374320085987786</v>
+        <v>0.4372065248072892</v>
       </c>
       <c r="DC6">
-        <v>0.5019151269313173</v>
+        <v>0.502221057319845</v>
       </c>
       <c r="DD6">
-        <v>0.5172334165352035</v>
+        <v>0.5176246765836459</v>
       </c>
       <c r="DE6">
-        <v>0.5253609363250349</v>
+        <v>0.5257722824195197</v>
       </c>
       <c r="DF6">
-        <v>0.5309921931794169</v>
+        <v>0.5314009761155758</v>
       </c>
       <c r="DG6">
-        <v>0.5341301491982728</v>
+        <v>0.5345137466475949</v>
       </c>
       <c r="DH6">
-        <v>0.537735326505047</v>
+        <v>0.5380979776805914</v>
       </c>
       <c r="DI6">
-        <v>0.5424316313836057</v>
+        <v>0.5427832363527951</v>
       </c>
       <c r="DJ6">
-        <v>0.5427004994066531</v>
+        <v>0.5430008869516464</v>
       </c>
       <c r="DK6">
-        <v>0.5437538566794144</v>
+        <v>0.5440101446631135</v>
       </c>
       <c r="DL6">
-        <v>0.5465689456066194</v>
+        <v>0.5467971186513638</v>
       </c>
       <c r="DM6">
-        <v>0.5478920550724052</v>
+        <v>0.5480785760835024</v>
       </c>
       <c r="DN6">
-        <v>0.5547950322939019</v>
+        <v>0.554990528776713</v>
       </c>
       <c r="DO6">
-        <v>0.5555105140354004</v>
+        <v>0.5556588453295547</v>
       </c>
       <c r="DP6">
-        <v>0.5561946754577087</v>
+        <v>0.5562955573862872</v>
       </c>
       <c r="DQ6">
-        <v>0.5586255667948486</v>
+        <v>0.5586948478657371</v>
       </c>
       <c r="DR6">
-        <v>0.5586801754054366</v>
+        <v>0.5586962950240573</v>
       </c>
       <c r="DS6">
-        <v>0.5599987664713393</v>
+        <v>0.559973193059765</v>
       </c>
       <c r="DT6">
-        <v>0.5623003676118224</v>
+        <v>0.5622420202609707</v>
       </c>
       <c r="DU6">
-        <v>0.5764511352458994</v>
+        <v>0.5764675243424754</v>
       </c>
       <c r="DV6">
-        <v>0.5767425913883627</v>
+        <v>0.5767079680082765</v>
       </c>
       <c r="DW6">
-        <v>0.5780340222549677</v>
+        <v>0.5779574594135531</v>
       </c>
       <c r="DX6">
-        <v>0.5788907816328128</v>
+        <v>0.5787683354493023</v>
       </c>
       <c r="DY6">
-        <v>0.5825832133373307</v>
+        <v>0.5824406125605416</v>
       </c>
       <c r="DZ6">
-        <v>0.5963402719815885</v>
+        <v>0.5962688354342346</v>
       </c>
       <c r="EA6">
-        <v>0.5976659667473074</v>
+        <v>0.5975529016233652</v>
       </c>
       <c r="EB6">
-        <v>0.6020935966328139</v>
+        <v>0.6019670475485684</v>
       </c>
       <c r="EC6">
-        <v>0.6073819434960632</v>
+        <v>0.6072497199472432</v>
       </c>
       <c r="ED6">
-        <v>0.6076574529889388</v>
+        <v>0.6074740722756033</v>
       </c>
       <c r="EE6">
-        <v>0.6078962463327638</v>
+        <v>0.6076613753203094</v>
       </c>
       <c r="EF6">
-        <v>0.6096390634876966</v>
+        <v>0.6093663485521473</v>
       </c>
       <c r="EG6">
-        <v>0.6120486939253862</v>
+        <v>0.6117441852268044</v>
       </c>
       <c r="EH6">
-        <v>0.6161683103188575</v>
+        <v>0.6158475229781983</v>
       </c>
       <c r="EI6">
-        <v>0.6291741879825401</v>
+        <v>0.6289177492224896</v>
       </c>
       <c r="EJ6">
-        <v>0.6594673971991916</v>
+        <v>0.6594321592085821</v>
       </c>
       <c r="EK6">
-        <v>0.6658716260335854</v>
+        <v>0.665840838248546</v>
       </c>
       <c r="EL6">
-        <v>0.6697255081339283</v>
+        <v>0.6696760306345534</v>
       </c>
       <c r="EM6">
-        <v>0.6955869904651792</v>
+        <v>0.6957185035929135</v>
       </c>
       <c r="EN6">
-        <v>0.7210501628067301</v>
+        <v>0.7213590525975835</v>
       </c>
       <c r="EO6">
-        <v>0.7413424252819949</v>
+        <v>0.7417817748055957</v>
       </c>
       <c r="EP6">
-        <v>0.7493317710753994</v>
+        <v>0.7497899529585663</v>
       </c>
       <c r="EQ6">
-        <v>0.7520042256062927</v>
+        <v>0.7524329983937292</v>
       </c>
       <c r="ER6">
-        <v>0.7615392803597268</v>
+        <v>0.762000910102309</v>
       </c>
       <c r="ES6">
-        <v>0.7643292968875801</v>
+        <v>0.7647625842031939</v>
       </c>
       <c r="ET6">
-        <v>0.766068162042615</v>
+        <v>0.766463569577672</v>
       </c>
       <c r="EU6">
-        <v>0.7751706278072353</v>
+        <v>0.775594967311702</v>
       </c>
       <c r="EV6">
-        <v>0.7751873987058017</v>
+        <v>0.775594967311702</v>
       </c>
       <c r="EW6">
-        <v>0.7751990974139992</v>
+        <v>0.775594967311702</v>
       </c>
       <c r="EX6">
-        <v>0.7814077559534502</v>
+        <v>0.7818063015995873</v>
       </c>
       <c r="EY6">
-        <v>0.7977047155320292</v>
+        <v>0.7981974705502103</v>
       </c>
       <c r="EZ6">
-        <v>0.8163639730495216</v>
+        <v>0.8169723711469247</v>
       </c>
       <c r="FA6">
-        <v>0.8174109992224466</v>
+        <v>0.8179752403149376</v>
       </c>
       <c r="FB6">
-        <v>0.8225459200896633</v>
+        <v>0.8231030946459794</v>
       </c>
       <c r="FC6">
-        <v>0.831362051861688</v>
+        <v>0.8319455604090421</v>
       </c>
       <c r="FD6">
-        <v>0.8392165076585806</v>
+        <v>0.8398176246755592</v>
       </c>
       <c r="FE6">
-        <v>0.8473141664491842</v>
+        <v>0.8479350985760532</v>
       </c>
       <c r="FF6">
-        <v>0.8474471957657442</v>
+        <v>0.8480156779705977</v>
       </c>
       <c r="FG6">
-        <v>0.8485503149372188</v>
+        <v>0.8490751490826601</v>
       </c>
       <c r="FH6">
-        <v>0.849470412513426</v>
+        <v>0.8499499379997419</v>
       </c>
       <c r="FI6">
-        <v>0.864785038617407</v>
+        <v>0.8653498605238066</v>
       </c>
       <c r="FJ6">
-        <v>0.8772062102962094</v>
+        <v>0.8778300756027582</v>
       </c>
       <c r="FK6">
-        <v>0.8793679934403081</v>
+        <v>0.8799578162046893</v>
       </c>
       <c r="FL6">
-        <v>0.8793690514937808</v>
+        <v>0.8799578162046893</v>
       </c>
       <c r="FM6">
-        <v>0.8798961958801493</v>
+        <v>0.8804360865714981</v>
       </c>
       <c r="FN6">
-        <v>0.8799758698880891</v>
+        <v>0.8804628265516529</v>
       </c>
       <c r="FO6">
-        <v>0.8802967361797919</v>
+        <v>0.8807329472121733</v>
       </c>
       <c r="FP6">
-        <v>0.8811002838590131</v>
+        <v>0.8814901287465376</v>
       </c>
       <c r="FQ6">
-        <v>0.8817447768423472</v>
+        <v>0.8820868124428436</v>
       </c>
       <c r="FR6">
-        <v>0.8839344502857247</v>
+        <v>0.8842426963995627</v>
       </c>
       <c r="FS6">
-        <v>0.889639247438205</v>
+        <v>0.8899455976428347</v>
       </c>
       <c r="FT6">
-        <v>0.8896408263337642</v>
+        <v>0.8899455976428347</v>
       </c>
       <c r="FU6">
-        <v>0.8896589823832947</v>
+        <v>0.8899455976428347</v>
       </c>
       <c r="FV6">
-        <v>0.8897553559708026</v>
+        <v>0.8899891887219289</v>
       </c>
       <c r="FW6">
-        <v>0.8900111841041871</v>
+        <v>0.8901936811170079</v>
       </c>
       <c r="FX6">
-        <v>0.8934822025144304</v>
+        <v>0.8936425359969811</v>
       </c>
       <c r="FY6">
-        <v>0.8936132590410415</v>
+        <v>0.8937211247019707</v>
       </c>
       <c r="FZ6">
-        <v>0.8937597213972541</v>
+        <v>0.8938152590174233</v>
       </c>
       <c r="GA6">
-        <v>0.8943392116522692</v>
+        <v>0.8943463501997521</v>
       </c>
       <c r="GB6">
-        <v>0.9032758184211785</v>
+        <v>0.9033103840588225</v>
       </c>
       <c r="GC6">
-        <v>0.9152426641117293</v>
+        <v>0.915332150938672</v>
       </c>
       <c r="GD6">
-        <v>0.9207752879686618</v>
+        <v>0.9208613167159605</v>
       </c>
       <c r="GE6">
-        <v>0.9227605384173254</v>
+        <v>0.9228109228981191</v>
       </c>
       <c r="GF6">
-        <v>0.9256096529436505</v>
+        <v>0.9256322312080754</v>
       </c>
       <c r="GG6">
-        <v>0.9266271976173379</v>
+        <v>0.9266053513839949</v>
       </c>
       <c r="GH6">
-        <v>0.9267609790938784</v>
+        <v>0.9266866897630516</v>
       </c>
       <c r="GI6">
-        <v>0.9332355169264541</v>
+        <v>0.9331663157319402</v>
       </c>
       <c r="GJ6">
-        <v>0.9518624414447827</v>
+        <v>0.9519085899642784</v>
       </c>
       <c r="GK6">
-        <v>0.970938040951509</v>
+        <v>0.9711036101229604</v>
       </c>
       <c r="GL6">
-        <v>0.9851649685836166</v>
+        <v>0.9854059652207917</v>
       </c>
       <c r="GM6">
-        <v>0.9972324052715662</v>
+        <v>0.9975292357847709</v>
       </c>
       <c r="GN6">
-        <v>0.9976745279601335</v>
+        <v>0.9979217130311121</v>
       </c>
       <c r="GO6">
-        <v>0.9978554828154541</v>
+        <v>0.9980506528045564</v>
       </c>
       <c r="GP6">
-        <v>0.9979186257538213</v>
+        <v>0.9980607117246999</v>
       </c>
       <c r="GQ6">
-        <v>0.998059131670188</v>
+        <v>0.9981488355560705</v>
       </c>
       <c r="GR6">
-        <v>0.9981355113482129</v>
+        <v>0.9981722513160491</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>114</v>
       </c>
       <c r="E2">
-        <v>0.03472607290402394</v>
+        <v>0.03184445667389065</v>
       </c>
       <c r="F2">
-        <v>0.501432871800642</v>
+        <v>0.5008956109687743</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.01458152946316227</v>
+        <v>0.01376510916018611</v>
       </c>
       <c r="F3">
-        <v>0.5018459544300797</v>
+        <v>0.5014359730575613</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>131</v>
       </c>
       <c r="E4">
-        <v>0.02245046745015027</v>
+        <v>0.07573501457617703</v>
       </c>
       <c r="F4">
-        <v>0.5049234904359212</v>
+        <v>0.5049138054886173</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>125</v>
       </c>
       <c r="E5">
-        <v>0.03816506112867032</v>
+        <v>0.03599620649011341</v>
       </c>
       <c r="F5">
-        <v>0.503839162414237</v>
+        <v>0.5030267483776661</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.02364508842298046</v>
+        <v>0.02190884055651179</v>
       </c>
       <c r="F6">
-        <v>0.5019151269313173</v>
+        <v>0.502221057319845</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>143</v>
       </c>
       <c r="E2">
-        <v>0.03472607290402394</v>
+        <v>0.03184445667389065</v>
       </c>
       <c r="F2">
-        <v>0.7077617644279814</v>
+        <v>0.7076456136696776</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01458152946316227</v>
+        <v>0.01376510916018611</v>
       </c>
       <c r="F3">
-        <v>0.7003922368948649</v>
+        <v>0.7003447685414326</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>148</v>
       </c>
       <c r="E4">
-        <v>0.02245046745015027</v>
+        <v>0.07573501457617703</v>
       </c>
       <c r="F4">
-        <v>0.7073247253539946</v>
+        <v>0.7073227075255519</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.03816506112867032</v>
+        <v>0.03599620649011341</v>
       </c>
       <c r="F5">
-        <v>0.7058949751409908</v>
+        <v>0.705753561978812</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.02364508842298046</v>
+        <v>0.02190884055651179</v>
       </c>
       <c r="F6">
-        <v>0.7210501628067301</v>
+        <v>0.7213590525975835</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>159</v>
       </c>
       <c r="E2">
-        <v>0.03472607290402394</v>
+        <v>0.03184445667389065</v>
       </c>
       <c r="F2">
-        <v>0.8178016918276082</v>
+        <v>0.8179424452104836</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.01458152946316227</v>
+        <v>0.01376510916018611</v>
       </c>
       <c r="F3">
-        <v>0.813024745023268</v>
+        <v>0.8131233327284816</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.02245046745015027</v>
+        <v>0.07573501457617703</v>
       </c>
       <c r="F4">
-        <v>0.8136605091645993</v>
+        <v>0.8136600475249103</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.03816506112867032</v>
+        <v>0.03599620649011341</v>
       </c>
       <c r="F5">
-        <v>0.8018764210104372</v>
+        <v>0.8018812493043577</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.02364508842298046</v>
+        <v>0.02190884055651179</v>
       </c>
       <c r="F6">
-        <v>0.8163639730495216</v>
+        <v>0.8169723711469247</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>184</v>
       </c>
       <c r="E2">
-        <v>0.03472607290402394</v>
+        <v>0.03184445667389065</v>
       </c>
       <c r="F2">
-        <v>0.9089102564282022</v>
+        <v>0.9088562642041023</v>
       </c>
       <c r="G2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>184</v>
       </c>
       <c r="E3">
-        <v>0.01458152946316227</v>
+        <v>0.01376510916018611</v>
       </c>
       <c r="F3">
-        <v>0.9130318593623546</v>
+        <v>0.9130224089700563</v>
       </c>
       <c r="G3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>186</v>
       </c>
       <c r="E4">
-        <v>0.02245046745015027</v>
+        <v>0.07573501457617703</v>
       </c>
       <c r="F4">
-        <v>0.902549191936332</v>
+        <v>0.9025474830272393</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>186</v>
       </c>
       <c r="E5">
-        <v>0.03816506112867032</v>
+        <v>0.03599620649011341</v>
       </c>
       <c r="F5">
-        <v>0.9074254038821709</v>
+        <v>0.9073014735516287</v>
       </c>
       <c r="G5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>183</v>
       </c>
       <c r="E6">
-        <v>0.02364508842298046</v>
+        <v>0.02190884055651179</v>
       </c>
       <c r="F6">
-        <v>0.9032758184211785</v>
+        <v>0.9033103840588225</v>
       </c>
       <c r="G6">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>12</v>

--- a/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
@@ -1994,22 +1994,22 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0008012368417176665</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0005845521433753504</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0004785210137274364</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0004042887665363883</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001943757583515467</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.96780961591581E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2021,43 +2021,43 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.279971818321974E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.00031902682789104</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0004834213937755546</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0005184620037547568</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0006358086200335306</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.000619431505832549</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0007141444871009752</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0004834213937755546</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0004127623223053264</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0003327108675056496</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0003175219619251982</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>8.596868533448716E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.378950640976059E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2066,46 +2066,46 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001498216857274615</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001400243334760595</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002067509738197254</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0005474829280582058</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.000899609525702088</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001052504460346109</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0008939577763622619</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0007082693827711569</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0007551934602418801</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0007859988349409317</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0006370998201776815</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.000417209660638087</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001400243334760595</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>5.329041759223611E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -2114,43 +2114,43 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.689550601897218E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001772280275932095</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0003276133164114296</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0005507668100162012</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0005418092092098169</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0004571411631447293</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0004105129531493515</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0004436702953151334</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0003752760593735903</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0003466470674732457</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0003026444002751834</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001667570512912783</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.592978516279316E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -2162,46 +2162,46 @@
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0001315273059237645</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0002448476341896925</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0006254677266134159</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0005825730929408438</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0006648637236091356</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0008430706475733723</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0009999828162519512</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0008112157776538861</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0006004964915295012</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0005779675116356673</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0005221405605235341</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0004523643729249561</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001779664813546423</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>3.094143441642397E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -2210,40 +2210,40 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.449608669265663E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0002719461710407934</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0004258034891319663</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0004937544229383589</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0006289606163330032</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0004413462358794734</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.000619431505832549</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0006614469659497405</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0005682336481384738</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0005103712961634916</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0003210381923571869</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001618054224996883</v>
+        <v>0</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -2255,253 +2255,253 @@
         <v>0</v>
       </c>
       <c r="CK2">
-        <v>4.636050059415558E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0003219853917383012</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.002167142752091169</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1089654662914261</v>
+        <v>0.3373400575156559</v>
       </c>
       <c r="CO2">
-        <v>0.1305752556590278</v>
+        <v>0.4298933984466921</v>
       </c>
       <c r="CP2">
-        <v>0.04949296812645639</v>
+        <v>0.08262316485888231</v>
       </c>
       <c r="CQ2">
-        <v>0.004463067908047582</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01810373079992914</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.001339311202208174</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.002341178161424231</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.002417438368680827</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.005654557032938</v>
+        <v>0</v>
       </c>
       <c r="CW2">
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.005475275861507565</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0652579053489311</v>
+        <v>0.1501433791787697</v>
       </c>
       <c r="CZ2">
-        <v>3.968278730330054E-05</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.02455748012496928</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.003394502065283211</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.006639017870131173</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01179703905363827</v>
+        <v>0</v>
       </c>
       <c r="DE2">
         <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.002756149410438195</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.006735881725773954</v>
+        <v>0</v>
       </c>
       <c r="DH2">
         <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.01297003890629704</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001249892277642913</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.00265817256073839</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0007574277965675351</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.006383191865823795</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.004210612645411955</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0002377748942129528</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>4.21266103036527E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001839840428743312</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.002772713250338389</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>5.384521069833106E-05</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.007497176012678743</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01336611668041836</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004926538031893885</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.004427814559825756</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0003725182559001262</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.005970355359374319</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.01458958943731815</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0005911713980119612</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.004774008240766208</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.00923668086704366</v>
+        <v>0</v>
       </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.002382319519423769</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.001157757361238886</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001743033941849372</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01425460938071163</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.02452085184242771</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.02627436445141937</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.004836293561958669</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.003732370724094077</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0233755528279062</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.02242334754454247</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.01676850593841251</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.00256984293663441</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001530483433163151</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.005760053322512149</v>
+        <v>0</v>
       </c>
       <c r="ES2">
         <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.003069344768528632</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.002055984499725073</v>
+        <v>0</v>
       </c>
       <c r="EV2">
         <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.002392854801152783</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.005864979352607493</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01378049952166742</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0147463074495826</v>
+        <v>0</v>
       </c>
       <c r="FA2">
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.008307997778942528</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01421651411171027</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01923346362616692</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.008962211229248963</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0003199714562649567</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.003397402867168767</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.003005087736875152</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01476870898817848</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.009391907695133509</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.002634972094258834</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0001115252833041951</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0001795417727529357</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.002080169309077962</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0002333657378576716</v>
+        <v>0</v>
       </c>
       <c r="FP2">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.004450713663932231</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.009517223123015239</v>
+        <v>0</v>
       </c>
       <c r="FT2">
         <v>0</v>
@@ -2525,73 +2525,73 @@
         <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0005813346236501962</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.00120578075097539</v>
+        <v>0</v>
       </c>
       <c r="FY2">
         <v>0</v>
       </c>
       <c r="FZ2">
-        <v>3.050991253542914E-05</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.00192180020607361</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.01555977463101698</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.01256181791229819</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002925536337934215</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.002296262262387206</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001157757361238886</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.002369376665895889</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>3.18636083192437E-05</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.008419241731548545</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.02151839535699409</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.01707384076967372</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.02003457837831456</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.009651754351402659</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0005507668100162012</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0007192274187425031</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0002700745786247645</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0006358086200335306</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.003489251544771462</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.758193157529145E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.409645872876836E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.743414316676493E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.086494384105006E-07</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.795374722882353E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2797,118 +2797,118 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.817486922098847E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.519476839258822E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001714592017967213</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0004155237852015254</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0003671779480310186</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002552938938061921</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002204205918226584</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001010080874899043</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.712646170346879E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1.181147733923576E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001470915286784086</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002093711665285729</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002725047922116099</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001773154138714459</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002202537827325227</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.000263744001290601</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001305199814394988</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.396199916791415E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.76534235886534E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.025301241091597E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001846429540181747</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0001546993566973357</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0002375643729659484</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0002215898821736061</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>9.727335727945454E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.434839537477799E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.119568022355373E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>6.632308336684646E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0002887209412969456</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0006067516897206588</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0004021782747551143</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001900693605616521</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002567232384441814</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001857226141055448</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>8.850875260378435E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.480404567102591E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>8.888450283199651E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -2932,439 +2932,439 @@
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>5.381185936666916E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0001713101862117458</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0002662855404159145</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001604427326448116</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0004556289400251064</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0006925237249155524</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0009320988623711165</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0006265203542854412</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0003186887988370097</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0001764087785512399</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0001404696034343908</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>7.871177116867762E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>3.786833047828331E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>8.251025273666734E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>8.850875260378435E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002639251596577536</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0004911616460136384</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0003161223568376572</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.000187890359083236</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>9.398132987904862E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>6.01906703028808E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0002967050035434916</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0002204205918226584</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001723544701599063</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0002227619941808461</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>6.01906703028808E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1.275205487509776E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.212366308887698E-06</v>
+        <v>0</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.556245075752085E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0002103501607642327</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0006140277070259785</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.007624569028215573</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.06948162318060398</v>
+        <v>0.2217503018554754</v>
       </c>
       <c r="CO3">
-        <v>0.1244778331121256</v>
+        <v>0.531442892178369</v>
       </c>
       <c r="CP3">
-        <v>0.03595058409947834</v>
+        <v>0.03293157485261478</v>
       </c>
       <c r="CQ3">
-        <v>0.006393767272998886</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01088034366807987</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.001554730259332251</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01155628900549934</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.004931148479115722</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01124021329335139</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0004945658086458866</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01154937042476833</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.06706201776474857</v>
+        <v>0.2081251107790612</v>
       </c>
       <c r="CZ3">
-        <v>0.003307404073607373</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.030750915211682</v>
+        <v>0.003651394842245522</v>
       </c>
       <c r="DB3">
-        <v>0.009333758709070385</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.002966028949317241</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.0222990544846089</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0001067783344417868</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.002761125290109198</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.008360218001995495</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>4.641329381322546E-06</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.01230605027733348</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.002266328579605266</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0003110186031766889</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0009453852485746478</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.007554447354832737</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.005101532637898251</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>1.441299222505749E-05</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0006811115912693843</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.002037076838209253</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.00128871514806203</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.00100528027557187</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01107252456943915</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0147693491914978</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.001879730940623196</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.003943662162578967</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0002885320811135076</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004425840044567318</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.01568903944175956</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>5.122245249920077E-05</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.003549725204792407</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.005491452099364537</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0002293438037064018</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0007659309208270996</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0007396822874418034</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001610101096854357</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.01426541242331784</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.03004626529533995</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.03047518717621803</v>
+        <v>0.00209872549223391</v>
       </c>
       <c r="EK3">
-        <v>0.002030759943047769</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.006757585911687075</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.02217115312271476</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.02309373431549097</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01663508556842869</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.002624337618775701</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.003724086392724898</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.006521436475841506</v>
+        <v>0</v>
       </c>
       <c r="ES3">
         <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.004422267285461232</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.003102280204710751</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>1.015802290126554E-06</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.003881148819289132</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.009354502401485647</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01891122432196742</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.01396470821100012</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>9.548625674804264E-05</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01070204511484922</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.01515897473880154</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.02031505054310366</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.01199509772903018</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0005673516878916412</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.003989685284588297</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.003303076897998645</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01154937042476833</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.008836773658510273</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.00249637189098535</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0006757230712354834</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0005957829376886819</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.001644919532183153</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0006197158046179767</v>
+        <v>0</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>9.787688044008703E-06</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.004660418591052133</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.006023306495564485</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>4.174197855994508E-05</v>
+        <v>0</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0003612812487030176</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001580794229873362</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.003472016690086911</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0005212048146647076</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0003545972972279761</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0020968303807326</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.01897763767624435</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.01552559023132283</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.005158453478499659</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.004316456178647122</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.00287246041670813</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.003754319084297183</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0002927003301950511</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.006605793455426539</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.01825058119815605</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.01488426490955837</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.01727597709819377</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.008540727689445263</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0003121929243098517</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0003786772718607676</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>2.212366308887698E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>1.887200646056244E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0002827058529024445</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.004031196768974344</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,37 +3540,37 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.002017975779818257</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001130069141130352</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0006508647239002751</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007127137433309654</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002824991390489649</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.019219842499084E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9.476705492407026E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.087441163234008E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.137464904294676E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001540999370683822</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3582,562 +3582,562 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>7.137202170667701E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.076567334362623E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>6.565662633491669E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001650719978583667</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0005858948966093507</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0007862816432932881</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0007647250075216656</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0005858948966093507</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0008452300195277285</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0001511991438621412</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>6.116321705308054E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.668372765213185E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>5.000343045968946E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.703615003261003E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0004992996289641002</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0004888701343115294</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001113365588296494</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.223615033043419E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.144284523888776E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>8.263101190748708E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>5.769021543511328E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.358204192679704E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>9.28415919793346E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0001661021264696957</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001651956660952432</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>4.452351877223142E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>8.038413725524548E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0001571488501400913</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.180498056629312E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.243326441290255E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0001650719978583667</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0004495396147170562</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0002116993234538608</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0002224181573777651</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0005229483040752166</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0004855508132293965</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0003988247668736793</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0001632671776489952</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001342113523966763</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>6.804223522750024E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>2.044451899950286E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1.363371836868703E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.667663204080833E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>6.432968295435163E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0001754863415018104</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0002428167060154293</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0001808127562656635</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0001474692354329923</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>9.520106383107036E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>8.770737101647734E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0003292501028793371</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0002972809335848334</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0004592466212485773</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0006768534948725966</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0007021071368819297</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000295664765940595</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>9.443305297799618E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001105942793904064</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>1.876895939948555E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.452418667799404E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>3.987365907007385E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001164978825976788</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>7.090105963842548E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>4.074946010247238E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1.61297373150907E-06</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>9.053950034938696E-07</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.081183191800073E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>2.747845049186585E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001132255846475039</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001702394320333776</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0005283269223160627</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.000973902939739211</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001264408788772085</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001170311721472288</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0008269171498059244</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.05248564786014636</v>
+        <v>0.1587336087206018</v>
       </c>
       <c r="CP4">
-        <v>0.001662225985236915</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.1101322303891063</v>
+        <v>0.5657098055872276</v>
       </c>
       <c r="CR4">
-        <v>0.00466976810144903</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.004498280279567115</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0123828388276254</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.003077612756540774</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.00722169447154564</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>2.423883971880809E-05</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01870772209409784</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>2.661929926842157E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.04542279844171577</v>
+        <v>0.1088709547825211</v>
       </c>
       <c r="DA4">
-        <v>0.05147507755149083</v>
+        <v>0.1515991344319248</v>
       </c>
       <c r="DB4">
-        <v>0.01658877896268708</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.009954965120009745</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.02792257484590151</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>8.050849553808215E-05</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01528051382617944</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.002900675271686106</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>7.696332941362507E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.01343244073596596</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0009222024962506066</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.003651176358528881</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0002211632937980481</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.001777563167226567</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.009485611858912219</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01547537080455524</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002684547276562233</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0005064493051655962</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.002982837644080035</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.002610930873369371</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0002284084363580448</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002229767786145226</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01778903290514974</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.00627997134843102</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.002842347386779257</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.002575101386959897</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
         <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.002851106970208019</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.008526673989215873</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.002416252406883291</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.009438638730284643</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.005088084663266385</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>5.163221424422117E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0003860017828036455</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0002267831981096622</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.007074961798471107</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.02027579353490672</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.03213859765251575</v>
+        <v>0.01508649647772465</v>
       </c>
       <c r="EL4">
-        <v>0.01449764218330795</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0013821261292913</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.02280315986919137</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.02785830056493719</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.02647837265535748</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.01545787063896329</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.004221118819332242</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01261356519506837</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.008287982091231732</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0001924880138918089</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.004123272202295095</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0003768373324088718</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>2.210016497318058E-06</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.00439725395074646</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01305033628604271</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0179772074384438</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.005740104390795243</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001698366192341825</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00997837867946107</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.01249793649366218</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01248745079526618</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.001244470860813888</v>
+        <v>0</v>
       </c>
       <c r="FH4">
         <v>0</v>
       </c>
       <c r="FI4">
-        <v>2.163730644466228E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.01426140794901558</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01520930808354772</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.009309210109740024</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002354396887019642</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0001980641152859463</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>4.047075283927989E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001539314798783544</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>6.006461388102924E-05</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>6.24574332538641E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0007862816432932881</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.009501607924324142</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.003757649050102481</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>4.707211552055983E-05</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001662807183647417</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>2.8654628830782E-05</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.000896034453337945</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0002642651245792853</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>2.720205278250032E-06</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0001723903052914824</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.009227001634275419</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.02380556663411714</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.01145862427066225</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.004288431402661552</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.003070577287946033</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001111685316682635</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0003771061603140534</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.002373783378249603</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.01957071857365396</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.02401376050079138</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.01733835988824286</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.02073926440420975</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.004241577581980438</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>6.497442089687994E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.000247745504296186</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>3.484518685057187E-06</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>1.104803415016161E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4322,22 +4322,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.67513928646983E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0005439470042858926</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000799511440404984</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0005933369058301213</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0004116750585468567</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.876105873506876E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4346,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6.679718900431699E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0003291141406877561</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0003335536911176967</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0002369713381721385</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -4364,16 +4364,16 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>4.673543384832609E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.828493436128543E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.219506150547426E-07</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -4385,16 +4385,16 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.000110774774605218</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.492137019110119E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0001099241243641813</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1.173143691402934E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -4403,169 +4403,169 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001756022997391124</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0005306739402793249</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0009539989237833213</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001249463367574569</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001288567461991239</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0008475042791453011</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0005051211797248936</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0002891576124427066</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.898776839367673E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>6.20581520907448E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>9.048537022074964E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>6.848079972605623E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>4.309551096931884E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0002369713381721385</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.949297101985958E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0001492834128454864</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0004072031213953471</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0004273918387474827</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0004986052010954402</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0006119119502455363</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.000500209160031043</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0009699001591607741</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0008364636820387741</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001970655363603119</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.12277196029552E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0001250528245801252</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0002137446778148291</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0006411171349131934</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001311295201577445</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001675310061430975</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.00152814727750544</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001389313947235461</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001395405855301594</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0006232187452436901</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0002174321690690195</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0002024812733652365</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0002975728798259784</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>5.159473694793632E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.260339850461381E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>3.361437380572236E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>1.173143691402934E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0001772457595921236</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0006296585032253689</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0009626036746489777</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001173677834497177</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001660903814856254</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001692340499054546</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001420641298537355</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001279229424962366</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.00114738211408547</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.000447515843117068</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4574,343 +4574,343 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0002378008372841854</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0003283000590256161</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.000420033200751356</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.000669635648530882</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.07649841487444582</v>
+        <v>0.3061323804131594</v>
       </c>
       <c r="CP5">
-        <v>0.00149734099570334</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.1135002644205831</v>
+        <v>0.5507330519917905</v>
       </c>
       <c r="CR5">
-        <v>0.008152738516220228</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.01785006258851046</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01496171016216803</v>
+        <v>0</v>
       </c>
       <c r="CU5">
         <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.004876004706203848</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.006350663132426178</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.008148245286865023</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0001872779345535671</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.03442309873434523</v>
+        <v>0.02799356543529611</v>
       </c>
       <c r="DA5">
-        <v>0.03318444972438808</v>
+        <v>0.01980547799096586</v>
       </c>
       <c r="DB5">
-        <v>0.02018062880772307</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.006537579256714461</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.03925738324269486</v>
+        <v>0.05995059601210767</v>
       </c>
       <c r="DE5">
-        <v>0.0007902051754150369</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.00775819992704524</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01068349276489976</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0001681568604923337</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.008752017817128737</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.006501913354394664</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.008639974271041009</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.001708647223441313</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0002378008372841854</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.00286889497375452</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01299825458644317</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002000818681314222</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
         <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001530880096077163</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.003400755680805674</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0002617359949636846</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0008364636820387741</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.01161683192893691</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.001239441017458654</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.004156917409745699</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.006159200271162426</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.00196977912241059</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.008188140709609265</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.01100273776864733</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.001035247373277705</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.006589574354606185</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.00471934295931806</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>1.047816248786642E-06</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.001198641809693402</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.000854948660331792</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01047508612618839</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.02211301469501801</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.03554122359308941</v>
+        <v>0.03538492815668037</v>
       </c>
       <c r="EL5">
-        <v>0.01582045809127351</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0002833297760708601</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0151792312345008</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.01743750472879729</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.02356286261516966</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.01519908346852791</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.002957586726221577</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.008535714017965075</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.003022116311655213</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0006380216435051321</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.004778192977894835</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0003216274773968148</v>
+        <v>0</v>
       </c>
       <c r="EX5">
         <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.001791325868141761</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.00791287927202242</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.01209810022373493</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.00279233846741414</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.003213266591679676</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01432404796088849</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.01652906424252146</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01721340554450425</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.00332966541621462</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0003060937718562591</v>
+        <v>0</v>
       </c>
       <c r="FI5">
         <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01270299631325656</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.01618429781695751</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.009459244459296785</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001696170374993171</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0004204482425335541</v>
+        <v>0</v>
       </c>
       <c r="FO5">
         <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.002318518816274061</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0001071057540606219</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0003348906964043242</v>
+        <v>0</v>
       </c>
       <c r="FS5">
         <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.005092936690875478</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001077250955953327</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0005555957945993331</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>3.491401444904631E-06</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>8.267184691501847E-05</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0009023560088159407</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>1.055978831219679E-05</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>4.872834582246119E-05</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0005528802072951527</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.01087991409974238</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.02569186431886486</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.01366254312678242</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.005786761135298032</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.004653230817996927</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.001977000736561074</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0003539316198795714</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.001531645527119598</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.01779121730601306</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.02372143965271152</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.01473692475020267</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.01649311135394458</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.003648903970832809</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0005109629421854795</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001136313191193526</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>6.042444654590993E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0002966589978867943</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,16 +5086,16 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001742076450455632</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001324166052485424</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0003924772463411436</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002071747135086872</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5104,16 +5104,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.900098297808065E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.759540179441141E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001995477950378088</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002830888457147833</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5125,40 +5125,40 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.035350032103596E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001763527940434454</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003264141510684497</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.00108661830976907</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001189236010731977</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.000661939048648666</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0006638492847958202</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0008011117690218048</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003831062356285493</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0002866997335015937</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>7.858870498968433E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.58334036140218E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -5188,28 +5188,28 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>9.175818010968977E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0002744150945054917</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0004721162714262845</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0005053520756635354</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0008170068619032334</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0006675177402097502</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0004591071178592462</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.0878991703001E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5218,22 +5218,22 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>8.446556759612502E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0004067840176136075</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0003746958323478412</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0003310657969728976</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0003831062356285493</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0003017842378665415</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -5251,25 +5251,25 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>4.857963941029889E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>8.925905892290787E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0003437665273106787</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0005060553391524884</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0004295168529831317</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0002381026865692012</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>6.198028815931358E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -5278,19 +5278,19 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001199720489342046</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.000446260899344811</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0005092959677032075</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0002967568433676931</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>4.259666770955901E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
         <v>0</v>
@@ -5317,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>6.242837216738754E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0001733861288715693</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0001708840410095248</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
@@ -5335,205 +5335,205 @@
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>4.056544368349783E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.000339038504654317</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0007571815343643353</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0008369484191170019</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0008059869750978279</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0005253531681971998</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0007323130257998953</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1241151133936772</v>
+        <v>0.4221921027645735</v>
       </c>
       <c r="CO6">
-        <v>0.02181043400668493</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.05838593356696138</v>
+        <v>0.1266505322644689</v>
       </c>
       <c r="CQ6">
-        <v>1.139500371997114E-05</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02010062906386298</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01800686671600744</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01352371787574353</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.001804092375044733</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0007735195801165214</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01012345141916308</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.000211030634545164</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.06522100907454051</v>
+        <v>0.1573834419907466</v>
       </c>
       <c r="CZ6">
-        <v>0.02001544915719025</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.06046272935771981</v>
+        <v>0.1359885384776437</v>
       </c>
       <c r="DB6">
         <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.06501453251255586</v>
+        <v>0.1564550505584897</v>
       </c>
       <c r="DD6">
-        <v>0.01540361926380089</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.008147605835873857</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.005628693696056089</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.003112770532019059</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.003584231032996496</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.004685258672203672</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0002176505988512271</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.001009257711467077</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.00278697398825033</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.001281457432138557</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.006911952693210599</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.0006683165528417702</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0006367120567325953</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.002399290479449835</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>1.447158320125364E-06</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.001276898035707751</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.002268827201205728</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.01422550408150466</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.0002404436658011681</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.001249491405276631</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0008108760357491419</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.003672277111239259</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.01382822287369302</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.001284066189130537</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.004414145925203242</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.005282672398674798</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0002243523283601913</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.000187303044706037</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001704973231837945</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.00237783667465705</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.004103337751393927</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.01307022624429121</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.03051440998609253</v>
+        <v>0.001330333944077745</v>
       </c>
       <c r="EK6">
-        <v>0.00640867903996385</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.003835192386007357</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0260424729583602</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0256405490046699</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.02042272220801222</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.00800817815297058</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.002643045435162926</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.009567911708579738</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.00276167410088495</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.00170098537447814</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.009131397734029928</v>
+        <v>0</v>
       </c>
       <c r="EV6">
         <v>0</v>
@@ -5542,70 +5542,70 @@
         <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.006211334287885322</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01639116895062293</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.01877490059671441</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001002869168012962</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.005127854331041829</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.008842465763062695</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.007872064266517102</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.008117473900494011</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>8.057939454455541E-05</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001059471112062446</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0008747889170818403</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.01539992252406464</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01248021507895154</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.002127740601931117</v>
+        <v>0</v>
       </c>
       <c r="FL6">
         <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0004782703668087964</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>2.673998015482948E-05</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0002701206605204191</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0007571815343643353</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0005966836963059764</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.002155883956719117</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.005702901243272004</v>
+        <v>0</v>
       </c>
       <c r="FT6">
         <v>0</v>
@@ -5614,76 +5614,76 @@
         <v>0</v>
       </c>
       <c r="FV6">
-        <v>4.359107909426736E-05</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0002044923950790731</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.003448854879973117</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>7.858870498968433E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>9.413431545259181E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0005310911823287647</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.008964033859070426</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.01202176687984959</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.005529165777288457</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.001949606182158518</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.00282130830995625</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0009731201759195653</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>8.133837905663821E-05</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.006479625968888586</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.01874227423233824</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.01919502015868204</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.01430235509783128</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.01212327056397919</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0003924772463411436</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001289397734442635</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>1.005892014345355E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>8.81238313705475E-05</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>2.341575997868384E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0018277486839517</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0008012368417176665</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001385788985093017</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001864309998820453</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.002268598765356841</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.002462974523708388</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002542652619867546</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.002542652619867546</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002542652619867546</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002542652619867546</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.002595452338050766</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002914479165941806</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.00339790055971736</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.003916362563472118</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004552171183505648</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.005171602689338197</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.005885747176439172</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.006369168570214726</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006781930892520052</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.007114641760025702</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0074321637219509</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.007518132407285387</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.007541921913695147</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.007541921913695147</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.007541921913695147</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.007691743599422609</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.007831767932898668</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.008038518906718393</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.008586001834776598</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.009485611360478687</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0105381158208248</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01143207359718706</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01214034297995821</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01289553644020009</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01368153527514103</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01431863509531871</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0147358447559568</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01487586908943286</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01492915950702509</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01492915950702509</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01492915950702509</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01497605501304406</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01515328304063727</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0154808963570487</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0160316631670649</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01657347237627472</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01703061353941945</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0174411264925688</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.01788479678788393</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.01826007284725752</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01860671991473077</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.01890936431500595</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.01907612136629723</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.01909205115146002</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01909205115146002</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.01909205115146002</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01909205115146002</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.01922357845738379</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01946842609157348</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.02009389381818689</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.02067646691112774</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.02134133063473688</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.02218440128231025</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0231843840985622</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.02399559987621609</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.02459609636774559</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.02517406387938125</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.02569620443990479</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.02614856881282974</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.02632653529418438</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.02635747672860081</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.02635747672860081</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.02635747672860081</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.02637197281529346</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.02664391898633426</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.02706972247546622</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.02756347689840458</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.02819243751473759</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.02863378375061706</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.02925321525644961</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.02991466222239935</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.03048289587053783</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.03099326716670132</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.03131430535905851</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.03147611078155819</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.03147611078155819</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.03147611078155819</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.03147611078155819</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.03152247128215235</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.03184445667389065</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.03401159942598182</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.142977065717408</v>
+        <v>0.3373400575156559</v>
       </c>
       <c r="CO2">
-        <v>0.2735523213764357</v>
+        <v>0.767233455962348</v>
       </c>
       <c r="CP2">
-        <v>0.3230452895028921</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CQ2">
-        <v>0.3275083574109396</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CR2">
-        <v>0.3456120882108688</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CS2">
-        <v>0.3469513994130769</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CT2">
-        <v>0.3492925775745011</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CU2">
-        <v>0.3517100159431819</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CV2">
-        <v>0.3573645729761199</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CW2">
-        <v>0.3573645729761199</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CX2">
-        <v>0.3628398488376275</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="CY2">
-        <v>0.4280977541865586</v>
+        <v>1</v>
       </c>
       <c r="CZ2">
-        <v>0.4281374369738619</v>
+        <v>1</v>
       </c>
       <c r="DA2">
-        <v>0.4526949170988312</v>
+        <v>1</v>
       </c>
       <c r="DB2">
-        <v>0.4560894191641144</v>
+        <v>1</v>
       </c>
       <c r="DC2">
-        <v>0.4627284370342455</v>
+        <v>1</v>
       </c>
       <c r="DD2">
-        <v>0.4745254760878838</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.4745254760878838</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.477281625498322</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.4840175072240959</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.4840175072240959</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.496987546130393</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.4982374384080359</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.5008956109687743</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.5016530387653418</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.5080362306311657</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.5122468432765777</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.5124846181707906</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.5125267447810943</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.5143665852098376</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.5171392984601759</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.5171931436708742</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.524690319683553</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.5380564363639713</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.5429829743958652</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.547410788955691</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.5477833072115911</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.5537536625709654</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.5683432520082835</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.5689344234062955</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.5737084316470618</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.5829451125141054</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.5829451125141054</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.5853274320335292</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.5864851893947681</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.5882282233366175</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.6024828327173292</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.6270036845597569</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.6532780490111763</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.6581143425731349</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.661846713297229</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.6852222661251351</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7076456136696776</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7244141196080901</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7269839625447245</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7285144459778877</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7342744993003999</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7342744993003999</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7373438440689285</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7393998285686536</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7393998285686536</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7417926833698064</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.747657662722414</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.7614381622440813</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.7761844696936639</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.7761844696936639</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.7844924674726065</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.7987089815843167</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8179424452104836</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8269046564397327</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8272246278959976</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8306220307631663</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8336271185000415</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.84839582748822</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8577877351833535</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8604227072776123</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8605342325609164</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8607137743336694</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8627939436427473</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.863027309380605</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.863027309380605</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.863027309380605</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.8674780230445372</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.8769952461675525</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.8769952461675525</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.8769952461675525</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.8769952461675525</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.8775765807912027</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.8787823615421781</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.8787823615421781</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.8788128714547135</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.8807346716607871</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.8962944462918041</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9088562642041023</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9117818005420365</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9140780628044237</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9152358201656626</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9176051968315585</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9176370604398777</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9260563021714262</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9475746975284203</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.964648538298094</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9846831166764086</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9943348710278113</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9948856378378275</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.99560486525657</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9958749398351947</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9958749398351947</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9965107484552282</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.758193157529145E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.758193157529145E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.758193157529145E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.985465188629751E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.728879505306244E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.799744449147294E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.799744449147294E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001007928192143553</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001007928192143553</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001007928192143553</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001789676884353438</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.000254162456827932</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0004256216586246533</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0008411454438261787</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001208323391857197</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.00146361728566339</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001684037877486048</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001785045964975952</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001812172426679421</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001812172426679421</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001823983904018657</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001971075432697065</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002180446599225638</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002452951391437248</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002630266805308694</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002850520588041216</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003114264589331818</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.003244784570771316</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.00325874656993923</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003286399993527884</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0033066530059388</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.003491295959956975</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00364599531665431</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.003883559689620259</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004105149571793865</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.00411487690752181</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.004129225302896588</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004129225302896588</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.004137344870918944</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.00420366795428579</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004492388895582736</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.005099140585303395</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.005501318860058509</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.005691388220620161</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.005948111459064343</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.006133834073169888</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.006222342825773672</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.006223823230340775</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.006223823230340775</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.006223823230340775</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.006232711680623975</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.006232711680623975</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.006232711680623975</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.006232711680623975</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006232711680623975</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.006286523539990644</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.00645783372620239</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.006724119266618304</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.006884561999263116</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.007340190939288223</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.008032714664203775</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.008964813526574892</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.009591333880860333</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.009910022679697343</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01008643145824858</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01022690106168297</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01030561283285165</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01030561283285165</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01034348116332993</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0104259914160666</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01051450016867039</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01077842532832814</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01126958697434178</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01158570933117944</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01177359969026267</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01186758102014172</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0119277716904446</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01222447669398809</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01244489728581075</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01261725175597066</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01284001375015151</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01290020442045439</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01291295647532948</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01291295647532948</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01291516884163837</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01291516884163837</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01294073129239589</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01315108145316013</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01376510916018611</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.02138967818840168</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.09087130136900566</v>
+        <v>0.2217503018554754</v>
       </c>
       <c r="CO3">
-        <v>0.2153491344811312</v>
+        <v>0.7531931940338444</v>
       </c>
       <c r="CP3">
-        <v>0.2512997185806096</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CQ3">
-        <v>0.2576934858536085</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CR3">
-        <v>0.2685738295216883</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CS3">
-        <v>0.2701285597810206</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CT3">
-        <v>0.2816848487865199</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CU3">
-        <v>0.2866159972656356</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CV3">
-        <v>0.297856210558987</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CW3">
-        <v>0.2983507763676329</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CX3">
-        <v>0.3099001467924012</v>
+        <v>0.7861247688864592</v>
       </c>
       <c r="CY3">
-        <v>0.3769621645571498</v>
+        <v>0.9942498796655205</v>
       </c>
       <c r="CZ3">
-        <v>0.3802695686307572</v>
+        <v>0.9942498796655205</v>
       </c>
       <c r="DA3">
-        <v>0.4110204838424392</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DB3">
-        <v>0.4203542425515095</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DC3">
-        <v>0.4233202715008268</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DD3">
-        <v>0.4456193259854357</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DE3">
-        <v>0.4457261043198775</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DF3">
-        <v>0.4484872296099867</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DG3">
-        <v>0.4568474476119821</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DH3">
-        <v>0.4568520889413635</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DI3">
-        <v>0.469158139218697</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DJ3">
-        <v>0.4714244677983023</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DK3">
-        <v>0.4717354864014789</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DL3">
-        <v>0.4726808716500536</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DM3">
-        <v>0.4802353190048863</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DN3">
-        <v>0.4853368516427846</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DO3">
-        <v>0.4853512646350096</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DP3">
-        <v>0.486032376226279</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DQ3">
-        <v>0.4880694530644882</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DR3">
-        <v>0.4893581682125502</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DS3">
-        <v>0.4903634484881221</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DT3">
-        <v>0.5014359730575613</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DU3">
-        <v>0.516205322249059</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DV3">
-        <v>0.5180850531896822</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DW3">
-        <v>0.5220287153522613</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DX3">
-        <v>0.5223172474333747</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DY3">
-        <v>0.5267430874779421</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="DZ3">
-        <v>0.5424321269197017</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EA3">
-        <v>0.5424833493722009</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EB3">
-        <v>0.5460330745769932</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EC3">
-        <v>0.5515245266763578</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="ED3">
-        <v>0.5517538704800642</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EE3">
-        <v>0.5525198014008913</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EF3">
-        <v>0.5532594836883331</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EG3">
-        <v>0.5548695847851874</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EH3">
-        <v>0.5691349972085052</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EI3">
-        <v>0.5991812625038452</v>
+        <v>0.997901274507766</v>
       </c>
       <c r="EJ3">
-        <v>0.6296564496800632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK3">
-        <v>0.631687209623111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL3">
-        <v>0.638444795534798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM3">
-        <v>0.6606159486575128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN3">
-        <v>0.6837096829730038</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO3">
-        <v>0.7003447685414326</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP3">
-        <v>0.7029691061602082</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ3">
-        <v>0.7066931925529332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER3">
-        <v>0.7132146290287746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES3">
-        <v>0.7132146290287746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET3">
-        <v>0.7176368963142359</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU3">
-        <v>0.7207391765189466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV3">
-        <v>0.7207401923212368</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW3">
-        <v>0.7246213411405259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX3">
-        <v>0.7339758435420115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY3">
-        <v>0.752887067863979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ3">
-        <v>0.7668517760749791</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA3">
-        <v>0.7669472623317272</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.7776493074465763</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.7928082821853779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.8131233327284816</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.8251184304575118</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.8256857821454034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.8296754674299918</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.8329785443279905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.8445279147527588</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.8533646884112691</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.8558610603022545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.85653678337349</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.8571325663111787</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.8587774858433619</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.8593972016479798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.8593972016479798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.8594069893360239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.864067407927076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.8700907144226405</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.8701324564012005</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.8701324564012005</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.8704937376499036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.8720745318797769</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.8755465485698638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.8760677533845285</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.8764223506817564</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.8785191810624891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.8974968187387334</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9130224089700563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9181808624485559</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9224973186272031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9253697790439112</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9291240981282083</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9294167984584033</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9360225919138299</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9542731731119859</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9691574380215443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.986433415119738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9949741428091833</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9952863357334931</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9956650130053539</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9956672253716629</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9956860973781234</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9959688032310259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.002017975779818257</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.003148044920948608</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003798909644848883</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004511623388179849</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.004794122527228813</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.004864314725653804</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.004873791431146211</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004894665842778551</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004894665842778551</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.004936040491821498</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00509014042888988</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.00509014042888988</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.00509014042888988</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.00509014042888988</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.005097277631060547</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.005108043304404173</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.00517369993073909</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.005338771928597457</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.005924666825206808</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.006710948468500096</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.007475673476021761</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.008061568372631112</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.008906798392158841</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.009057997536020981</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.009119160753074061</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.009165844480726193</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.009165844480726193</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.009166344515030789</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.009193380665063399</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.009692680294027499</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01018155042833903</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01029288698716868</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01031512313749911</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.010318267422023</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01040089843393049</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.010406667455474</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0104202494974008</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.01051309108938013</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.01067919321584983</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.01084438888194507</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0108889124007173</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01096929653797254</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.01112644538811264</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.01113825036867893</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.01115068363309183</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0113157556309502</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.01176529524566725</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.01197699456912111</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.01219941272649888</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0127223610305741</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.01320791184380349</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.01360673661067717</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01377000378832617</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01390421514072284</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.01397225737595034</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01399270189494985</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01400633561331853</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01402301224535934</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.01408734192831369</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0142628282698155</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01450564497583093</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0146864577320966</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01483392696752959</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0148434470739127</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01493115444492917</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01526040454780851</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01555768548139334</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01601693210264192</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01669378559751452</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01739589273439645</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01769155750033704</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01778599055331504</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01789658483270544</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01789658483270544</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01791535379210493</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01792987797878292</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.017969751637853</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01808624952045067</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0181571505800891</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01816122552609934</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01816283849983085</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01816374389483435</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01817455572675235</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01820203417724421</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01831525976189172</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0184854991939251</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01901382611624116</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01998772905598037</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.02125213784475246</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.02242244956622474</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.02324936671603067</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.07573501457617703</v>
+        <v>0.1587336087206018</v>
       </c>
       <c r="CP4">
-        <v>0.07739724056141394</v>
+        <v>0.1587336087206018</v>
       </c>
       <c r="CQ4">
-        <v>0.1875294709505203</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CR4">
-        <v>0.1921992390519693</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CS4">
-        <v>0.1966975193315364</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CT4">
-        <v>0.2090803581591618</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CU4">
-        <v>0.2121579709157026</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CV4">
-        <v>0.2193796653872482</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CW4">
-        <v>0.219403904226967</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CX4">
-        <v>0.2381116263210649</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CY4">
-        <v>0.2381382456203333</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="CZ4">
-        <v>0.2835610440620491</v>
+        <v>0.8333143690903505</v>
       </c>
       <c r="DA4">
-        <v>0.3350361216135399</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DB4">
-        <v>0.351624900576227</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DC4">
-        <v>0.3615798656962367</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DD4">
-        <v>0.3895024405421382</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DE4">
-        <v>0.3895829490376763</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DF4">
-        <v>0.4048634628638558</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DG4">
-        <v>0.4077641381355419</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DH4">
-        <v>0.4078411014649555</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DI4">
-        <v>0.4212735422009214</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DJ4">
-        <v>0.422195744697172</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DK4">
-        <v>0.4258469210557009</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DL4">
-        <v>0.426068084349499</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DM4">
-        <v>0.4278456475167255</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DN4">
-        <v>0.4373312593756378</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DO4">
-        <v>0.452806630180193</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DP4">
-        <v>0.4554911774567553</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DQ4">
-        <v>0.4559976267619208</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DR4">
-        <v>0.4589804644060009</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DS4">
-        <v>0.4615913952793703</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DT4">
-        <v>0.4618198037157283</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DU4">
-        <v>0.4640495715018735</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DV4">
-        <v>0.4818386044070233</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DW4">
-        <v>0.4881185757554543</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DX4">
-        <v>0.4909609231422336</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DY4">
-        <v>0.4935360245291934</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="DZ4">
-        <v>0.4935360245291934</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EA4">
-        <v>0.4963871314994014</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EB4">
-        <v>0.5049138054886173</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EC4">
-        <v>0.5073300578955006</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="ED4">
-        <v>0.5167686966257852</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EE4">
-        <v>0.5218567812890516</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EF4">
-        <v>0.5219084135032958</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EG4">
-        <v>0.5222944152860994</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EH4">
-        <v>0.5225211984842091</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EI4">
-        <v>0.5295961602826802</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EJ4">
-        <v>0.5498719538175869</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="EK4">
-        <v>0.5820105514701026</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.5965081936534106</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.5978903197827019</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.6206934796518933</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.6485517802168305</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.6750301528721879</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.6904880235111512</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.6947091423304835</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7073227075255519</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7156106896167836</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7158031776306755</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7199264498329706</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.7203032871653795</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.7203054971818769</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.7247027511326233</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.737753087418666</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.7557302948571097</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.7614703992479049</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.7631687654402468</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.7731471441197079</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.78564508061337</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.7981325314086362</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.7993770022694501</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.7993770022694501</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.7993986395758947</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8136600475249103</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.828869355608458</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.838178565718198</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8405329626052177</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8407310267205037</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.840771497473343</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.8423108122721266</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.8423708768860076</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.8424333343192615</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.8432196159625548</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.852721223886879</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.8564788729369814</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.856525945052502</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.8566922257708668</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.8567208803996975</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.8576169148530355</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.8578811799776148</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.8578839001828931</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.8580562904881845</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.8672832921224599</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.8910888587565771</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9025474830272393</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9068359144299009</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9099064917178469</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9110181770345295</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9113952831948435</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9137690665730931</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9333397851467471</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9573535456475385</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9746919055357813</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.995431169939991</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9996727475219714</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9997377219428684</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9999854674471645</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9999889519658496</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8973,763 +8973,763 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.67513928646983E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0005606983971505909</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001360209837555575</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001953546743385696</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002365221801932553</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.002433982860667622</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.002433982860667622</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002433982860667622</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.002500780049671939</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002829894190359695</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.003163447881477392</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00340041921964953</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.00340041921964953</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.00340041921964953</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.003447154653497857</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.003447154653497857</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.003448983146933985</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.00344930509754904</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.00344930509754904</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.00344930509754904</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.00344930509754904</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003560079872154258</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003615001242345359</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00372492536670954</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00373665680362357</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00373665680362357</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.00373665680362357</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003912259103362682</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.004442933043642006</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.005396931967425328</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.006646395334999897</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.007934962796991137</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.008782467076136438</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.009287588255861332</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.009576745868304037</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.009579644645143406</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.009579644645143406</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.00964170279723415</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0097321881674549</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.009800668967180955</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.009843764478150274</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01008073581632241</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.01011022878734227</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.01025951220018776</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.01066671532158311</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01109410716033059</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01159271236142603</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.01220462431167156</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01270483347170261</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01367473363086338</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01451119731290216</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01470826284926247</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01471949056886542</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01471949056886542</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01484454339344555</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01505828807126038</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01569940520617357</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01701070040775101</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01868601046918199</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.02021415774668743</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.02160347169392289</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.02299887754922448</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.02362209629446817</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.02383952846353719</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02404200973690243</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02433958261672841</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.02439117735367634</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02439117735367634</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.02440378075218096</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02440714218956153</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.02440714218956153</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.02441887362647556</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.02459611938606768</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.02522577788929305</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.02618838156394203</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.02736205939843921</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.02902296321329546</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.03071530371235001</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.03213594501088736</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.03341517443584972</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0345625565499352</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.03501007239305226</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.03501007239305226</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.03501007239305226</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.03524787323033644</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.03557617328936206</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.03599620649011341</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.03666584213864429</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1131642570130901</v>
+        <v>0.3061323804131594</v>
       </c>
       <c r="CP5">
-        <v>0.1146615980087935</v>
+        <v>0.3061323804131594</v>
       </c>
       <c r="CQ5">
-        <v>0.2281618624293766</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CR5">
-        <v>0.2363146009455968</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CS5">
-        <v>0.2541646635341073</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CT5">
-        <v>0.2691263736962753</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CU5">
-        <v>0.2691263736962753</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CV5">
-        <v>0.2740023784024792</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CW5">
-        <v>0.2803530415349053</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CX5">
-        <v>0.2885012868217703</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CY5">
-        <v>0.2886885647563239</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="CZ5">
-        <v>0.3231116634906692</v>
+        <v>0.8848589978402459</v>
       </c>
       <c r="DA5">
-        <v>0.3562961132150573</v>
+        <v>0.9046644758312118</v>
       </c>
       <c r="DB5">
-        <v>0.3764767420227804</v>
+        <v>0.9046644758312118</v>
       </c>
       <c r="DC5">
-        <v>0.3830143212794948</v>
+        <v>0.9046644758312118</v>
       </c>
       <c r="DD5">
-        <v>0.4222717045221897</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DE5">
-        <v>0.4230619096976047</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DF5">
-        <v>0.4308201096246499</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DG5">
-        <v>0.4415036023895497</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DH5">
-        <v>0.441671759250042</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DI5">
-        <v>0.4504237770671708</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DJ5">
-        <v>0.4569256904215654</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DK5">
-        <v>0.4655656646926065</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DL5">
-        <v>0.4672743119160478</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DM5">
-        <v>0.467512112753332</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DN5">
-        <v>0.4703810077270865</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DO5">
-        <v>0.4833792623135297</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DP5">
-        <v>0.4853800809948439</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DQ5">
-        <v>0.4853800809948439</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DR5">
-        <v>0.4869109610909211</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DS5">
-        <v>0.4903117167717267</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DT5">
-        <v>0.4905734527666905</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DU5">
-        <v>0.4914099164487292</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DV5">
-        <v>0.5030267483776661</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DW5">
-        <v>0.5042661893951248</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DX5">
-        <v>0.5084231068048705</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DY5">
-        <v>0.5145823070760329</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="DZ5">
-        <v>0.5165520861984435</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EA5">
-        <v>0.5247402269080528</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EB5">
-        <v>0.5357429646767001</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EC5">
-        <v>0.5367782120499779</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="ED5">
-        <v>0.5433677864045841</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EE5">
-        <v>0.5480871293639021</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EF5">
-        <v>0.5480881771801509</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EG5">
-        <v>0.5492868189898443</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EH5">
-        <v>0.5501417676501761</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EI5">
-        <v>0.5606168537763645</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EJ5">
-        <v>0.5827298684713825</v>
+        <v>0.9646150718433195</v>
       </c>
       <c r="EK5">
-        <v>0.6182710920644719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.6340915501557455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.6343748799318163</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.6495541111663171</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.6669916158951144</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.6905544785102841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.705753561978812</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.7087111487050336</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.7172468627229986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.7202689790346538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.7209070006781589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.7256851936560538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.7260068211334506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.7260068211334506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.7277981470015924</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.7357110262736148</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.7478091264973498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.7506014649647639</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.7538147315564435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.768138779517332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.7846678437598534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8018812493043577</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8052109147205723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8055170084924286</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8055170084924286</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8182200048056851</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.8344043026226426</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.8438635470819394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.8455597174569326</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.8459801656994661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.8459801656994661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.8482986845157402</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.8484057902698008</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.8487406809662051</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.8487406809662051</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.8538336176570807</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.854910868613034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.8554664644076333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.8554699558090783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.8555526276559933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.8564549836648092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.8564655434531214</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.8565142717989439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.8570671520062391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.8679470661059815</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.8936389304248463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9073014735516287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9130882346869268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9177414655049237</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9197184662414848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9200723978613644</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.921604043388484</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9393952606944971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9631167003472086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9778536250974114</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.994346736451356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9979956404221888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9985066033643742</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9996429165555678</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9997033410021137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001742076450455632</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.003066242502941056</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0034587197492822</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.003665894462790887</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.003665894462790887</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.003665894462790887</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.003714895445768967</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003742490847563379</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.003942038642601188</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.004225127488315971</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.004225127488315971</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.004225127488315971</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.004225127488315971</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004230162838348075</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.00440651563239152</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.00473292978345997</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.00581954809322904</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.007008784103961017</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.007670723152609683</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.008334572437405503</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.009135684206427307</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.009518790442055856</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.009805490175557451</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.009805490175557451</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.009884078880547134</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.009884078880547134</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.009884078880547134</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.009884078880547134</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.009884078880547134</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.009884078880547134</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.009889662220908537</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.009889662220908537</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.009889662220908537</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.009889662220908537</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.009981420401018227</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01025583549552372</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.01072795176695</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01123330384261354</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01205031070451677</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.01271782844472652</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.01317693556258577</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.01318302346175607</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.01318302346175607</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01318302346175607</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.01326748902935219</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0136742730469658</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.01404896887931364</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.01438003467628654</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01476314091191509</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01506492514978163</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01506492514978163</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.01506492514978163</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.01506492514978163</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01506492514978163</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.01506492514978163</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01511350478919193</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01520276384811484</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.01554653037542552</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01605258571457801</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01648210256756114</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01672020525413034</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.01678218554228965</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.01678218554228965</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01678218554228965</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01690215759122386</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.01734841849056867</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01785771445827188</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01815447130163957</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01819706796934913</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01825949634151652</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01843288247038809</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01860376651139761</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01860376651139761</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01860376651139761</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01860376651139761</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01864433195508111</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01898337045973543</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01974055199409977</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.02057750041321677</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0213834873883146</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.02190884055651179</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.02264115358231169</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1467562669759889</v>
+        <v>0.4221921027645735</v>
       </c>
       <c r="CO6">
-        <v>0.1685667009826738</v>
+        <v>0.4221921027645735</v>
       </c>
       <c r="CP6">
-        <v>0.2269526345496352</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CQ6">
-        <v>0.2269640295533552</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CR6">
-        <v>0.2470646586172182</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CS6">
-        <v>0.2650715253332256</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CT6">
-        <v>0.2785952432089691</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CU6">
-        <v>0.2803993355840139</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CV6">
-        <v>0.2811728551641304</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CW6">
-        <v>0.2912963065832935</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CX6">
-        <v>0.2915073372178386</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="CY6">
-        <v>0.3567283462923792</v>
+        <v>0.706226077019789</v>
       </c>
       <c r="CZ6">
-        <v>0.3767437954495694</v>
+        <v>0.706226077019789</v>
       </c>
       <c r="DA6">
-        <v>0.4372065248072892</v>
+        <v>0.8422146154974327</v>
       </c>
       <c r="DB6">
-        <v>0.4372065248072892</v>
+        <v>0.8422146154974327</v>
       </c>
       <c r="DC6">
-        <v>0.502221057319845</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DD6">
-        <v>0.5176246765836459</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DE6">
-        <v>0.5257722824195197</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DF6">
-        <v>0.5314009761155758</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DG6">
-        <v>0.5345137466475949</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DH6">
-        <v>0.5380979776805914</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DI6">
-        <v>0.5427832363527951</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DJ6">
-        <v>0.5430008869516464</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DK6">
-        <v>0.5440101446631135</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DL6">
-        <v>0.5467971186513638</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DM6">
-        <v>0.5480785760835024</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DN6">
-        <v>0.554990528776713</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DO6">
-        <v>0.5556588453295547</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DP6">
-        <v>0.5562955573862872</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DQ6">
-        <v>0.5586948478657371</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DR6">
-        <v>0.5586962950240573</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DS6">
-        <v>0.559973193059765</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DT6">
-        <v>0.5622420202609707</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DU6">
-        <v>0.5764675243424754</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DV6">
-        <v>0.5767079680082765</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DW6">
-        <v>0.5779574594135531</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DX6">
-        <v>0.5787683354493023</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DY6">
-        <v>0.5824406125605416</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="DZ6">
-        <v>0.5962688354342346</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EA6">
-        <v>0.5975529016233652</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EB6">
-        <v>0.6019670475485684</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EC6">
-        <v>0.6072497199472432</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="ED6">
-        <v>0.6074740722756033</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EE6">
-        <v>0.6076613753203094</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EF6">
-        <v>0.6093663485521473</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EG6">
-        <v>0.6117441852268044</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EH6">
-        <v>0.6158475229781983</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EI6">
-        <v>0.6289177492224896</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="EJ6">
-        <v>0.6594321592085821</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.665840838248546</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.6696760306345534</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.6957185035929135</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7213590525975835</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7417817748055957</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7497899529585663</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7524329983937292</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.762000910102309</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.7647625842031939</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.766463569577672</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.775594967311702</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.775594967311702</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.775594967311702</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7818063015995873</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.7981974705502103</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8169723711469247</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8179752403149376</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8231030946459794</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8319455604090421</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8398176246755592</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8479350985760532</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8480156779705977</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8490751490826601</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8499499379997419</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8653498605238066</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8778300756027582</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8799578162046893</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8799578162046893</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8804360865714981</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8804628265516529</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8807329472121733</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8814901287465376</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.8820868124428436</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.8842426963995627</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.8899455976428347</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.8899455976428347</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.8899455976428347</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.8899891887219289</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.8901936811170079</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.8936425359969811</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.8937211247019707</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.8938152590174233</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.8943463501997521</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9033103840588225</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.915332150938672</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9208613167159605</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9228109228981191</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9256322312080754</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9266053513839949</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9266866897630516</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9331663157319402</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9519085899642784</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9711036101229604</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9854059652207917</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9975292357847709</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9979217130311121</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9980506528045564</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9980607117246999</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9981488355560705</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9981722513160491</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>0.03184445667389065</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5008956109687743</v>
+        <v>0.767233455962348</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.01376510916018611</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5014359730575613</v>
+        <v>0.7531931940338444</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07573501457617703</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5049138054886173</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.03599620649011341</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5030267483776661</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.02190884055651179</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.502221057319845</v>
+        <v>0.5488426350290424</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>0.03184445667389065</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7076456136696776</v>
+        <v>0.767233455962348</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.01376510916018611</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7003447685414326</v>
+        <v>0.7531931940338444</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07573501457617703</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7073227075255519</v>
+        <v>0.7244434143078294</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.03599620649011341</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.705753561978812</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.02190884055651179</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7213590525975835</v>
+        <v>0.706226077019789</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.03184445667389065</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8179424452104836</v>
+        <v>0.8498566208212304</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01376510916018611</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8131233327284816</v>
+        <v>0.9942498796655205</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.07573501457617703</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8136600475249103</v>
+        <v>0.8333143690903505</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.03599620649011341</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8018812493043577</v>
+        <v>0.8568654324049498</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>0.02190884055651179</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8169723711469247</v>
+        <v>0.8422146154974327</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.03184445667389065</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9088562642041023</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01376510916018611</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9130224089700563</v>
+        <v>0.9942498796655205</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.07573501457617703</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9025474830272393</v>
+        <v>0.9849135035222754</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.03599620649011341</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9073014735516287</v>
+        <v>0.9046644758312118</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.02190884055651179</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9033103840588225</v>
+        <v>0.9986696660559223</v>
       </c>
       <c r="G6">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>12</v>

--- a/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3047491211860124</v>
+        <v>0.2669486146347392</v>
       </c>
       <c r="F2">
-        <v>0.3744563207841319</v>
+        <v>0.3223287978607803</v>
       </c>
       <c r="G2">
-        <v>0.1129073022000434</v>
+        <v>0.1145363079130303</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01165431012630232</v>
+        <v>0.03409398221989002</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -707,31 +707,31 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.002190037553847609</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.001730587257784922</v>
       </c>
       <c r="P2">
-        <v>0.1637606264469902</v>
+        <v>0.1549376786564502</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0324723192565196</v>
+        <v>0.05063323737114604</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.004712950693591489</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.01793159680657433</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.004961187174855878</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.0209376856517416</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.004057336205568327</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -793,58 +793,58 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.007761633782800323</v>
       </c>
       <c r="E3">
-        <v>0.208813990958931</v>
+        <v>0.1742607829468068</v>
       </c>
       <c r="F3">
-        <v>0.4168016476780347</v>
+        <v>0.3222927622629421</v>
       </c>
       <c r="G3">
-        <v>0.08200448436704529</v>
+        <v>0.08400608921634399</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004448714216209044</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01652512429871952</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01834455015247031</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0005118182862332179</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01749377673842456</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.01832592757464277</v>
       </c>
       <c r="P3">
-        <v>0.1996633956496317</v>
+        <v>0.1677479890775728</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.06234009387478088</v>
+        <v>0.07001026517306112</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.01236221865580689</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0303763874715764</v>
+        <v>0.04726059435227542</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.009741762482689313</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.02036266458658111</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.007572888956261446</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0009704372401592813</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -912,58 +912,58 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1671051085991076</v>
+        <v>0.1394334263860402</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.4120426623272856</v>
+        <v>0.3065401045915333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008241197903705752</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0003270086172496745</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.02318287153715201</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.008221677807233298</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02358432828239834</v>
+        <v>0.04151752705930281</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1370954014663076</v>
+        <v>0.1189595447923376</v>
       </c>
       <c r="R4">
-        <v>0.1628112440122856</v>
+        <v>0.1365039717685407</v>
       </c>
       <c r="S4">
-        <v>0.01458104093511905</v>
+        <v>0.03537510659893097</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.01614491902403837</v>
       </c>
       <c r="U4">
-        <v>0.06273779396890761</v>
+        <v>0.06822966446542007</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.009022285357491172</v>
+        <v>0.03158269026507425</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001169911774020542</v>
+        <v>0.02622547147363261</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01478435156407626</v>
       </c>
       <c r="AF4">
-        <v>0.009850223277076523</v>
+        <v>0.03214754425906741</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1025,73 +1025,73 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2609878969724378</v>
+        <v>0.203605394793228</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.4145537955960857</v>
+        <v>0.3082576828355844</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01030339782758265</v>
       </c>
       <c r="J5">
-        <v>0.0175842014259234</v>
+        <v>0.03773032822434538</v>
       </c>
       <c r="K5">
-        <v>0.005596896971317508</v>
+        <v>0.02956120441574965</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.001035815403185701</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.005206590115208655</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01029068963222245</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.08636598449554833</v>
+        <v>0.08460382708303539</v>
       </c>
       <c r="R5">
-        <v>0.08122531583637267</v>
+        <v>0.08110055752858289</v>
       </c>
       <c r="S5">
-        <v>0.02725656916281305</v>
+        <v>0.04432186595195839</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.005735244772170803</v>
       </c>
       <c r="U5">
-        <v>0.1064293395395015</v>
+        <v>0.09827662833627222</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.009187524794622979</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.01746112712614082</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.01199833877744786</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.005634370942115148</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.01168144614634196</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.02400796529420475</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3505469830983896</v>
+        <v>0.2744254467974087</v>
       </c>
       <c r="F6">
-        <v>0.01848253457293261</v>
+        <v>0.03806168675814205</v>
       </c>
       <c r="G6">
-        <v>0.1372006925672828</v>
+        <v>0.1225653737173593</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01293278417220497</v>
+        <v>0.0341113696500616</v>
       </c>
       <c r="J6">
-        <v>0.006136770113512589</v>
+        <v>0.02927396099844227</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01891613647809891</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1162,34 +1162,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.01106019313681186</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1593862425602454</v>
+        <v>0.1383570672821516</v>
       </c>
       <c r="Q6">
-        <v>0.01265630396715263</v>
+        <v>0.03391457080232953</v>
       </c>
       <c r="R6">
-        <v>0.1439416359248149</v>
+        <v>0.1273635829965314</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1587160530234647</v>
+        <v>0.1378800257935012</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.0232594427984623</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.006495218258618761</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0006755475637552843</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.003640376968325262</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1374,103 +1374,103 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3047491211860124</v>
+        <v>0.2669486146347392</v>
       </c>
       <c r="F2">
-        <v>0.6792054419701443</v>
+        <v>0.5892774124955195</v>
       </c>
       <c r="G2">
-        <v>0.7921127441701877</v>
+        <v>0.7038137204085497</v>
       </c>
       <c r="H2">
-        <v>0.7921127441701877</v>
+        <v>0.7038137204085497</v>
       </c>
       <c r="I2">
-        <v>0.8037670542964901</v>
+        <v>0.7379077026284397</v>
       </c>
       <c r="J2">
-        <v>0.8037670542964901</v>
+        <v>0.7379077026284397</v>
       </c>
       <c r="K2">
-        <v>0.8037670542964901</v>
+        <v>0.7379077026284397</v>
       </c>
       <c r="L2">
-        <v>0.8037670542964901</v>
+        <v>0.7379077026284397</v>
       </c>
       <c r="M2">
-        <v>0.8037670542964901</v>
+        <v>0.7400977401822874</v>
       </c>
       <c r="N2">
-        <v>0.8037670542964901</v>
+        <v>0.7400977401822874</v>
       </c>
       <c r="O2">
-        <v>0.8037670542964901</v>
+        <v>0.7418283274400723</v>
       </c>
       <c r="P2">
-        <v>0.9675276807434803</v>
+        <v>0.8967660060965225</v>
       </c>
       <c r="Q2">
-        <v>0.9675276807434803</v>
+        <v>0.8967660060965225</v>
       </c>
       <c r="R2">
-        <v>0.9999999999999999</v>
+        <v>0.9473992434676685</v>
       </c>
       <c r="S2">
-        <v>0.9999999999999999</v>
+        <v>0.9473992434676685</v>
       </c>
       <c r="T2">
-        <v>0.9999999999999999</v>
+        <v>0.9521121941612599</v>
       </c>
       <c r="U2">
-        <v>0.9999999999999999</v>
+        <v>0.9700437909678342</v>
       </c>
       <c r="V2">
-        <v>0.9999999999999999</v>
+        <v>0.9700437909678342</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999999</v>
+        <v>0.9700437909678342</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999999</v>
+        <v>0.97500497814269</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999999</v>
+        <v>0.97500497814269</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999999</v>
+        <v>0.9959426637944316</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999999</v>
+        <v>0.9959426637944316</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999999</v>
+        <v>0.9959426637944316</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9959426637944316</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1484,85 +1484,85 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.007761633782800323</v>
       </c>
       <c r="E3">
-        <v>0.208813990958931</v>
+        <v>0.1820224167296071</v>
       </c>
       <c r="F3">
-        <v>0.6256156386369657</v>
+        <v>0.5043151789925492</v>
       </c>
       <c r="G3">
-        <v>0.707620123004011</v>
+        <v>0.5883212682088932</v>
       </c>
       <c r="H3">
-        <v>0.707620123004011</v>
+        <v>0.5927699824251023</v>
       </c>
       <c r="I3">
-        <v>0.707620123004011</v>
+        <v>0.6092951067238218</v>
       </c>
       <c r="J3">
-        <v>0.707620123004011</v>
+        <v>0.6092951067238218</v>
       </c>
       <c r="K3">
-        <v>0.707620123004011</v>
+        <v>0.6276396568762921</v>
       </c>
       <c r="L3">
-        <v>0.707620123004011</v>
+        <v>0.6281514751625253</v>
       </c>
       <c r="M3">
-        <v>0.707620123004011</v>
+        <v>0.6456452519009499</v>
       </c>
       <c r="N3">
-        <v>0.707620123004011</v>
+        <v>0.6456452519009499</v>
       </c>
       <c r="O3">
-        <v>0.707620123004011</v>
+        <v>0.6639711794755927</v>
       </c>
       <c r="P3">
-        <v>0.9072835186536428</v>
+        <v>0.8317191685531655</v>
       </c>
       <c r="Q3">
-        <v>0.9072835186536428</v>
+        <v>0.8317191685531655</v>
       </c>
       <c r="R3">
-        <v>0.9696236125284237</v>
+        <v>0.9017294337262266</v>
       </c>
       <c r="S3">
-        <v>0.9696236125284237</v>
+        <v>0.9140916523820335</v>
       </c>
       <c r="T3">
-        <v>0.9696236125284237</v>
+        <v>0.9140916523820335</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.961352246734309</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.961352246734309</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.961352246734309</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9710940092169983</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9710940092169983</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9914566738035794</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9914566738035794</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9914566738035794</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9914566738035794</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9990295627598408</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -1603,100 +1603,100 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1671051085991076</v>
+        <v>0.1394334263860402</v>
       </c>
       <c r="G4">
-        <v>0.1671051085991076</v>
+        <v>0.1394334263860402</v>
       </c>
       <c r="H4">
-        <v>0.5791477709263932</v>
+        <v>0.4459735309775735</v>
       </c>
       <c r="I4">
-        <v>0.5791477709263932</v>
+        <v>0.4467976507679441</v>
       </c>
       <c r="J4">
-        <v>0.5791477709263932</v>
+        <v>0.4471246593851937</v>
       </c>
       <c r="K4">
-        <v>0.5791477709263932</v>
+        <v>0.4703075309223458</v>
       </c>
       <c r="L4">
-        <v>0.5791477709263932</v>
+        <v>0.4703075309223458</v>
       </c>
       <c r="M4">
-        <v>0.5791477709263932</v>
+        <v>0.4785292087295791</v>
       </c>
       <c r="N4">
-        <v>0.5791477709263932</v>
+        <v>0.4785292087295791</v>
       </c>
       <c r="O4">
-        <v>0.6027320992087916</v>
+        <v>0.5200467357888819</v>
       </c>
       <c r="P4">
-        <v>0.6027320992087916</v>
+        <v>0.5200467357888819</v>
       </c>
       <c r="Q4">
-        <v>0.7398275006750992</v>
+        <v>0.6390062805812196</v>
       </c>
       <c r="R4">
-        <v>0.9026387446873847</v>
+        <v>0.7755102523497603</v>
       </c>
       <c r="S4">
-        <v>0.9172197856225037</v>
+        <v>0.8108853589486913</v>
       </c>
       <c r="T4">
-        <v>0.9172197856225037</v>
+        <v>0.8270302779727297</v>
       </c>
       <c r="U4">
-        <v>0.9799575795914113</v>
+        <v>0.8952599424381498</v>
       </c>
       <c r="V4">
-        <v>0.9799575795914113</v>
+        <v>0.8952599424381498</v>
       </c>
       <c r="W4">
-        <v>0.9889798649489024</v>
+        <v>0.926842632703224</v>
       </c>
       <c r="X4">
-        <v>0.9889798649489024</v>
+        <v>0.926842632703224</v>
       </c>
       <c r="Y4">
-        <v>0.9889798649489024</v>
+        <v>0.926842632703224</v>
       </c>
       <c r="Z4">
-        <v>0.990149776722923</v>
+        <v>0.9530681041768566</v>
       </c>
       <c r="AA4">
-        <v>0.990149776722923</v>
+        <v>0.9530681041768566</v>
       </c>
       <c r="AB4">
-        <v>0.990149776722923</v>
+        <v>0.9530681041768566</v>
       </c>
       <c r="AC4">
-        <v>0.990149776722923</v>
+        <v>0.9530681041768566</v>
       </c>
       <c r="AD4">
-        <v>0.990149776722923</v>
+        <v>0.9530681041768566</v>
       </c>
       <c r="AE4">
-        <v>0.990149776722923</v>
+        <v>0.9678524557409328</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1716,100 +1716,100 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2609878969724378</v>
+        <v>0.203605394793228</v>
       </c>
       <c r="G5">
-        <v>0.2609878969724378</v>
+        <v>0.203605394793228</v>
       </c>
       <c r="H5">
-        <v>0.6755416925685236</v>
+        <v>0.5118630776288123</v>
       </c>
       <c r="I5">
-        <v>0.6755416925685236</v>
+        <v>0.5221664754563949</v>
       </c>
       <c r="J5">
-        <v>0.693125893994447</v>
+        <v>0.5598968036807404</v>
       </c>
       <c r="K5">
-        <v>0.6987227909657645</v>
+        <v>0.58945800809649</v>
       </c>
       <c r="L5">
-        <v>0.6987227909657645</v>
+        <v>0.58945800809649</v>
       </c>
       <c r="M5">
-        <v>0.6987227909657645</v>
+        <v>0.5904938234996756</v>
       </c>
       <c r="N5">
-        <v>0.6987227909657645</v>
+        <v>0.5957004136148842</v>
       </c>
       <c r="O5">
-        <v>0.6987227909657645</v>
+        <v>0.6059911032471067</v>
       </c>
       <c r="P5">
-        <v>0.6987227909657645</v>
+        <v>0.6059911032471067</v>
       </c>
       <c r="Q5">
-        <v>0.7850887754613128</v>
+        <v>0.6905949303301421</v>
       </c>
       <c r="R5">
-        <v>0.8663140912976856</v>
+        <v>0.771695487858725</v>
       </c>
       <c r="S5">
-        <v>0.8935706604604986</v>
+        <v>0.8160173538106834</v>
       </c>
       <c r="T5">
-        <v>0.8935706604604986</v>
+        <v>0.8217525985828542</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9200292269191265</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9200292269191265</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9292167517137494</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9466778788398902</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9466778788398902</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.958676217617338</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9643105885594532</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9759920347057951</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9759920347057951</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9759920347057951</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9759920347057951</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1826,82 +1826,82 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3505469830983896</v>
+        <v>0.2744254467974087</v>
       </c>
       <c r="F6">
-        <v>0.3690295176713222</v>
+        <v>0.3124871335555507</v>
       </c>
       <c r="G6">
-        <v>0.506230210238605</v>
+        <v>0.43505250727291</v>
       </c>
       <c r="H6">
-        <v>0.506230210238605</v>
+        <v>0.43505250727291</v>
       </c>
       <c r="I6">
-        <v>0.51916299441081</v>
+        <v>0.4691638769229716</v>
       </c>
       <c r="J6">
-        <v>0.5252997645243226</v>
+        <v>0.4984378379214139</v>
       </c>
       <c r="K6">
-        <v>0.5252997645243226</v>
+        <v>0.5173539743995128</v>
       </c>
       <c r="L6">
-        <v>0.5252997645243226</v>
+        <v>0.5173539743995128</v>
       </c>
       <c r="M6">
-        <v>0.5252997645243226</v>
+        <v>0.5173539743995128</v>
       </c>
       <c r="N6">
-        <v>0.5252997645243226</v>
+        <v>0.5284141675363246</v>
       </c>
       <c r="O6">
-        <v>0.5252997645243226</v>
+        <v>0.5284141675363246</v>
       </c>
       <c r="P6">
-        <v>0.6846860070845679</v>
+        <v>0.6667712348184762</v>
       </c>
       <c r="Q6">
-        <v>0.6973423110517206</v>
+        <v>0.7006858056208057</v>
       </c>
       <c r="R6">
-        <v>0.8412839469765355</v>
+        <v>0.8280493886173371</v>
       </c>
       <c r="S6">
-        <v>0.8412839469765355</v>
+        <v>0.8280493886173371</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.9659294144108383</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9891888572093006</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9956840754679194</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9963596230316747</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6792054419701443</v>
+        <v>0.5892774124955195</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6256156386369657</v>
+        <v>0.5043151789925492</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2072,16 +2072,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5791477709263932</v>
+        <v>0.5200467357888819</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6755416925685236</v>
+        <v>0.5118630776288123</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2154,16 +2154,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.506230210238605</v>
+        <v>0.5173539743995128</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7921127441701877</v>
+        <v>0.7038137204085497</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.707620123004011</v>
+        <v>0.8317191685531655</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -2331,16 +2331,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7398275006750992</v>
+        <v>0.7755102523497603</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -2372,16 +2372,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7850887754613128</v>
+        <v>0.771695487858725</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -2413,16 +2413,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8412839469765355</v>
+        <v>0.7006858056208057</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -2508,16 +2508,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8037670542964901</v>
+        <v>0.8967660060965225</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9072835186536428</v>
+        <v>0.8317191685531655</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2590,16 +2590,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9026387446873847</v>
+        <v>0.8108853589486913</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -2631,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8663140912976856</v>
+        <v>0.8160173538106834</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8412839469765355</v>
+        <v>0.8280493886173371</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -2767,16 +2767,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9473992434676685</v>
+      </c>
+      <c r="G2">
         <v>15</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9675276807434803</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -2808,16 +2808,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9017294337262266</v>
+      </c>
+      <c r="G3">
         <v>15</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9072835186536428</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -2849,16 +2849,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9026387446873847</v>
+        <v>0.926842632703224</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9200292269191265</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9659294144108383</v>
       </c>
       <c r="G6">
         <v>17</v>
